--- a/public/Importer Blank.xlsx
+++ b/public/Importer Blank.xlsx
@@ -1,17 +1,27 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25629"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\disne\Desktop\Dev\apt8\rowprop\public\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F284EC11-C930-4C0E-9AB3-FC955F5B0059}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <bookViews>
+    <workbookView xWindow="33375" yWindow="2730" windowWidth="27630" windowHeight="15660" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+  </bookViews>
   <sheets>
-    <sheet state="visible" name="Sheet1" sheetId="1" r:id="rId4"/>
-    <sheet state="visible" name="Choices" sheetId="2" r:id="rId5"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Choices" sheetId="2" r:id="rId2"/>
   </sheets>
   <definedNames>
+    <definedName name="bool">Choices!$C$2:$C$3</definedName>
     <definedName name="number">Choices!$B$2:$B$3</definedName>
-    <definedName name="bool">Choices!$C$2:$C$3</definedName>
     <definedName name="string">Choices!$A$2:$A$6</definedName>
   </definedNames>
-  <calcPr/>
+  <calcPr calcId="0"/>
   <extLst>
     <ext uri="GoogleSheetsCustomDataVersion1">
       <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" r:id="rId6" roundtripDataSignature="AMtx7miCP7IxDNy1uyQw5E1xel5C+7mLxQ=="/>
@@ -21,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="23">
   <si>
     <t>Label</t>
   </si>
@@ -39,9 +49,6 @@
   </si>
   <si>
     <t>Synced</t>
-  </si>
-  <si>
-    <t>string</t>
   </si>
   <si>
     <t>number</t>
@@ -98,25 +105,26 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <fonts count="4">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
-      <sz val="10.0"/>
+      <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="10.0"/>
+      <sz val="10"/>
       <color theme="1"/>
       <name val="Arial"/>
     </font>
     <font>
-      <sz val="10.0"/>
+      <sz val="10"/>
       <color theme="0"/>
       <name val="Arial"/>
     </font>
     <font>
+      <sz val="10"/>
       <color theme="1"/>
       <name val="Arial"/>
       <scheme val="minor"/>
@@ -127,7 +135,7 @@
       <patternFill patternType="none"/>
     </fill>
     <fill>
-      <patternFill patternType="lightGray"/>
+      <patternFill patternType="gray125"/>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -137,45 +145,49 @@
     </fill>
   </fills>
   <borders count="2">
-    <border/>
     <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="5">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyFont="1"/>
-    <xf borderId="1" fillId="2" fontId="2" numFmtId="0" xfId="0" applyBorder="1" applyFill="1" applyFont="1"/>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle xfId="0" name="Normal" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
-<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
-</file>
-
-<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
-</file>
-
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheets">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Sheets">
   <a:themeElements>
     <a:clrScheme name="Sheets">
       <a:dk1>
@@ -365,27 +377,29 @@
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
-    <pageSetUpPr/>
   </sheetPr>
+  <dimension ref="A1:H1000"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="1.0" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection activeCell="B3" sqref="B3" pane="bottomLeft"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.0"/>
+  <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col customWidth="1" min="1" max="6" width="12.63"/>
+    <col min="1" max="6" width="12.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="15.75" customHeight="1">
+    <row r="1" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -405,6124 +419,6146 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" ht="15.75" customHeight="1">
+    <row r="2" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="3"/>
       <c r="C2" s="3"/>
       <c r="D2" s="3"/>
       <c r="E2" s="3"/>
       <c r="F2" s="3"/>
     </row>
-    <row r="3" ht="15.75" customHeight="1">
+    <row r="3" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="1"/>
       <c r="C3" s="1"/>
       <c r="D3" s="1"/>
       <c r="E3" s="1"/>
       <c r="F3" s="1"/>
     </row>
-    <row r="4" ht="15.75" customHeight="1">
+    <row r="4" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="1"/>
       <c r="C4" s="1"/>
       <c r="D4" s="1"/>
       <c r="E4" s="1"/>
       <c r="F4" s="1"/>
     </row>
-    <row r="5" ht="15.75" customHeight="1">
+    <row r="5" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="1"/>
       <c r="C5" s="1"/>
       <c r="D5" s="1"/>
       <c r="E5" s="1"/>
       <c r="F5" s="1"/>
     </row>
-    <row r="6" ht="15.75" customHeight="1">
+    <row r="6" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C6" s="1"/>
       <c r="D6" s="1"/>
       <c r="F6" s="1"/>
     </row>
-    <row r="7" ht="15.75" customHeight="1">
+    <row r="7" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C7" s="1"/>
       <c r="D7" s="1"/>
       <c r="F7" s="1"/>
     </row>
-    <row r="8" ht="15.75" customHeight="1">
+    <row r="8" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C8" s="1"/>
       <c r="D8" s="1"/>
       <c r="F8" s="1"/>
     </row>
-    <row r="9" ht="15.75" customHeight="1">
+    <row r="9" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C9" s="1"/>
       <c r="D9" s="1"/>
       <c r="F9" s="1"/>
     </row>
-    <row r="10" ht="15.75" customHeight="1">
+    <row r="10" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C10" s="1"/>
       <c r="D10" s="1"/>
       <c r="F10" s="1"/>
     </row>
-    <row r="11" ht="15.75" customHeight="1">
+    <row r="11" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C11" s="1"/>
       <c r="D11" s="1"/>
       <c r="F11" s="1"/>
     </row>
-    <row r="12" ht="15.75" customHeight="1">
+    <row r="12" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C12" s="1"/>
       <c r="D12" s="1"/>
       <c r="F12" s="1"/>
     </row>
-    <row r="13" ht="15.75" customHeight="1">
+    <row r="13" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C13" s="1"/>
       <c r="D13" s="1"/>
       <c r="F13" s="1"/>
     </row>
-    <row r="14" ht="15.75" customHeight="1">
+    <row r="14" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C14" s="1"/>
       <c r="D14" s="1"/>
       <c r="F14" s="1"/>
     </row>
-    <row r="15" ht="15.75" customHeight="1">
+    <row r="15" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C15" s="1"/>
       <c r="D15" s="1"/>
       <c r="F15" s="1"/>
     </row>
-    <row r="16" ht="15.75" customHeight="1">
+    <row r="16" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C16" s="1"/>
       <c r="D16" s="1"/>
       <c r="F16" s="1"/>
     </row>
-    <row r="17" ht="15.75" customHeight="1">
+    <row r="17" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C17" s="1"/>
       <c r="D17" s="1"/>
       <c r="F17" s="1"/>
     </row>
-    <row r="18" ht="15.75" customHeight="1">
+    <row r="18" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C18" s="1"/>
       <c r="D18" s="1"/>
       <c r="F18" s="1"/>
     </row>
-    <row r="19" ht="15.75" customHeight="1">
+    <row r="19" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C19" s="1"/>
       <c r="D19" s="1"/>
       <c r="F19" s="1"/>
     </row>
-    <row r="20" ht="15.75" customHeight="1">
+    <row r="20" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C20" s="1"/>
       <c r="D20" s="1"/>
       <c r="F20" s="1"/>
     </row>
-    <row r="21" ht="15.75" customHeight="1">
+    <row r="21" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C21" s="1"/>
       <c r="D21" s="1"/>
       <c r="F21" s="1"/>
     </row>
-    <row r="22" ht="15.75" customHeight="1">
+    <row r="22" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C22" s="1"/>
       <c r="D22" s="1"/>
       <c r="F22" s="1"/>
     </row>
-    <row r="23" ht="15.75" customHeight="1">
+    <row r="23" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C23" s="1"/>
       <c r="D23" s="1"/>
       <c r="F23" s="1"/>
     </row>
-    <row r="24" ht="15.75" customHeight="1">
+    <row r="24" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C24" s="1"/>
       <c r="D24" s="1"/>
       <c r="F24" s="1"/>
     </row>
-    <row r="25" ht="15.75" customHeight="1">
+    <row r="25" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C25" s="1"/>
       <c r="D25" s="1"/>
       <c r="F25" s="1"/>
     </row>
-    <row r="26" ht="15.75" customHeight="1">
+    <row r="26" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C26" s="1"/>
       <c r="D26" s="1"/>
       <c r="F26" s="1"/>
     </row>
-    <row r="27" ht="15.75" customHeight="1">
+    <row r="27" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C27" s="1"/>
       <c r="D27" s="1"/>
       <c r="F27" s="1"/>
     </row>
-    <row r="28" ht="15.75" customHeight="1">
+    <row r="28" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C28" s="1"/>
       <c r="D28" s="1"/>
       <c r="F28" s="1"/>
     </row>
-    <row r="29" ht="15.75" customHeight="1">
+    <row r="29" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C29" s="1"/>
       <c r="D29" s="1"/>
       <c r="F29" s="1"/>
     </row>
-    <row r="30" ht="15.75" customHeight="1">
+    <row r="30" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C30" s="1"/>
       <c r="D30" s="1"/>
       <c r="F30" s="1"/>
     </row>
-    <row r="31" ht="15.75" customHeight="1">
+    <row r="31" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C31" s="1"/>
       <c r="D31" s="1"/>
       <c r="F31" s="1"/>
     </row>
-    <row r="32" ht="15.75" customHeight="1">
+    <row r="32" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C32" s="1"/>
       <c r="D32" s="1"/>
       <c r="F32" s="1"/>
     </row>
-    <row r="33" ht="15.75" customHeight="1">
+    <row r="33" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C33" s="1"/>
       <c r="D33" s="1"/>
       <c r="F33" s="1"/>
     </row>
-    <row r="34" ht="15.75" customHeight="1">
+    <row r="34" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C34" s="1"/>
       <c r="D34" s="1"/>
       <c r="F34" s="1"/>
     </row>
-    <row r="35" ht="15.75" customHeight="1">
+    <row r="35" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C35" s="1"/>
       <c r="D35" s="1"/>
       <c r="F35" s="1"/>
     </row>
-    <row r="36" ht="15.75" customHeight="1">
+    <row r="36" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C36" s="1"/>
       <c r="D36" s="1"/>
       <c r="F36" s="1"/>
     </row>
-    <row r="37" ht="15.75" customHeight="1">
+    <row r="37" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C37" s="1"/>
       <c r="D37" s="1"/>
       <c r="F37" s="1"/>
     </row>
-    <row r="38" ht="15.75" customHeight="1">
+    <row r="38" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C38" s="1"/>
       <c r="D38" s="1"/>
       <c r="F38" s="1"/>
     </row>
-    <row r="39" ht="15.75" customHeight="1">
+    <row r="39" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C39" s="1"/>
       <c r="D39" s="1"/>
       <c r="F39" s="1"/>
     </row>
-    <row r="40" ht="15.75" customHeight="1">
+    <row r="40" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C40" s="1"/>
       <c r="D40" s="1"/>
       <c r="F40" s="1"/>
     </row>
-    <row r="41" ht="15.75" customHeight="1">
+    <row r="41" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C41" s="1"/>
       <c r="D41" s="1"/>
       <c r="F41" s="1"/>
     </row>
-    <row r="42" ht="15.75" customHeight="1">
+    <row r="42" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C42" s="1"/>
       <c r="D42" s="1"/>
       <c r="F42" s="1"/>
     </row>
-    <row r="43" ht="15.75" customHeight="1">
+    <row r="43" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C43" s="1"/>
       <c r="D43" s="1"/>
       <c r="F43" s="1"/>
     </row>
-    <row r="44" ht="15.75" customHeight="1">
+    <row r="44" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C44" s="1"/>
       <c r="D44" s="1"/>
       <c r="F44" s="1"/>
     </row>
-    <row r="45" ht="15.75" customHeight="1">
+    <row r="45" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C45" s="1"/>
       <c r="D45" s="1"/>
       <c r="F45" s="1"/>
     </row>
-    <row r="46" ht="15.75" customHeight="1">
+    <row r="46" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C46" s="1"/>
       <c r="D46" s="1"/>
       <c r="F46" s="1"/>
     </row>
-    <row r="47" ht="15.75" customHeight="1">
+    <row r="47" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C47" s="1"/>
       <c r="D47" s="1"/>
       <c r="F47" s="1"/>
     </row>
-    <row r="48" ht="15.75" customHeight="1">
+    <row r="48" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C48" s="1"/>
       <c r="D48" s="1"/>
       <c r="F48" s="1"/>
     </row>
-    <row r="49" ht="15.75" customHeight="1">
+    <row r="49" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C49" s="1"/>
       <c r="D49" s="1"/>
       <c r="F49" s="1"/>
     </row>
-    <row r="50" ht="15.75" customHeight="1">
+    <row r="50" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C50" s="1"/>
       <c r="D50" s="1"/>
       <c r="F50" s="1"/>
     </row>
-    <row r="51" ht="15.75" customHeight="1">
+    <row r="51" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C51" s="1"/>
       <c r="D51" s="1"/>
       <c r="F51" s="1"/>
     </row>
-    <row r="52" ht="15.75" customHeight="1">
+    <row r="52" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C52" s="1"/>
       <c r="D52" s="1"/>
       <c r="F52" s="1"/>
     </row>
-    <row r="53" ht="15.75" customHeight="1">
+    <row r="53" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C53" s="1"/>
       <c r="D53" s="1"/>
       <c r="F53" s="1"/>
     </row>
-    <row r="54" ht="15.75" customHeight="1">
+    <row r="54" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C54" s="1"/>
       <c r="D54" s="1"/>
       <c r="F54" s="1"/>
     </row>
-    <row r="55" ht="15.75" customHeight="1">
+    <row r="55" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C55" s="1"/>
       <c r="D55" s="1"/>
       <c r="F55" s="1"/>
     </row>
-    <row r="56" ht="15.75" customHeight="1">
+    <row r="56" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C56" s="1"/>
       <c r="D56" s="1"/>
       <c r="F56" s="1"/>
     </row>
-    <row r="57" ht="15.75" customHeight="1">
+    <row r="57" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C57" s="1"/>
       <c r="D57" s="1"/>
       <c r="F57" s="1"/>
     </row>
-    <row r="58" ht="15.75" customHeight="1">
+    <row r="58" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C58" s="1"/>
       <c r="D58" s="1"/>
       <c r="F58" s="1"/>
     </row>
-    <row r="59" ht="15.75" customHeight="1">
+    <row r="59" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C59" s="1"/>
       <c r="D59" s="1"/>
       <c r="F59" s="1"/>
     </row>
-    <row r="60" ht="15.75" customHeight="1">
+    <row r="60" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C60" s="1"/>
       <c r="D60" s="1"/>
       <c r="F60" s="1"/>
     </row>
-    <row r="61" ht="15.75" customHeight="1">
+    <row r="61" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C61" s="1"/>
       <c r="D61" s="1"/>
       <c r="F61" s="1"/>
     </row>
-    <row r="62" ht="15.75" customHeight="1">
+    <row r="62" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C62" s="1"/>
       <c r="D62" s="1"/>
       <c r="F62" s="1"/>
     </row>
-    <row r="63" ht="15.75" customHeight="1">
+    <row r="63" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C63" s="1"/>
       <c r="D63" s="1"/>
       <c r="F63" s="1"/>
     </row>
-    <row r="64" ht="15.75" customHeight="1">
+    <row r="64" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C64" s="1"/>
       <c r="D64" s="1"/>
       <c r="F64" s="1"/>
     </row>
-    <row r="65" ht="15.75" customHeight="1">
+    <row r="65" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C65" s="1"/>
       <c r="D65" s="1"/>
       <c r="F65" s="1"/>
     </row>
-    <row r="66" ht="15.75" customHeight="1">
+    <row r="66" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C66" s="1"/>
       <c r="D66" s="1"/>
       <c r="F66" s="1"/>
     </row>
-    <row r="67" ht="15.75" customHeight="1">
+    <row r="67" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C67" s="1"/>
       <c r="D67" s="1"/>
       <c r="F67" s="1"/>
     </row>
-    <row r="68" ht="15.75" customHeight="1">
+    <row r="68" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C68" s="1"/>
       <c r="D68" s="1"/>
       <c r="F68" s="1"/>
     </row>
-    <row r="69" ht="15.75" customHeight="1">
+    <row r="69" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C69" s="1"/>
       <c r="D69" s="1"/>
       <c r="F69" s="1"/>
     </row>
-    <row r="70" ht="15.75" customHeight="1">
+    <row r="70" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C70" s="1"/>
       <c r="D70" s="1"/>
       <c r="F70" s="1"/>
     </row>
-    <row r="71" ht="15.75" customHeight="1">
+    <row r="71" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C71" s="1"/>
       <c r="D71" s="1"/>
       <c r="F71" s="1"/>
     </row>
-    <row r="72" ht="15.75" customHeight="1">
+    <row r="72" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C72" s="1"/>
       <c r="D72" s="1"/>
       <c r="F72" s="1"/>
     </row>
-    <row r="73" ht="15.75" customHeight="1">
+    <row r="73" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C73" s="1"/>
       <c r="D73" s="1"/>
       <c r="F73" s="1"/>
     </row>
-    <row r="74" ht="15.75" customHeight="1">
+    <row r="74" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C74" s="1"/>
       <c r="D74" s="1"/>
       <c r="F74" s="1"/>
     </row>
-    <row r="75" ht="15.75" customHeight="1">
+    <row r="75" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C75" s="1"/>
       <c r="D75" s="1"/>
       <c r="F75" s="1"/>
     </row>
-    <row r="76" ht="15.75" customHeight="1">
+    <row r="76" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C76" s="1"/>
       <c r="D76" s="1"/>
       <c r="F76" s="1"/>
     </row>
-    <row r="77" ht="15.75" customHeight="1">
+    <row r="77" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C77" s="1"/>
       <c r="D77" s="1"/>
       <c r="F77" s="1"/>
     </row>
-    <row r="78" ht="15.75" customHeight="1">
+    <row r="78" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C78" s="1"/>
       <c r="D78" s="1"/>
       <c r="F78" s="1"/>
     </row>
-    <row r="79" ht="15.75" customHeight="1">
+    <row r="79" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C79" s="1"/>
       <c r="D79" s="1"/>
       <c r="F79" s="1"/>
     </row>
-    <row r="80" ht="15.75" customHeight="1">
+    <row r="80" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C80" s="1"/>
       <c r="D80" s="1"/>
       <c r="F80" s="1"/>
     </row>
-    <row r="81" ht="15.75" customHeight="1">
+    <row r="81" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C81" s="1"/>
       <c r="D81" s="1"/>
       <c r="F81" s="1"/>
     </row>
-    <row r="82" ht="15.75" customHeight="1">
+    <row r="82" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C82" s="1"/>
       <c r="D82" s="1"/>
       <c r="F82" s="1"/>
     </row>
-    <row r="83" ht="15.75" customHeight="1">
+    <row r="83" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C83" s="1"/>
       <c r="D83" s="1"/>
       <c r="F83" s="1"/>
     </row>
-    <row r="84" ht="15.75" customHeight="1">
+    <row r="84" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C84" s="1"/>
       <c r="D84" s="1"/>
       <c r="F84" s="1"/>
     </row>
-    <row r="85" ht="15.75" customHeight="1">
+    <row r="85" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C85" s="1"/>
       <c r="D85" s="1"/>
       <c r="F85" s="1"/>
     </row>
-    <row r="86" ht="15.75" customHeight="1">
+    <row r="86" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C86" s="1"/>
       <c r="D86" s="1"/>
       <c r="F86" s="1"/>
     </row>
-    <row r="87" ht="15.75" customHeight="1">
+    <row r="87" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C87" s="1"/>
       <c r="D87" s="1"/>
       <c r="F87" s="1"/>
     </row>
-    <row r="88" ht="15.75" customHeight="1">
+    <row r="88" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C88" s="1"/>
       <c r="D88" s="1"/>
       <c r="F88" s="1"/>
     </row>
-    <row r="89" ht="15.75" customHeight="1">
+    <row r="89" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C89" s="1"/>
       <c r="D89" s="1"/>
       <c r="F89" s="1"/>
     </row>
-    <row r="90" ht="15.75" customHeight="1">
+    <row r="90" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C90" s="1"/>
       <c r="D90" s="1"/>
       <c r="F90" s="1"/>
     </row>
-    <row r="91" ht="15.75" customHeight="1">
+    <row r="91" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C91" s="1"/>
       <c r="D91" s="1"/>
       <c r="F91" s="1"/>
     </row>
-    <row r="92" ht="15.75" customHeight="1">
+    <row r="92" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C92" s="1"/>
       <c r="D92" s="1"/>
       <c r="F92" s="1"/>
     </row>
-    <row r="93" ht="15.75" customHeight="1">
+    <row r="93" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C93" s="1"/>
       <c r="D93" s="1"/>
       <c r="F93" s="1"/>
     </row>
-    <row r="94" ht="15.75" customHeight="1">
+    <row r="94" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C94" s="1"/>
       <c r="D94" s="1"/>
       <c r="F94" s="1"/>
     </row>
-    <row r="95" ht="15.75" customHeight="1">
+    <row r="95" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C95" s="1"/>
       <c r="D95" s="1"/>
       <c r="F95" s="1"/>
     </row>
-    <row r="96" ht="15.75" customHeight="1">
+    <row r="96" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C96" s="1"/>
       <c r="D96" s="1"/>
       <c r="F96" s="1"/>
     </row>
-    <row r="97" ht="15.75" customHeight="1">
+    <row r="97" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C97" s="1"/>
       <c r="D97" s="1"/>
       <c r="F97" s="1"/>
     </row>
-    <row r="98" ht="15.75" customHeight="1">
+    <row r="98" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C98" s="1"/>
       <c r="D98" s="1"/>
       <c r="F98" s="1"/>
     </row>
-    <row r="99" ht="15.75" customHeight="1">
+    <row r="99" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C99" s="1"/>
       <c r="D99" s="1"/>
       <c r="F99" s="1"/>
     </row>
-    <row r="100" ht="15.75" customHeight="1">
+    <row r="100" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C100" s="1"/>
       <c r="D100" s="1"/>
       <c r="F100" s="1"/>
     </row>
-    <row r="101" ht="15.75" customHeight="1">
+    <row r="101" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C101" s="1"/>
       <c r="D101" s="1"/>
       <c r="F101" s="1"/>
     </row>
-    <row r="102" ht="15.75" customHeight="1">
+    <row r="102" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C102" s="1"/>
       <c r="D102" s="1"/>
       <c r="F102" s="1"/>
     </row>
-    <row r="103" ht="15.75" customHeight="1">
+    <row r="103" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C103" s="1"/>
       <c r="D103" s="1"/>
       <c r="F103" s="1"/>
     </row>
-    <row r="104" ht="15.75" customHeight="1">
+    <row r="104" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C104" s="1"/>
       <c r="D104" s="1"/>
       <c r="F104" s="1"/>
     </row>
-    <row r="105" ht="15.75" customHeight="1">
+    <row r="105" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C105" s="1"/>
       <c r="D105" s="1"/>
       <c r="F105" s="1"/>
     </row>
-    <row r="106" ht="15.75" customHeight="1">
+    <row r="106" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C106" s="1"/>
       <c r="D106" s="1"/>
       <c r="F106" s="1"/>
     </row>
-    <row r="107" ht="15.75" customHeight="1">
+    <row r="107" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C107" s="1"/>
       <c r="D107" s="1"/>
       <c r="F107" s="1"/>
     </row>
-    <row r="108" ht="15.75" customHeight="1">
+    <row r="108" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C108" s="1"/>
       <c r="D108" s="1"/>
       <c r="F108" s="1"/>
     </row>
-    <row r="109" ht="15.75" customHeight="1">
+    <row r="109" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C109" s="1"/>
       <c r="D109" s="1"/>
       <c r="F109" s="1"/>
     </row>
-    <row r="110" ht="15.75" customHeight="1">
+    <row r="110" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C110" s="1"/>
       <c r="D110" s="1"/>
       <c r="F110" s="1"/>
     </row>
-    <row r="111" ht="15.75" customHeight="1">
+    <row r="111" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C111" s="1"/>
       <c r="D111" s="1"/>
       <c r="F111" s="1"/>
     </row>
-    <row r="112" ht="15.75" customHeight="1">
+    <row r="112" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C112" s="1"/>
       <c r="D112" s="1"/>
       <c r="F112" s="1"/>
     </row>
-    <row r="113" ht="15.75" customHeight="1">
+    <row r="113" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C113" s="1"/>
       <c r="D113" s="1"/>
       <c r="F113" s="1"/>
     </row>
-    <row r="114" ht="15.75" customHeight="1">
+    <row r="114" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C114" s="1"/>
       <c r="D114" s="1"/>
       <c r="F114" s="1"/>
     </row>
-    <row r="115" ht="15.75" customHeight="1">
+    <row r="115" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C115" s="1"/>
       <c r="D115" s="1"/>
       <c r="F115" s="1"/>
     </row>
-    <row r="116" ht="15.75" customHeight="1">
+    <row r="116" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C116" s="1"/>
       <c r="D116" s="1"/>
       <c r="F116" s="1"/>
     </row>
-    <row r="117" ht="15.75" customHeight="1">
+    <row r="117" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C117" s="1"/>
       <c r="D117" s="1"/>
       <c r="F117" s="1"/>
     </row>
-    <row r="118" ht="15.75" customHeight="1">
+    <row r="118" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C118" s="1"/>
       <c r="D118" s="1"/>
       <c r="F118" s="1"/>
     </row>
-    <row r="119" ht="15.75" customHeight="1">
+    <row r="119" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C119" s="1"/>
       <c r="D119" s="1"/>
       <c r="F119" s="1"/>
     </row>
-    <row r="120" ht="15.75" customHeight="1">
+    <row r="120" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C120" s="1"/>
       <c r="D120" s="1"/>
       <c r="F120" s="1"/>
     </row>
-    <row r="121" ht="15.75" customHeight="1">
+    <row r="121" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C121" s="1"/>
       <c r="D121" s="1"/>
       <c r="F121" s="1"/>
     </row>
-    <row r="122" ht="15.75" customHeight="1">
+    <row r="122" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C122" s="1"/>
       <c r="D122" s="1"/>
       <c r="F122" s="1"/>
     </row>
-    <row r="123" ht="15.75" customHeight="1">
+    <row r="123" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C123" s="1"/>
       <c r="D123" s="1"/>
       <c r="F123" s="1"/>
     </row>
-    <row r="124" ht="15.75" customHeight="1">
+    <row r="124" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C124" s="1"/>
       <c r="D124" s="1"/>
       <c r="F124" s="1"/>
     </row>
-    <row r="125" ht="15.75" customHeight="1">
+    <row r="125" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C125" s="1"/>
       <c r="D125" s="1"/>
       <c r="F125" s="1"/>
     </row>
-    <row r="126" ht="15.75" customHeight="1">
+    <row r="126" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C126" s="1"/>
       <c r="D126" s="1"/>
       <c r="F126" s="1"/>
     </row>
-    <row r="127" ht="15.75" customHeight="1">
+    <row r="127" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C127" s="1"/>
       <c r="D127" s="1"/>
       <c r="F127" s="1"/>
     </row>
-    <row r="128" ht="15.75" customHeight="1">
+    <row r="128" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C128" s="1"/>
       <c r="D128" s="1"/>
       <c r="F128" s="1"/>
     </row>
-    <row r="129" ht="15.75" customHeight="1">
+    <row r="129" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C129" s="1"/>
       <c r="D129" s="1"/>
       <c r="F129" s="1"/>
     </row>
-    <row r="130" ht="15.75" customHeight="1">
+    <row r="130" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C130" s="1"/>
       <c r="D130" s="1"/>
       <c r="F130" s="1"/>
     </row>
-    <row r="131" ht="15.75" customHeight="1">
+    <row r="131" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C131" s="1"/>
       <c r="D131" s="1"/>
       <c r="F131" s="1"/>
     </row>
-    <row r="132" ht="15.75" customHeight="1">
+    <row r="132" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C132" s="1"/>
       <c r="D132" s="1"/>
       <c r="F132" s="1"/>
     </row>
-    <row r="133" ht="15.75" customHeight="1">
+    <row r="133" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C133" s="1"/>
       <c r="D133" s="1"/>
       <c r="F133" s="1"/>
     </row>
-    <row r="134" ht="15.75" customHeight="1">
+    <row r="134" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C134" s="1"/>
       <c r="D134" s="1"/>
       <c r="F134" s="1"/>
     </row>
-    <row r="135" ht="15.75" customHeight="1">
+    <row r="135" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C135" s="1"/>
       <c r="D135" s="1"/>
       <c r="F135" s="1"/>
     </row>
-    <row r="136" ht="15.75" customHeight="1">
+    <row r="136" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C136" s="1"/>
       <c r="D136" s="1"/>
       <c r="F136" s="1"/>
     </row>
-    <row r="137" ht="15.75" customHeight="1">
+    <row r="137" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C137" s="1"/>
       <c r="D137" s="1"/>
       <c r="F137" s="1"/>
     </row>
-    <row r="138" ht="15.75" customHeight="1">
+    <row r="138" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C138" s="1"/>
       <c r="D138" s="1"/>
       <c r="F138" s="1"/>
     </row>
-    <row r="139" ht="15.75" customHeight="1">
+    <row r="139" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C139" s="1"/>
       <c r="D139" s="1"/>
       <c r="F139" s="1"/>
     </row>
-    <row r="140" ht="15.75" customHeight="1">
+    <row r="140" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C140" s="1"/>
       <c r="D140" s="1"/>
       <c r="F140" s="1"/>
     </row>
-    <row r="141" ht="15.75" customHeight="1">
+    <row r="141" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C141" s="1"/>
       <c r="D141" s="1"/>
       <c r="F141" s="1"/>
     </row>
-    <row r="142" ht="15.75" customHeight="1">
+    <row r="142" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C142" s="1"/>
       <c r="D142" s="1"/>
       <c r="F142" s="1"/>
     </row>
-    <row r="143" ht="15.75" customHeight="1">
+    <row r="143" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C143" s="1"/>
       <c r="D143" s="1"/>
       <c r="F143" s="1"/>
     </row>
-    <row r="144" ht="15.75" customHeight="1">
+    <row r="144" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C144" s="1"/>
       <c r="D144" s="1"/>
       <c r="F144" s="1"/>
     </row>
-    <row r="145" ht="15.75" customHeight="1">
+    <row r="145" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C145" s="1"/>
       <c r="D145" s="1"/>
       <c r="F145" s="1"/>
     </row>
-    <row r="146" ht="15.75" customHeight="1">
+    <row r="146" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C146" s="1"/>
       <c r="D146" s="1"/>
       <c r="F146" s="1"/>
     </row>
-    <row r="147" ht="15.75" customHeight="1">
+    <row r="147" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C147" s="1"/>
       <c r="D147" s="1"/>
       <c r="F147" s="1"/>
     </row>
-    <row r="148" ht="15.75" customHeight="1">
+    <row r="148" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C148" s="1"/>
       <c r="D148" s="1"/>
       <c r="F148" s="1"/>
     </row>
-    <row r="149" ht="15.75" customHeight="1">
+    <row r="149" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C149" s="1"/>
       <c r="D149" s="1"/>
       <c r="F149" s="1"/>
     </row>
-    <row r="150" ht="15.75" customHeight="1">
+    <row r="150" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C150" s="1"/>
       <c r="D150" s="1"/>
       <c r="F150" s="1"/>
     </row>
-    <row r="151" ht="15.75" customHeight="1">
+    <row r="151" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C151" s="1"/>
       <c r="D151" s="1"/>
       <c r="F151" s="1"/>
     </row>
-    <row r="152" ht="15.75" customHeight="1">
+    <row r="152" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C152" s="1"/>
       <c r="D152" s="1"/>
       <c r="F152" s="1"/>
     </row>
-    <row r="153" ht="15.75" customHeight="1">
+    <row r="153" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C153" s="1"/>
       <c r="D153" s="1"/>
       <c r="F153" s="1"/>
     </row>
-    <row r="154" ht="15.75" customHeight="1">
+    <row r="154" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C154" s="1"/>
       <c r="D154" s="1"/>
       <c r="F154" s="1"/>
     </row>
-    <row r="155" ht="15.75" customHeight="1">
+    <row r="155" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C155" s="1"/>
       <c r="D155" s="1"/>
       <c r="F155" s="1"/>
     </row>
-    <row r="156" ht="15.75" customHeight="1">
+    <row r="156" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C156" s="1"/>
       <c r="D156" s="1"/>
       <c r="F156" s="1"/>
     </row>
-    <row r="157" ht="15.75" customHeight="1">
+    <row r="157" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C157" s="1"/>
       <c r="D157" s="1"/>
       <c r="F157" s="1"/>
     </row>
-    <row r="158" ht="15.75" customHeight="1">
+    <row r="158" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C158" s="1"/>
       <c r="D158" s="1"/>
       <c r="F158" s="1"/>
     </row>
-    <row r="159" ht="15.75" customHeight="1">
+    <row r="159" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C159" s="1"/>
       <c r="D159" s="1"/>
       <c r="F159" s="1"/>
     </row>
-    <row r="160" ht="15.75" customHeight="1">
+    <row r="160" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C160" s="1"/>
       <c r="D160" s="1"/>
       <c r="F160" s="1"/>
     </row>
-    <row r="161" ht="15.75" customHeight="1">
+    <row r="161" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C161" s="1"/>
       <c r="D161" s="1"/>
       <c r="F161" s="1"/>
     </row>
-    <row r="162" ht="15.75" customHeight="1">
+    <row r="162" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C162" s="1"/>
       <c r="D162" s="1"/>
       <c r="F162" s="1"/>
     </row>
-    <row r="163" ht="15.75" customHeight="1">
+    <row r="163" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C163" s="1"/>
       <c r="D163" s="1"/>
       <c r="F163" s="1"/>
     </row>
-    <row r="164" ht="15.75" customHeight="1">
+    <row r="164" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C164" s="1"/>
       <c r="D164" s="1"/>
       <c r="F164" s="1"/>
     </row>
-    <row r="165" ht="15.75" customHeight="1">
+    <row r="165" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C165" s="1"/>
       <c r="D165" s="1"/>
       <c r="F165" s="1"/>
     </row>
-    <row r="166" ht="15.75" customHeight="1">
+    <row r="166" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C166" s="1"/>
       <c r="D166" s="1"/>
       <c r="F166" s="1"/>
     </row>
-    <row r="167" ht="15.75" customHeight="1">
+    <row r="167" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C167" s="1"/>
       <c r="D167" s="1"/>
       <c r="F167" s="1"/>
     </row>
-    <row r="168" ht="15.75" customHeight="1">
+    <row r="168" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C168" s="1"/>
       <c r="D168" s="1"/>
       <c r="F168" s="1"/>
     </row>
-    <row r="169" ht="15.75" customHeight="1">
+    <row r="169" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C169" s="1"/>
       <c r="D169" s="1"/>
       <c r="F169" s="1"/>
     </row>
-    <row r="170" ht="15.75" customHeight="1">
+    <row r="170" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C170" s="1"/>
       <c r="D170" s="1"/>
       <c r="F170" s="1"/>
     </row>
-    <row r="171" ht="15.75" customHeight="1">
+    <row r="171" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C171" s="1"/>
       <c r="D171" s="1"/>
       <c r="F171" s="1"/>
     </row>
-    <row r="172" ht="15.75" customHeight="1">
+    <row r="172" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C172" s="1"/>
       <c r="D172" s="1"/>
       <c r="F172" s="1"/>
     </row>
-    <row r="173" ht="15.75" customHeight="1">
+    <row r="173" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C173" s="1"/>
       <c r="D173" s="1"/>
       <c r="F173" s="1"/>
     </row>
-    <row r="174" ht="15.75" customHeight="1">
+    <row r="174" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C174" s="1"/>
       <c r="D174" s="1"/>
       <c r="F174" s="1"/>
     </row>
-    <row r="175" ht="15.75" customHeight="1">
+    <row r="175" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C175" s="1"/>
       <c r="D175" s="1"/>
       <c r="F175" s="1"/>
     </row>
-    <row r="176" ht="15.75" customHeight="1">
+    <row r="176" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C176" s="1"/>
       <c r="D176" s="1"/>
       <c r="F176" s="1"/>
     </row>
-    <row r="177" ht="15.75" customHeight="1">
+    <row r="177" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C177" s="1"/>
       <c r="D177" s="1"/>
       <c r="F177" s="1"/>
     </row>
-    <row r="178" ht="15.75" customHeight="1">
+    <row r="178" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C178" s="1"/>
       <c r="D178" s="1"/>
       <c r="F178" s="1"/>
     </row>
-    <row r="179" ht="15.75" customHeight="1">
+    <row r="179" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C179" s="1"/>
       <c r="D179" s="1"/>
       <c r="F179" s="1"/>
     </row>
-    <row r="180" ht="15.75" customHeight="1">
+    <row r="180" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C180" s="1"/>
       <c r="D180" s="1"/>
       <c r="F180" s="1"/>
     </row>
-    <row r="181" ht="15.75" customHeight="1">
+    <row r="181" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C181" s="1"/>
       <c r="D181" s="1"/>
       <c r="F181" s="1"/>
     </row>
-    <row r="182" ht="15.75" customHeight="1">
+    <row r="182" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C182" s="1"/>
       <c r="D182" s="1"/>
       <c r="F182" s="1"/>
     </row>
-    <row r="183" ht="15.75" customHeight="1">
+    <row r="183" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C183" s="1"/>
       <c r="D183" s="1"/>
       <c r="F183" s="1"/>
     </row>
-    <row r="184" ht="15.75" customHeight="1">
+    <row r="184" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C184" s="1"/>
       <c r="D184" s="1"/>
       <c r="F184" s="1"/>
     </row>
-    <row r="185" ht="15.75" customHeight="1">
+    <row r="185" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C185" s="1"/>
       <c r="D185" s="1"/>
       <c r="F185" s="1"/>
     </row>
-    <row r="186" ht="15.75" customHeight="1">
+    <row r="186" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C186" s="1"/>
       <c r="D186" s="1"/>
       <c r="F186" s="1"/>
     </row>
-    <row r="187" ht="15.75" customHeight="1">
+    <row r="187" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C187" s="1"/>
       <c r="D187" s="1"/>
       <c r="F187" s="1"/>
     </row>
-    <row r="188" ht="15.75" customHeight="1">
+    <row r="188" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C188" s="1"/>
       <c r="D188" s="1"/>
       <c r="F188" s="1"/>
     </row>
-    <row r="189" ht="15.75" customHeight="1">
+    <row r="189" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C189" s="1"/>
       <c r="D189" s="1"/>
       <c r="F189" s="1"/>
     </row>
-    <row r="190" ht="15.75" customHeight="1">
+    <row r="190" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C190" s="1"/>
       <c r="D190" s="1"/>
       <c r="F190" s="1"/>
     </row>
-    <row r="191" ht="15.75" customHeight="1">
+    <row r="191" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C191" s="1"/>
       <c r="D191" s="1"/>
       <c r="F191" s="1"/>
     </row>
-    <row r="192" ht="15.75" customHeight="1">
+    <row r="192" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C192" s="1"/>
       <c r="D192" s="1"/>
       <c r="F192" s="1"/>
     </row>
-    <row r="193" ht="15.75" customHeight="1">
+    <row r="193" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C193" s="1"/>
       <c r="D193" s="1"/>
       <c r="F193" s="1"/>
     </row>
-    <row r="194" ht="15.75" customHeight="1">
+    <row r="194" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C194" s="1"/>
       <c r="D194" s="1"/>
       <c r="F194" s="1"/>
     </row>
-    <row r="195" ht="15.75" customHeight="1">
+    <row r="195" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C195" s="1"/>
       <c r="D195" s="1"/>
       <c r="F195" s="1"/>
     </row>
-    <row r="196" ht="15.75" customHeight="1">
+    <row r="196" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C196" s="1"/>
       <c r="D196" s="1"/>
       <c r="F196" s="1"/>
     </row>
-    <row r="197" ht="15.75" customHeight="1">
+    <row r="197" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C197" s="1"/>
       <c r="D197" s="1"/>
       <c r="F197" s="1"/>
     </row>
-    <row r="198" ht="15.75" customHeight="1">
+    <row r="198" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C198" s="1"/>
       <c r="D198" s="1"/>
       <c r="F198" s="1"/>
     </row>
-    <row r="199" ht="15.75" customHeight="1">
+    <row r="199" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C199" s="1"/>
       <c r="D199" s="1"/>
       <c r="F199" s="1"/>
     </row>
-    <row r="200" ht="15.75" customHeight="1">
+    <row r="200" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C200" s="1"/>
       <c r="D200" s="1"/>
       <c r="F200" s="1"/>
     </row>
-    <row r="201" ht="15.75" customHeight="1">
+    <row r="201" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C201" s="1"/>
       <c r="D201" s="1"/>
       <c r="F201" s="1"/>
     </row>
-    <row r="202" ht="15.75" customHeight="1">
+    <row r="202" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C202" s="1"/>
       <c r="D202" s="1"/>
       <c r="F202" s="1"/>
     </row>
-    <row r="203" ht="15.75" customHeight="1">
+    <row r="203" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C203" s="1"/>
       <c r="D203" s="1"/>
       <c r="F203" s="1"/>
     </row>
-    <row r="204" ht="15.75" customHeight="1">
+    <row r="204" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C204" s="1"/>
       <c r="D204" s="1"/>
       <c r="F204" s="1"/>
     </row>
-    <row r="205" ht="15.75" customHeight="1">
+    <row r="205" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C205" s="1"/>
       <c r="D205" s="1"/>
       <c r="F205" s="1"/>
     </row>
-    <row r="206" ht="15.75" customHeight="1">
+    <row r="206" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C206" s="1"/>
       <c r="D206" s="1"/>
       <c r="F206" s="1"/>
     </row>
-    <row r="207" ht="15.75" customHeight="1">
+    <row r="207" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C207" s="1"/>
       <c r="D207" s="1"/>
       <c r="F207" s="1"/>
     </row>
-    <row r="208" ht="15.75" customHeight="1">
+    <row r="208" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C208" s="1"/>
       <c r="D208" s="1"/>
       <c r="F208" s="1"/>
     </row>
-    <row r="209" ht="15.75" customHeight="1">
+    <row r="209" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C209" s="1"/>
       <c r="D209" s="1"/>
       <c r="F209" s="1"/>
     </row>
-    <row r="210" ht="15.75" customHeight="1">
+    <row r="210" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C210" s="1"/>
       <c r="D210" s="1"/>
       <c r="F210" s="1"/>
     </row>
-    <row r="211" ht="15.75" customHeight="1">
+    <row r="211" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C211" s="1"/>
       <c r="D211" s="1"/>
       <c r="F211" s="1"/>
     </row>
-    <row r="212" ht="15.75" customHeight="1">
+    <row r="212" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C212" s="1"/>
       <c r="D212" s="1"/>
       <c r="F212" s="1"/>
     </row>
-    <row r="213" ht="15.75" customHeight="1">
+    <row r="213" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C213" s="1"/>
       <c r="D213" s="1"/>
       <c r="F213" s="1"/>
     </row>
-    <row r="214" ht="15.75" customHeight="1">
+    <row r="214" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C214" s="1"/>
       <c r="D214" s="1"/>
       <c r="F214" s="1"/>
     </row>
-    <row r="215" ht="15.75" customHeight="1">
+    <row r="215" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C215" s="1"/>
       <c r="D215" s="1"/>
       <c r="F215" s="1"/>
     </row>
-    <row r="216" ht="15.75" customHeight="1">
+    <row r="216" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C216" s="1"/>
       <c r="D216" s="1"/>
       <c r="F216" s="1"/>
     </row>
-    <row r="217" ht="15.75" customHeight="1">
+    <row r="217" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C217" s="1"/>
       <c r="D217" s="1"/>
       <c r="F217" s="1"/>
     </row>
-    <row r="218" ht="15.75" customHeight="1">
+    <row r="218" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C218" s="1"/>
       <c r="D218" s="1"/>
       <c r="F218" s="1"/>
     </row>
-    <row r="219" ht="15.75" customHeight="1">
+    <row r="219" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C219" s="1"/>
       <c r="D219" s="1"/>
       <c r="F219" s="1"/>
     </row>
-    <row r="220" ht="15.75" customHeight="1">
+    <row r="220" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C220" s="1"/>
       <c r="D220" s="1"/>
       <c r="F220" s="1"/>
     </row>
-    <row r="221" ht="15.75" customHeight="1">
+    <row r="221" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C221" s="4"/>
       <c r="D221" s="4"/>
       <c r="F221" s="4"/>
     </row>
-    <row r="222" ht="15.75" customHeight="1">
+    <row r="222" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C222" s="4"/>
       <c r="D222" s="4"/>
       <c r="F222" s="4"/>
     </row>
-    <row r="223" ht="15.75" customHeight="1">
+    <row r="223" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C223" s="4"/>
       <c r="D223" s="4"/>
       <c r="F223" s="4"/>
     </row>
-    <row r="224" ht="15.75" customHeight="1">
+    <row r="224" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C224" s="4"/>
       <c r="D224" s="4"/>
       <c r="F224" s="4"/>
     </row>
-    <row r="225" ht="15.75" customHeight="1">
+    <row r="225" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C225" s="4"/>
       <c r="D225" s="4"/>
       <c r="F225" s="4"/>
     </row>
-    <row r="226" ht="15.75" customHeight="1">
+    <row r="226" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C226" s="4"/>
       <c r="D226" s="4"/>
       <c r="F226" s="4"/>
     </row>
-    <row r="227" ht="15.75" customHeight="1">
+    <row r="227" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C227" s="4"/>
       <c r="D227" s="4"/>
       <c r="F227" s="4"/>
     </row>
-    <row r="228" ht="15.75" customHeight="1">
+    <row r="228" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C228" s="4"/>
       <c r="D228" s="4"/>
       <c r="F228" s="4"/>
     </row>
-    <row r="229" ht="15.75" customHeight="1">
+    <row r="229" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C229" s="4"/>
       <c r="D229" s="4"/>
       <c r="F229" s="4"/>
     </row>
-    <row r="230" ht="15.75" customHeight="1">
+    <row r="230" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C230" s="4"/>
       <c r="D230" s="4"/>
       <c r="F230" s="4"/>
     </row>
-    <row r="231" ht="15.75" customHeight="1">
+    <row r="231" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C231" s="4"/>
       <c r="D231" s="4"/>
       <c r="F231" s="4"/>
     </row>
-    <row r="232" ht="15.75" customHeight="1">
+    <row r="232" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C232" s="4"/>
       <c r="D232" s="4"/>
       <c r="F232" s="4"/>
     </row>
-    <row r="233" ht="15.75" customHeight="1">
+    <row r="233" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C233" s="4"/>
       <c r="D233" s="4"/>
       <c r="F233" s="4"/>
     </row>
-    <row r="234" ht="15.75" customHeight="1">
+    <row r="234" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C234" s="4"/>
       <c r="D234" s="4"/>
       <c r="F234" s="4"/>
     </row>
-    <row r="235" ht="15.75" customHeight="1">
+    <row r="235" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C235" s="4"/>
       <c r="D235" s="4"/>
       <c r="F235" s="4"/>
     </row>
-    <row r="236" ht="15.75" customHeight="1">
+    <row r="236" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C236" s="4"/>
       <c r="D236" s="4"/>
       <c r="F236" s="4"/>
     </row>
-    <row r="237" ht="15.75" customHeight="1">
+    <row r="237" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C237" s="4"/>
       <c r="D237" s="4"/>
       <c r="F237" s="4"/>
     </row>
-    <row r="238" ht="15.75" customHeight="1">
+    <row r="238" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C238" s="4"/>
       <c r="D238" s="4"/>
       <c r="F238" s="4"/>
     </row>
-    <row r="239" ht="15.75" customHeight="1">
+    <row r="239" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C239" s="4"/>
       <c r="D239" s="4"/>
       <c r="F239" s="4"/>
     </row>
-    <row r="240" ht="15.75" customHeight="1">
+    <row r="240" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C240" s="4"/>
       <c r="D240" s="4"/>
       <c r="F240" s="4"/>
     </row>
-    <row r="241" ht="15.75" customHeight="1">
+    <row r="241" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C241" s="4"/>
       <c r="D241" s="4"/>
       <c r="F241" s="4"/>
     </row>
-    <row r="242" ht="15.75" customHeight="1">
+    <row r="242" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C242" s="4"/>
       <c r="D242" s="4"/>
       <c r="F242" s="4"/>
     </row>
-    <row r="243" ht="15.75" customHeight="1">
+    <row r="243" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C243" s="4"/>
       <c r="D243" s="4"/>
       <c r="F243" s="4"/>
     </row>
-    <row r="244" ht="15.75" customHeight="1">
+    <row r="244" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C244" s="4"/>
       <c r="D244" s="4"/>
       <c r="F244" s="4"/>
     </row>
-    <row r="245" ht="15.75" customHeight="1">
+    <row r="245" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C245" s="4"/>
       <c r="D245" s="4"/>
       <c r="F245" s="4"/>
     </row>
-    <row r="246" ht="15.75" customHeight="1">
+    <row r="246" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C246" s="4"/>
       <c r="D246" s="4"/>
       <c r="F246" s="4"/>
     </row>
-    <row r="247" ht="15.75" customHeight="1">
+    <row r="247" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C247" s="4"/>
       <c r="D247" s="4"/>
       <c r="F247" s="4"/>
     </row>
-    <row r="248" ht="15.75" customHeight="1">
+    <row r="248" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C248" s="4"/>
       <c r="D248" s="4"/>
       <c r="F248" s="4"/>
     </row>
-    <row r="249" ht="15.75" customHeight="1">
+    <row r="249" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C249" s="4"/>
       <c r="D249" s="4"/>
       <c r="F249" s="4"/>
     </row>
-    <row r="250" ht="15.75" customHeight="1">
+    <row r="250" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C250" s="4"/>
       <c r="D250" s="4"/>
       <c r="F250" s="4"/>
     </row>
-    <row r="251" ht="15.75" customHeight="1">
+    <row r="251" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C251" s="4"/>
       <c r="D251" s="4"/>
       <c r="F251" s="4"/>
     </row>
-    <row r="252" ht="15.75" customHeight="1">
+    <row r="252" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C252" s="4"/>
       <c r="D252" s="4"/>
       <c r="F252" s="4"/>
     </row>
-    <row r="253" ht="15.75" customHeight="1">
+    <row r="253" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C253" s="4"/>
       <c r="D253" s="4"/>
       <c r="F253" s="4"/>
     </row>
-    <row r="254" ht="15.75" customHeight="1">
+    <row r="254" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C254" s="4"/>
       <c r="D254" s="4"/>
       <c r="F254" s="4"/>
     </row>
-    <row r="255" ht="15.75" customHeight="1">
+    <row r="255" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C255" s="4"/>
       <c r="D255" s="4"/>
       <c r="F255" s="4"/>
     </row>
-    <row r="256" ht="15.75" customHeight="1">
+    <row r="256" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C256" s="4"/>
       <c r="D256" s="4"/>
       <c r="F256" s="4"/>
     </row>
-    <row r="257" ht="15.75" customHeight="1">
+    <row r="257" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C257" s="4"/>
       <c r="D257" s="4"/>
       <c r="F257" s="4"/>
     </row>
-    <row r="258" ht="15.75" customHeight="1">
+    <row r="258" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C258" s="4"/>
       <c r="D258" s="4"/>
       <c r="F258" s="4"/>
     </row>
-    <row r="259" ht="15.75" customHeight="1">
+    <row r="259" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C259" s="4"/>
       <c r="D259" s="4"/>
       <c r="F259" s="4"/>
     </row>
-    <row r="260" ht="15.75" customHeight="1">
+    <row r="260" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C260" s="4"/>
       <c r="D260" s="4"/>
       <c r="F260" s="4"/>
     </row>
-    <row r="261" ht="15.75" customHeight="1">
+    <row r="261" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C261" s="4"/>
       <c r="D261" s="4"/>
       <c r="F261" s="4"/>
     </row>
-    <row r="262" ht="15.75" customHeight="1">
+    <row r="262" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C262" s="4"/>
       <c r="D262" s="4"/>
       <c r="F262" s="4"/>
     </row>
-    <row r="263" ht="15.75" customHeight="1">
+    <row r="263" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C263" s="4"/>
       <c r="D263" s="4"/>
       <c r="F263" s="4"/>
     </row>
-    <row r="264" ht="15.75" customHeight="1">
+    <row r="264" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C264" s="4"/>
       <c r="D264" s="4"/>
       <c r="F264" s="4"/>
     </row>
-    <row r="265" ht="15.75" customHeight="1">
+    <row r="265" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C265" s="4"/>
       <c r="D265" s="4"/>
       <c r="F265" s="4"/>
     </row>
-    <row r="266" ht="15.75" customHeight="1">
+    <row r="266" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C266" s="4"/>
       <c r="D266" s="4"/>
       <c r="F266" s="4"/>
     </row>
-    <row r="267" ht="15.75" customHeight="1">
+    <row r="267" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C267" s="4"/>
       <c r="D267" s="4"/>
       <c r="F267" s="4"/>
     </row>
-    <row r="268" ht="15.75" customHeight="1">
+    <row r="268" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C268" s="4"/>
       <c r="D268" s="4"/>
       <c r="F268" s="4"/>
     </row>
-    <row r="269" ht="15.75" customHeight="1">
+    <row r="269" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C269" s="4"/>
       <c r="D269" s="4"/>
       <c r="F269" s="4"/>
     </row>
-    <row r="270" ht="15.75" customHeight="1">
+    <row r="270" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C270" s="4"/>
       <c r="D270" s="4"/>
       <c r="F270" s="4"/>
     </row>
-    <row r="271" ht="15.75" customHeight="1">
+    <row r="271" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C271" s="4"/>
       <c r="D271" s="4"/>
       <c r="F271" s="4"/>
     </row>
-    <row r="272" ht="15.75" customHeight="1">
+    <row r="272" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C272" s="4"/>
       <c r="D272" s="4"/>
       <c r="F272" s="4"/>
     </row>
-    <row r="273" ht="15.75" customHeight="1">
+    <row r="273" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C273" s="4"/>
       <c r="D273" s="4"/>
       <c r="F273" s="4"/>
     </row>
-    <row r="274" ht="15.75" customHeight="1">
+    <row r="274" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C274" s="4"/>
       <c r="D274" s="4"/>
       <c r="F274" s="4"/>
     </row>
-    <row r="275" ht="15.75" customHeight="1">
+    <row r="275" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C275" s="4"/>
       <c r="D275" s="4"/>
       <c r="F275" s="4"/>
     </row>
-    <row r="276" ht="15.75" customHeight="1">
+    <row r="276" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C276" s="4"/>
       <c r="D276" s="4"/>
       <c r="F276" s="4"/>
     </row>
-    <row r="277" ht="15.75" customHeight="1">
+    <row r="277" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C277" s="4"/>
       <c r="D277" s="4"/>
       <c r="F277" s="4"/>
     </row>
-    <row r="278" ht="15.75" customHeight="1">
+    <row r="278" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C278" s="4"/>
       <c r="D278" s="4"/>
       <c r="F278" s="4"/>
     </row>
-    <row r="279" ht="15.75" customHeight="1">
+    <row r="279" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C279" s="4"/>
       <c r="D279" s="4"/>
       <c r="F279" s="4"/>
     </row>
-    <row r="280" ht="15.75" customHeight="1">
+    <row r="280" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C280" s="4"/>
       <c r="D280" s="4"/>
       <c r="F280" s="4"/>
     </row>
-    <row r="281" ht="15.75" customHeight="1">
+    <row r="281" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C281" s="4"/>
       <c r="D281" s="4"/>
       <c r="F281" s="4"/>
     </row>
-    <row r="282" ht="15.75" customHeight="1">
+    <row r="282" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C282" s="4"/>
       <c r="D282" s="4"/>
       <c r="F282" s="4"/>
     </row>
-    <row r="283" ht="15.75" customHeight="1">
+    <row r="283" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C283" s="4"/>
       <c r="D283" s="4"/>
       <c r="F283" s="4"/>
     </row>
-    <row r="284" ht="15.75" customHeight="1">
+    <row r="284" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C284" s="4"/>
       <c r="D284" s="4"/>
       <c r="F284" s="4"/>
     </row>
-    <row r="285" ht="15.75" customHeight="1">
+    <row r="285" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C285" s="4"/>
       <c r="D285" s="4"/>
       <c r="F285" s="4"/>
     </row>
-    <row r="286" ht="15.75" customHeight="1">
+    <row r="286" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C286" s="4"/>
       <c r="D286" s="4"/>
       <c r="F286" s="4"/>
     </row>
-    <row r="287" ht="15.75" customHeight="1">
+    <row r="287" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C287" s="4"/>
       <c r="D287" s="4"/>
       <c r="F287" s="4"/>
     </row>
-    <row r="288" ht="15.75" customHeight="1">
+    <row r="288" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C288" s="4"/>
       <c r="D288" s="4"/>
       <c r="F288" s="4"/>
     </row>
-    <row r="289" ht="15.75" customHeight="1">
+    <row r="289" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C289" s="4"/>
       <c r="D289" s="4"/>
       <c r="F289" s="4"/>
     </row>
-    <row r="290" ht="15.75" customHeight="1">
+    <row r="290" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C290" s="4"/>
       <c r="D290" s="4"/>
       <c r="F290" s="4"/>
     </row>
-    <row r="291" ht="15.75" customHeight="1">
+    <row r="291" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C291" s="4"/>
       <c r="D291" s="4"/>
       <c r="F291" s="4"/>
     </row>
-    <row r="292" ht="15.75" customHeight="1">
+    <row r="292" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C292" s="4"/>
       <c r="D292" s="4"/>
       <c r="F292" s="4"/>
     </row>
-    <row r="293" ht="15.75" customHeight="1">
+    <row r="293" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C293" s="4"/>
       <c r="D293" s="4"/>
       <c r="F293" s="4"/>
     </row>
-    <row r="294" ht="15.75" customHeight="1">
+    <row r="294" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C294" s="4"/>
       <c r="D294" s="4"/>
       <c r="F294" s="4"/>
     </row>
-    <row r="295" ht="15.75" customHeight="1">
+    <row r="295" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C295" s="4"/>
       <c r="D295" s="4"/>
       <c r="F295" s="4"/>
     </row>
-    <row r="296" ht="15.75" customHeight="1">
+    <row r="296" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C296" s="4"/>
       <c r="D296" s="4"/>
       <c r="F296" s="4"/>
     </row>
-    <row r="297" ht="15.75" customHeight="1">
+    <row r="297" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C297" s="4"/>
       <c r="D297" s="4"/>
       <c r="F297" s="4"/>
     </row>
-    <row r="298" ht="15.75" customHeight="1">
+    <row r="298" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C298" s="4"/>
       <c r="D298" s="4"/>
       <c r="F298" s="4"/>
     </row>
-    <row r="299" ht="15.75" customHeight="1">
+    <row r="299" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C299" s="4"/>
       <c r="D299" s="4"/>
       <c r="F299" s="4"/>
     </row>
-    <row r="300" ht="15.75" customHeight="1">
+    <row r="300" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C300" s="4"/>
       <c r="D300" s="4"/>
       <c r="F300" s="4"/>
     </row>
-    <row r="301" ht="15.75" customHeight="1">
+    <row r="301" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C301" s="4"/>
       <c r="D301" s="4"/>
       <c r="F301" s="4"/>
     </row>
-    <row r="302" ht="15.75" customHeight="1">
+    <row r="302" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C302" s="4"/>
       <c r="D302" s="4"/>
       <c r="F302" s="4"/>
     </row>
-    <row r="303" ht="15.75" customHeight="1">
+    <row r="303" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C303" s="4"/>
       <c r="D303" s="4"/>
       <c r="F303" s="4"/>
     </row>
-    <row r="304" ht="15.75" customHeight="1">
+    <row r="304" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C304" s="4"/>
       <c r="D304" s="4"/>
       <c r="F304" s="4"/>
     </row>
-    <row r="305" ht="15.75" customHeight="1">
+    <row r="305" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C305" s="4"/>
       <c r="D305" s="4"/>
       <c r="F305" s="4"/>
     </row>
-    <row r="306" ht="15.75" customHeight="1">
+    <row r="306" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C306" s="4"/>
       <c r="D306" s="4"/>
       <c r="F306" s="4"/>
     </row>
-    <row r="307" ht="15.75" customHeight="1">
+    <row r="307" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C307" s="4"/>
       <c r="D307" s="4"/>
       <c r="F307" s="4"/>
     </row>
-    <row r="308" ht="15.75" customHeight="1">
+    <row r="308" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C308" s="4"/>
       <c r="D308" s="4"/>
       <c r="F308" s="4"/>
     </row>
-    <row r="309" ht="15.75" customHeight="1">
+    <row r="309" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C309" s="4"/>
       <c r="D309" s="4"/>
       <c r="F309" s="4"/>
     </row>
-    <row r="310" ht="15.75" customHeight="1">
+    <row r="310" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C310" s="4"/>
       <c r="D310" s="4"/>
       <c r="F310" s="4"/>
     </row>
-    <row r="311" ht="15.75" customHeight="1">
+    <row r="311" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C311" s="4"/>
       <c r="D311" s="4"/>
       <c r="F311" s="4"/>
     </row>
-    <row r="312" ht="15.75" customHeight="1">
+    <row r="312" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C312" s="4"/>
       <c r="D312" s="4"/>
       <c r="F312" s="4"/>
     </row>
-    <row r="313" ht="15.75" customHeight="1">
+    <row r="313" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C313" s="4"/>
       <c r="D313" s="4"/>
       <c r="F313" s="4"/>
     </row>
-    <row r="314" ht="15.75" customHeight="1">
+    <row r="314" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C314" s="4"/>
       <c r="D314" s="4"/>
       <c r="F314" s="4"/>
     </row>
-    <row r="315" ht="15.75" customHeight="1">
+    <row r="315" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C315" s="4"/>
       <c r="D315" s="4"/>
       <c r="F315" s="4"/>
     </row>
-    <row r="316" ht="15.75" customHeight="1">
+    <row r="316" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C316" s="4"/>
       <c r="D316" s="4"/>
       <c r="F316" s="4"/>
     </row>
-    <row r="317" ht="15.75" customHeight="1">
+    <row r="317" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C317" s="4"/>
       <c r="D317" s="4"/>
       <c r="F317" s="4"/>
     </row>
-    <row r="318" ht="15.75" customHeight="1">
+    <row r="318" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C318" s="4"/>
       <c r="D318" s="4"/>
       <c r="F318" s="4"/>
     </row>
-    <row r="319" ht="15.75" customHeight="1">
+    <row r="319" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C319" s="4"/>
       <c r="D319" s="4"/>
       <c r="F319" s="4"/>
     </row>
-    <row r="320" ht="15.75" customHeight="1">
+    <row r="320" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C320" s="4"/>
       <c r="D320" s="4"/>
       <c r="F320" s="4"/>
     </row>
-    <row r="321" ht="15.75" customHeight="1">
+    <row r="321" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C321" s="4"/>
       <c r="D321" s="4"/>
       <c r="F321" s="4"/>
     </row>
-    <row r="322" ht="15.75" customHeight="1">
+    <row r="322" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C322" s="4"/>
       <c r="D322" s="4"/>
       <c r="F322" s="4"/>
     </row>
-    <row r="323" ht="15.75" customHeight="1">
+    <row r="323" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C323" s="4"/>
       <c r="D323" s="4"/>
       <c r="F323" s="4"/>
     </row>
-    <row r="324" ht="15.75" customHeight="1">
+    <row r="324" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C324" s="4"/>
       <c r="D324" s="4"/>
       <c r="F324" s="4"/>
     </row>
-    <row r="325" ht="15.75" customHeight="1">
+    <row r="325" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C325" s="4"/>
       <c r="D325" s="4"/>
       <c r="F325" s="4"/>
     </row>
-    <row r="326" ht="15.75" customHeight="1">
+    <row r="326" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C326" s="4"/>
       <c r="D326" s="4"/>
       <c r="F326" s="4"/>
     </row>
-    <row r="327" ht="15.75" customHeight="1">
+    <row r="327" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C327" s="4"/>
       <c r="D327" s="4"/>
       <c r="F327" s="4"/>
     </row>
-    <row r="328" ht="15.75" customHeight="1">
+    <row r="328" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C328" s="4"/>
       <c r="D328" s="4"/>
       <c r="F328" s="4"/>
     </row>
-    <row r="329" ht="15.75" customHeight="1">
+    <row r="329" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C329" s="4"/>
       <c r="D329" s="4"/>
       <c r="F329" s="4"/>
     </row>
-    <row r="330" ht="15.75" customHeight="1">
+    <row r="330" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C330" s="4"/>
       <c r="D330" s="4"/>
       <c r="F330" s="4"/>
     </row>
-    <row r="331" ht="15.75" customHeight="1">
+    <row r="331" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C331" s="4"/>
       <c r="D331" s="4"/>
       <c r="F331" s="4"/>
     </row>
-    <row r="332" ht="15.75" customHeight="1">
+    <row r="332" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C332" s="4"/>
       <c r="D332" s="4"/>
       <c r="F332" s="4"/>
     </row>
-    <row r="333" ht="15.75" customHeight="1">
+    <row r="333" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C333" s="4"/>
       <c r="D333" s="4"/>
       <c r="F333" s="4"/>
     </row>
-    <row r="334" ht="15.75" customHeight="1">
+    <row r="334" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C334" s="4"/>
       <c r="D334" s="4"/>
       <c r="F334" s="4"/>
     </row>
-    <row r="335" ht="15.75" customHeight="1">
+    <row r="335" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C335" s="4"/>
       <c r="D335" s="4"/>
       <c r="F335" s="4"/>
     </row>
-    <row r="336" ht="15.75" customHeight="1">
+    <row r="336" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C336" s="4"/>
       <c r="D336" s="4"/>
       <c r="F336" s="4"/>
     </row>
-    <row r="337" ht="15.75" customHeight="1">
+    <row r="337" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C337" s="4"/>
       <c r="D337" s="4"/>
       <c r="F337" s="4"/>
     </row>
-    <row r="338" ht="15.75" customHeight="1">
+    <row r="338" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C338" s="4"/>
       <c r="D338" s="4"/>
       <c r="F338" s="4"/>
     </row>
-    <row r="339" ht="15.75" customHeight="1">
+    <row r="339" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C339" s="4"/>
       <c r="D339" s="4"/>
       <c r="F339" s="4"/>
     </row>
-    <row r="340" ht="15.75" customHeight="1">
+    <row r="340" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C340" s="4"/>
       <c r="D340" s="4"/>
       <c r="F340" s="4"/>
     </row>
-    <row r="341" ht="15.75" customHeight="1">
+    <row r="341" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C341" s="4"/>
       <c r="D341" s="4"/>
       <c r="F341" s="4"/>
     </row>
-    <row r="342" ht="15.75" customHeight="1">
+    <row r="342" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C342" s="4"/>
       <c r="D342" s="4"/>
       <c r="F342" s="4"/>
     </row>
-    <row r="343" ht="15.75" customHeight="1">
+    <row r="343" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C343" s="4"/>
       <c r="D343" s="4"/>
       <c r="F343" s="4"/>
     </row>
-    <row r="344" ht="15.75" customHeight="1">
+    <row r="344" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C344" s="4"/>
       <c r="D344" s="4"/>
       <c r="F344" s="4"/>
     </row>
-    <row r="345" ht="15.75" customHeight="1">
+    <row r="345" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C345" s="4"/>
       <c r="D345" s="4"/>
       <c r="F345" s="4"/>
     </row>
-    <row r="346" ht="15.75" customHeight="1">
+    <row r="346" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C346" s="4"/>
       <c r="D346" s="4"/>
       <c r="F346" s="4"/>
     </row>
-    <row r="347" ht="15.75" customHeight="1">
+    <row r="347" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C347" s="4"/>
       <c r="D347" s="4"/>
       <c r="F347" s="4"/>
     </row>
-    <row r="348" ht="15.75" customHeight="1">
+    <row r="348" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C348" s="4"/>
       <c r="D348" s="4"/>
       <c r="F348" s="4"/>
     </row>
-    <row r="349" ht="15.75" customHeight="1">
+    <row r="349" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C349" s="4"/>
       <c r="D349" s="4"/>
       <c r="F349" s="4"/>
     </row>
-    <row r="350" ht="15.75" customHeight="1">
+    <row r="350" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C350" s="4"/>
       <c r="D350" s="4"/>
       <c r="F350" s="4"/>
     </row>
-    <row r="351" ht="15.75" customHeight="1">
+    <row r="351" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C351" s="4"/>
       <c r="D351" s="4"/>
       <c r="F351" s="4"/>
     </row>
-    <row r="352" ht="15.75" customHeight="1">
+    <row r="352" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C352" s="4"/>
       <c r="D352" s="4"/>
       <c r="F352" s="4"/>
     </row>
-    <row r="353" ht="15.75" customHeight="1">
+    <row r="353" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C353" s="4"/>
       <c r="D353" s="4"/>
       <c r="F353" s="4"/>
     </row>
-    <row r="354" ht="15.75" customHeight="1">
+    <row r="354" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C354" s="4"/>
       <c r="D354" s="4"/>
       <c r="F354" s="4"/>
     </row>
-    <row r="355" ht="15.75" customHeight="1">
+    <row r="355" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C355" s="4"/>
       <c r="D355" s="4"/>
       <c r="F355" s="4"/>
     </row>
-    <row r="356" ht="15.75" customHeight="1">
+    <row r="356" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C356" s="4"/>
       <c r="D356" s="4"/>
       <c r="F356" s="4"/>
     </row>
-    <row r="357" ht="15.75" customHeight="1">
+    <row r="357" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C357" s="4"/>
       <c r="D357" s="4"/>
       <c r="F357" s="4"/>
     </row>
-    <row r="358" ht="15.75" customHeight="1">
+    <row r="358" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C358" s="4"/>
       <c r="D358" s="4"/>
       <c r="F358" s="4"/>
     </row>
-    <row r="359" ht="15.75" customHeight="1">
+    <row r="359" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C359" s="4"/>
       <c r="D359" s="4"/>
       <c r="F359" s="4"/>
     </row>
-    <row r="360" ht="15.75" customHeight="1">
+    <row r="360" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C360" s="4"/>
       <c r="D360" s="4"/>
       <c r="F360" s="4"/>
     </row>
-    <row r="361" ht="15.75" customHeight="1">
+    <row r="361" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C361" s="4"/>
       <c r="D361" s="4"/>
       <c r="F361" s="4"/>
     </row>
-    <row r="362" ht="15.75" customHeight="1">
+    <row r="362" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C362" s="4"/>
       <c r="D362" s="4"/>
       <c r="F362" s="4"/>
     </row>
-    <row r="363" ht="15.75" customHeight="1">
+    <row r="363" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C363" s="4"/>
       <c r="D363" s="4"/>
       <c r="F363" s="4"/>
     </row>
-    <row r="364" ht="15.75" customHeight="1">
+    <row r="364" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C364" s="4"/>
       <c r="D364" s="4"/>
       <c r="F364" s="4"/>
     </row>
-    <row r="365" ht="15.75" customHeight="1">
+    <row r="365" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C365" s="4"/>
       <c r="D365" s="4"/>
       <c r="F365" s="4"/>
     </row>
-    <row r="366" ht="15.75" customHeight="1">
+    <row r="366" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C366" s="4"/>
       <c r="D366" s="4"/>
       <c r="F366" s="4"/>
     </row>
-    <row r="367" ht="15.75" customHeight="1">
+    <row r="367" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C367" s="4"/>
       <c r="D367" s="4"/>
       <c r="F367" s="4"/>
     </row>
-    <row r="368" ht="15.75" customHeight="1">
+    <row r="368" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C368" s="4"/>
       <c r="D368" s="4"/>
       <c r="F368" s="4"/>
     </row>
-    <row r="369" ht="15.75" customHeight="1">
+    <row r="369" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C369" s="4"/>
       <c r="D369" s="4"/>
       <c r="F369" s="4"/>
     </row>
-    <row r="370" ht="15.75" customHeight="1">
+    <row r="370" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C370" s="4"/>
       <c r="D370" s="4"/>
       <c r="F370" s="4"/>
     </row>
-    <row r="371" ht="15.75" customHeight="1">
+    <row r="371" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C371" s="4"/>
       <c r="D371" s="4"/>
       <c r="F371" s="4"/>
     </row>
-    <row r="372" ht="15.75" customHeight="1">
+    <row r="372" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C372" s="4"/>
       <c r="D372" s="4"/>
       <c r="F372" s="4"/>
     </row>
-    <row r="373" ht="15.75" customHeight="1">
+    <row r="373" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C373" s="4"/>
       <c r="D373" s="4"/>
       <c r="F373" s="4"/>
     </row>
-    <row r="374" ht="15.75" customHeight="1">
+    <row r="374" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C374" s="4"/>
       <c r="D374" s="4"/>
       <c r="F374" s="4"/>
     </row>
-    <row r="375" ht="15.75" customHeight="1">
+    <row r="375" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C375" s="4"/>
       <c r="D375" s="4"/>
       <c r="F375" s="4"/>
     </row>
-    <row r="376" ht="15.75" customHeight="1">
+    <row r="376" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C376" s="4"/>
       <c r="D376" s="4"/>
       <c r="F376" s="4"/>
     </row>
-    <row r="377" ht="15.75" customHeight="1">
+    <row r="377" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C377" s="4"/>
       <c r="D377" s="4"/>
       <c r="F377" s="4"/>
     </row>
-    <row r="378" ht="15.75" customHeight="1">
+    <row r="378" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C378" s="4"/>
       <c r="D378" s="4"/>
       <c r="F378" s="4"/>
     </row>
-    <row r="379" ht="15.75" customHeight="1">
+    <row r="379" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C379" s="4"/>
       <c r="D379" s="4"/>
       <c r="F379" s="4"/>
     </row>
-    <row r="380" ht="15.75" customHeight="1">
+    <row r="380" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C380" s="4"/>
       <c r="D380" s="4"/>
       <c r="F380" s="4"/>
     </row>
-    <row r="381" ht="15.75" customHeight="1">
+    <row r="381" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C381" s="4"/>
       <c r="D381" s="4"/>
       <c r="F381" s="4"/>
     </row>
-    <row r="382" ht="15.75" customHeight="1">
+    <row r="382" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C382" s="4"/>
       <c r="D382" s="4"/>
       <c r="F382" s="4"/>
     </row>
-    <row r="383" ht="15.75" customHeight="1">
+    <row r="383" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C383" s="4"/>
       <c r="D383" s="4"/>
       <c r="F383" s="4"/>
     </row>
-    <row r="384" ht="15.75" customHeight="1">
+    <row r="384" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C384" s="4"/>
       <c r="D384" s="4"/>
       <c r="F384" s="4"/>
     </row>
-    <row r="385" ht="15.75" customHeight="1">
+    <row r="385" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C385" s="4"/>
       <c r="D385" s="4"/>
       <c r="F385" s="4"/>
     </row>
-    <row r="386" ht="15.75" customHeight="1">
+    <row r="386" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C386" s="4"/>
       <c r="D386" s="4"/>
       <c r="F386" s="4"/>
     </row>
-    <row r="387" ht="15.75" customHeight="1">
+    <row r="387" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C387" s="4"/>
       <c r="D387" s="4"/>
       <c r="F387" s="4"/>
     </row>
-    <row r="388" ht="15.75" customHeight="1">
+    <row r="388" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C388" s="4"/>
       <c r="D388" s="4"/>
       <c r="F388" s="4"/>
     </row>
-    <row r="389" ht="15.75" customHeight="1">
+    <row r="389" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C389" s="4"/>
       <c r="D389" s="4"/>
       <c r="F389" s="4"/>
     </row>
-    <row r="390" ht="15.75" customHeight="1">
+    <row r="390" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C390" s="4"/>
       <c r="D390" s="4"/>
       <c r="F390" s="4"/>
     </row>
-    <row r="391" ht="15.75" customHeight="1">
+    <row r="391" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C391" s="4"/>
       <c r="D391" s="4"/>
       <c r="F391" s="4"/>
     </row>
-    <row r="392" ht="15.75" customHeight="1">
+    <row r="392" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C392" s="4"/>
       <c r="D392" s="4"/>
       <c r="F392" s="4"/>
     </row>
-    <row r="393" ht="15.75" customHeight="1">
+    <row r="393" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C393" s="4"/>
       <c r="D393" s="4"/>
       <c r="F393" s="4"/>
     </row>
-    <row r="394" ht="15.75" customHeight="1">
+    <row r="394" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C394" s="4"/>
       <c r="D394" s="4"/>
       <c r="F394" s="4"/>
     </row>
-    <row r="395" ht="15.75" customHeight="1">
+    <row r="395" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C395" s="4"/>
       <c r="D395" s="4"/>
       <c r="F395" s="4"/>
     </row>
-    <row r="396" ht="15.75" customHeight="1">
+    <row r="396" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C396" s="4"/>
       <c r="D396" s="4"/>
       <c r="F396" s="4"/>
     </row>
-    <row r="397" ht="15.75" customHeight="1">
+    <row r="397" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C397" s="4"/>
       <c r="D397" s="4"/>
       <c r="F397" s="4"/>
     </row>
-    <row r="398" ht="15.75" customHeight="1">
+    <row r="398" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C398" s="4"/>
       <c r="D398" s="4"/>
       <c r="F398" s="4"/>
     </row>
-    <row r="399" ht="15.75" customHeight="1">
+    <row r="399" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C399" s="4"/>
       <c r="D399" s="4"/>
       <c r="F399" s="4"/>
     </row>
-    <row r="400" ht="15.75" customHeight="1">
+    <row r="400" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C400" s="4"/>
       <c r="D400" s="4"/>
       <c r="F400" s="4"/>
     </row>
-    <row r="401" ht="15.75" customHeight="1">
+    <row r="401" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C401" s="4"/>
       <c r="D401" s="4"/>
       <c r="F401" s="4"/>
     </row>
-    <row r="402" ht="15.75" customHeight="1">
+    <row r="402" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C402" s="4"/>
       <c r="D402" s="4"/>
       <c r="F402" s="4"/>
     </row>
-    <row r="403" ht="15.75" customHeight="1">
+    <row r="403" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C403" s="4"/>
       <c r="D403" s="4"/>
       <c r="F403" s="4"/>
     </row>
-    <row r="404" ht="15.75" customHeight="1">
+    <row r="404" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C404" s="4"/>
       <c r="D404" s="4"/>
       <c r="F404" s="4"/>
     </row>
-    <row r="405" ht="15.75" customHeight="1">
+    <row r="405" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C405" s="4"/>
       <c r="D405" s="4"/>
       <c r="F405" s="4"/>
     </row>
-    <row r="406" ht="15.75" customHeight="1">
+    <row r="406" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C406" s="4"/>
       <c r="D406" s="4"/>
       <c r="F406" s="4"/>
     </row>
-    <row r="407" ht="15.75" customHeight="1">
+    <row r="407" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C407" s="4"/>
       <c r="D407" s="4"/>
       <c r="F407" s="4"/>
     </row>
-    <row r="408" ht="15.75" customHeight="1">
+    <row r="408" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C408" s="4"/>
       <c r="D408" s="4"/>
       <c r="F408" s="4"/>
     </row>
-    <row r="409" ht="15.75" customHeight="1">
+    <row r="409" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C409" s="4"/>
       <c r="D409" s="4"/>
       <c r="F409" s="4"/>
     </row>
-    <row r="410" ht="15.75" customHeight="1">
+    <row r="410" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C410" s="4"/>
       <c r="D410" s="4"/>
       <c r="F410" s="4"/>
     </row>
-    <row r="411" ht="15.75" customHeight="1">
+    <row r="411" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C411" s="4"/>
       <c r="D411" s="4"/>
       <c r="F411" s="4"/>
     </row>
-    <row r="412" ht="15.75" customHeight="1">
+    <row r="412" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C412" s="4"/>
       <c r="D412" s="4"/>
       <c r="F412" s="4"/>
     </row>
-    <row r="413" ht="15.75" customHeight="1">
+    <row r="413" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C413" s="4"/>
       <c r="D413" s="4"/>
       <c r="F413" s="4"/>
     </row>
-    <row r="414" ht="15.75" customHeight="1">
+    <row r="414" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C414" s="4"/>
       <c r="D414" s="4"/>
       <c r="F414" s="4"/>
     </row>
-    <row r="415" ht="15.75" customHeight="1">
+    <row r="415" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C415" s="4"/>
       <c r="D415" s="4"/>
       <c r="F415" s="4"/>
     </row>
-    <row r="416" ht="15.75" customHeight="1">
+    <row r="416" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C416" s="4"/>
       <c r="D416" s="4"/>
       <c r="F416" s="4"/>
     </row>
-    <row r="417" ht="15.75" customHeight="1">
+    <row r="417" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C417" s="4"/>
       <c r="D417" s="4"/>
       <c r="F417" s="4"/>
     </row>
-    <row r="418" ht="15.75" customHeight="1">
+    <row r="418" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C418" s="4"/>
       <c r="D418" s="4"/>
       <c r="F418" s="4"/>
     </row>
-    <row r="419" ht="15.75" customHeight="1">
+    <row r="419" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C419" s="4"/>
       <c r="D419" s="4"/>
       <c r="F419" s="4"/>
     </row>
-    <row r="420" ht="15.75" customHeight="1">
+    <row r="420" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C420" s="4"/>
       <c r="D420" s="4"/>
       <c r="F420" s="4"/>
     </row>
-    <row r="421" ht="15.75" customHeight="1">
+    <row r="421" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C421" s="4"/>
       <c r="D421" s="4"/>
       <c r="F421" s="4"/>
     </row>
-    <row r="422" ht="15.75" customHeight="1">
+    <row r="422" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C422" s="4"/>
       <c r="D422" s="4"/>
       <c r="F422" s="4"/>
     </row>
-    <row r="423" ht="15.75" customHeight="1">
+    <row r="423" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C423" s="4"/>
       <c r="D423" s="4"/>
       <c r="F423" s="4"/>
     </row>
-    <row r="424" ht="15.75" customHeight="1">
+    <row r="424" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C424" s="4"/>
       <c r="D424" s="4"/>
       <c r="F424" s="4"/>
     </row>
-    <row r="425" ht="15.75" customHeight="1">
+    <row r="425" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C425" s="4"/>
       <c r="D425" s="4"/>
       <c r="F425" s="4"/>
     </row>
-    <row r="426" ht="15.75" customHeight="1">
+    <row r="426" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C426" s="4"/>
       <c r="D426" s="4"/>
       <c r="F426" s="4"/>
     </row>
-    <row r="427" ht="15.75" customHeight="1">
+    <row r="427" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C427" s="4"/>
       <c r="D427" s="4"/>
       <c r="F427" s="4"/>
     </row>
-    <row r="428" ht="15.75" customHeight="1">
+    <row r="428" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C428" s="4"/>
       <c r="D428" s="4"/>
       <c r="F428" s="4"/>
     </row>
-    <row r="429" ht="15.75" customHeight="1">
+    <row r="429" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C429" s="4"/>
       <c r="D429" s="4"/>
       <c r="F429" s="4"/>
     </row>
-    <row r="430" ht="15.75" customHeight="1">
+    <row r="430" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C430" s="4"/>
       <c r="D430" s="4"/>
       <c r="F430" s="4"/>
     </row>
-    <row r="431" ht="15.75" customHeight="1">
+    <row r="431" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C431" s="4"/>
       <c r="D431" s="4"/>
       <c r="F431" s="4"/>
     </row>
-    <row r="432" ht="15.75" customHeight="1">
+    <row r="432" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C432" s="4"/>
       <c r="D432" s="4"/>
       <c r="F432" s="4"/>
     </row>
-    <row r="433" ht="15.75" customHeight="1">
+    <row r="433" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C433" s="4"/>
       <c r="D433" s="4"/>
       <c r="F433" s="4"/>
     </row>
-    <row r="434" ht="15.75" customHeight="1">
+    <row r="434" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C434" s="4"/>
       <c r="D434" s="4"/>
       <c r="F434" s="4"/>
     </row>
-    <row r="435" ht="15.75" customHeight="1">
+    <row r="435" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C435" s="4"/>
       <c r="D435" s="4"/>
       <c r="F435" s="4"/>
     </row>
-    <row r="436" ht="15.75" customHeight="1">
+    <row r="436" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C436" s="4"/>
       <c r="D436" s="4"/>
       <c r="F436" s="4"/>
     </row>
-    <row r="437" ht="15.75" customHeight="1">
+    <row r="437" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C437" s="4"/>
       <c r="D437" s="4"/>
       <c r="F437" s="4"/>
     </row>
-    <row r="438" ht="15.75" customHeight="1">
+    <row r="438" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C438" s="4"/>
       <c r="D438" s="4"/>
       <c r="F438" s="4"/>
     </row>
-    <row r="439" ht="15.75" customHeight="1">
+    <row r="439" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C439" s="4"/>
       <c r="D439" s="4"/>
       <c r="F439" s="4"/>
     </row>
-    <row r="440" ht="15.75" customHeight="1">
+    <row r="440" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C440" s="4"/>
       <c r="D440" s="4"/>
       <c r="F440" s="4"/>
     </row>
-    <row r="441" ht="15.75" customHeight="1">
+    <row r="441" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C441" s="4"/>
       <c r="D441" s="4"/>
       <c r="F441" s="4"/>
     </row>
-    <row r="442" ht="15.75" customHeight="1">
+    <row r="442" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C442" s="4"/>
       <c r="D442" s="4"/>
       <c r="F442" s="4"/>
     </row>
-    <row r="443" ht="15.75" customHeight="1">
+    <row r="443" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C443" s="4"/>
       <c r="D443" s="4"/>
       <c r="F443" s="4"/>
     </row>
-    <row r="444" ht="15.75" customHeight="1">
+    <row r="444" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C444" s="4"/>
       <c r="D444" s="4"/>
       <c r="F444" s="4"/>
     </row>
-    <row r="445" ht="15.75" customHeight="1">
+    <row r="445" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C445" s="4"/>
       <c r="D445" s="4"/>
       <c r="F445" s="4"/>
     </row>
-    <row r="446" ht="15.75" customHeight="1">
+    <row r="446" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C446" s="4"/>
       <c r="D446" s="4"/>
       <c r="F446" s="4"/>
     </row>
-    <row r="447" ht="15.75" customHeight="1">
+    <row r="447" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C447" s="4"/>
       <c r="D447" s="4"/>
       <c r="F447" s="4"/>
     </row>
-    <row r="448" ht="15.75" customHeight="1">
+    <row r="448" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C448" s="4"/>
       <c r="D448" s="4"/>
       <c r="F448" s="4"/>
     </row>
-    <row r="449" ht="15.75" customHeight="1">
+    <row r="449" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C449" s="4"/>
       <c r="D449" s="4"/>
       <c r="F449" s="4"/>
     </row>
-    <row r="450" ht="15.75" customHeight="1">
+    <row r="450" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C450" s="4"/>
       <c r="D450" s="4"/>
       <c r="F450" s="4"/>
     </row>
-    <row r="451" ht="15.75" customHeight="1">
+    <row r="451" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C451" s="4"/>
       <c r="D451" s="4"/>
       <c r="F451" s="4"/>
     </row>
-    <row r="452" ht="15.75" customHeight="1">
+    <row r="452" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C452" s="4"/>
       <c r="D452" s="4"/>
       <c r="F452" s="4"/>
     </row>
-    <row r="453" ht="15.75" customHeight="1">
+    <row r="453" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C453" s="4"/>
       <c r="D453" s="4"/>
       <c r="F453" s="4"/>
     </row>
-    <row r="454" ht="15.75" customHeight="1">
+    <row r="454" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C454" s="4"/>
       <c r="D454" s="4"/>
       <c r="F454" s="4"/>
     </row>
-    <row r="455" ht="15.75" customHeight="1">
+    <row r="455" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C455" s="4"/>
       <c r="D455" s="4"/>
       <c r="F455" s="4"/>
     </row>
-    <row r="456" ht="15.75" customHeight="1">
+    <row r="456" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C456" s="4"/>
       <c r="D456" s="4"/>
       <c r="F456" s="4"/>
     </row>
-    <row r="457" ht="15.75" customHeight="1">
+    <row r="457" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C457" s="4"/>
       <c r="D457" s="4"/>
       <c r="F457" s="4"/>
     </row>
-    <row r="458" ht="15.75" customHeight="1">
+    <row r="458" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C458" s="4"/>
       <c r="D458" s="4"/>
       <c r="F458" s="4"/>
     </row>
-    <row r="459" ht="15.75" customHeight="1">
+    <row r="459" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C459" s="4"/>
       <c r="D459" s="4"/>
       <c r="F459" s="4"/>
     </row>
-    <row r="460" ht="15.75" customHeight="1">
+    <row r="460" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C460" s="4"/>
       <c r="D460" s="4"/>
       <c r="F460" s="4"/>
     </row>
-    <row r="461" ht="15.75" customHeight="1">
+    <row r="461" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C461" s="4"/>
       <c r="D461" s="4"/>
       <c r="F461" s="4"/>
     </row>
-    <row r="462" ht="15.75" customHeight="1">
+    <row r="462" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C462" s="4"/>
       <c r="D462" s="4"/>
       <c r="F462" s="4"/>
     </row>
-    <row r="463" ht="15.75" customHeight="1">
+    <row r="463" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C463" s="4"/>
       <c r="D463" s="4"/>
       <c r="F463" s="4"/>
     </row>
-    <row r="464" ht="15.75" customHeight="1">
+    <row r="464" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C464" s="4"/>
       <c r="D464" s="4"/>
       <c r="F464" s="4"/>
     </row>
-    <row r="465" ht="15.75" customHeight="1">
+    <row r="465" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C465" s="4"/>
       <c r="D465" s="4"/>
       <c r="F465" s="4"/>
     </row>
-    <row r="466" ht="15.75" customHeight="1">
+    <row r="466" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C466" s="4"/>
       <c r="D466" s="4"/>
       <c r="F466" s="4"/>
     </row>
-    <row r="467" ht="15.75" customHeight="1">
+    <row r="467" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C467" s="4"/>
       <c r="D467" s="4"/>
       <c r="F467" s="4"/>
     </row>
-    <row r="468" ht="15.75" customHeight="1">
+    <row r="468" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C468" s="4"/>
       <c r="D468" s="4"/>
       <c r="F468" s="4"/>
     </row>
-    <row r="469" ht="15.75" customHeight="1">
+    <row r="469" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C469" s="4"/>
       <c r="D469" s="4"/>
       <c r="F469" s="4"/>
     </row>
-    <row r="470" ht="15.75" customHeight="1">
+    <row r="470" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C470" s="4"/>
       <c r="D470" s="4"/>
       <c r="F470" s="4"/>
     </row>
-    <row r="471" ht="15.75" customHeight="1">
+    <row r="471" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C471" s="4"/>
       <c r="D471" s="4"/>
       <c r="F471" s="4"/>
     </row>
-    <row r="472" ht="15.75" customHeight="1">
+    <row r="472" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C472" s="4"/>
       <c r="D472" s="4"/>
       <c r="F472" s="4"/>
     </row>
-    <row r="473" ht="15.75" customHeight="1">
+    <row r="473" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C473" s="4"/>
       <c r="D473" s="4"/>
       <c r="F473" s="4"/>
     </row>
-    <row r="474" ht="15.75" customHeight="1">
+    <row r="474" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C474" s="4"/>
       <c r="D474" s="4"/>
       <c r="F474" s="4"/>
     </row>
-    <row r="475" ht="15.75" customHeight="1">
+    <row r="475" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C475" s="4"/>
       <c r="D475" s="4"/>
       <c r="F475" s="4"/>
     </row>
-    <row r="476" ht="15.75" customHeight="1">
+    <row r="476" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C476" s="4"/>
       <c r="D476" s="4"/>
       <c r="F476" s="4"/>
     </row>
-    <row r="477" ht="15.75" customHeight="1">
+    <row r="477" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C477" s="4"/>
       <c r="D477" s="4"/>
       <c r="F477" s="4"/>
     </row>
-    <row r="478" ht="15.75" customHeight="1">
+    <row r="478" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C478" s="4"/>
       <c r="D478" s="4"/>
       <c r="F478" s="4"/>
     </row>
-    <row r="479" ht="15.75" customHeight="1">
+    <row r="479" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C479" s="4"/>
       <c r="D479" s="4"/>
       <c r="F479" s="4"/>
     </row>
-    <row r="480" ht="15.75" customHeight="1">
+    <row r="480" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C480" s="4"/>
       <c r="D480" s="4"/>
       <c r="F480" s="4"/>
     </row>
-    <row r="481" ht="15.75" customHeight="1">
+    <row r="481" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C481" s="4"/>
       <c r="D481" s="4"/>
       <c r="F481" s="4"/>
     </row>
-    <row r="482" ht="15.75" customHeight="1">
+    <row r="482" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C482" s="4"/>
       <c r="D482" s="4"/>
       <c r="F482" s="4"/>
     </row>
-    <row r="483" ht="15.75" customHeight="1">
+    <row r="483" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C483" s="4"/>
       <c r="D483" s="4"/>
       <c r="F483" s="4"/>
     </row>
-    <row r="484" ht="15.75" customHeight="1">
+    <row r="484" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C484" s="4"/>
       <c r="D484" s="4"/>
       <c r="F484" s="4"/>
     </row>
-    <row r="485" ht="15.75" customHeight="1">
+    <row r="485" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C485" s="4"/>
       <c r="D485" s="4"/>
       <c r="F485" s="4"/>
     </row>
-    <row r="486" ht="15.75" customHeight="1">
+    <row r="486" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C486" s="4"/>
       <c r="D486" s="4"/>
       <c r="F486" s="4"/>
     </row>
-    <row r="487" ht="15.75" customHeight="1">
+    <row r="487" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C487" s="4"/>
       <c r="D487" s="4"/>
       <c r="F487" s="4"/>
     </row>
-    <row r="488" ht="15.75" customHeight="1">
+    <row r="488" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C488" s="4"/>
       <c r="D488" s="4"/>
       <c r="F488" s="4"/>
     </row>
-    <row r="489" ht="15.75" customHeight="1">
+    <row r="489" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C489" s="4"/>
       <c r="D489" s="4"/>
       <c r="F489" s="4"/>
     </row>
-    <row r="490" ht="15.75" customHeight="1">
+    <row r="490" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C490" s="4"/>
       <c r="D490" s="4"/>
       <c r="F490" s="4"/>
     </row>
-    <row r="491" ht="15.75" customHeight="1">
+    <row r="491" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C491" s="4"/>
       <c r="D491" s="4"/>
       <c r="F491" s="4"/>
     </row>
-    <row r="492" ht="15.75" customHeight="1">
+    <row r="492" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C492" s="4"/>
       <c r="D492" s="4"/>
       <c r="F492" s="4"/>
     </row>
-    <row r="493" ht="15.75" customHeight="1">
+    <row r="493" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C493" s="4"/>
       <c r="D493" s="4"/>
       <c r="F493" s="4"/>
     </row>
-    <row r="494" ht="15.75" customHeight="1">
+    <row r="494" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C494" s="4"/>
       <c r="D494" s="4"/>
       <c r="F494" s="4"/>
     </row>
-    <row r="495" ht="15.75" customHeight="1">
+    <row r="495" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C495" s="4"/>
       <c r="D495" s="4"/>
       <c r="F495" s="4"/>
     </row>
-    <row r="496" ht="15.75" customHeight="1">
+    <row r="496" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C496" s="4"/>
       <c r="D496" s="4"/>
       <c r="F496" s="4"/>
     </row>
-    <row r="497" ht="15.75" customHeight="1">
+    <row r="497" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C497" s="4"/>
       <c r="D497" s="4"/>
       <c r="F497" s="4"/>
     </row>
-    <row r="498" ht="15.75" customHeight="1">
+    <row r="498" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C498" s="4"/>
       <c r="D498" s="4"/>
       <c r="F498" s="4"/>
     </row>
-    <row r="499" ht="15.75" customHeight="1">
+    <row r="499" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C499" s="4"/>
       <c r="D499" s="4"/>
       <c r="F499" s="4"/>
     </row>
-    <row r="500" ht="15.75" customHeight="1">
+    <row r="500" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C500" s="4"/>
       <c r="D500" s="4"/>
       <c r="F500" s="4"/>
     </row>
-    <row r="501" ht="15.75" customHeight="1">
+    <row r="501" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C501" s="4"/>
       <c r="D501" s="4"/>
       <c r="F501" s="4"/>
     </row>
-    <row r="502" ht="15.75" customHeight="1">
+    <row r="502" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C502" s="4"/>
       <c r="D502" s="4"/>
       <c r="F502" s="4"/>
     </row>
-    <row r="503" ht="15.75" customHeight="1">
+    <row r="503" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C503" s="4"/>
       <c r="D503" s="4"/>
       <c r="F503" s="4"/>
     </row>
-    <row r="504" ht="15.75" customHeight="1">
+    <row r="504" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C504" s="4"/>
       <c r="D504" s="4"/>
       <c r="F504" s="4"/>
     </row>
-    <row r="505" ht="15.75" customHeight="1">
+    <row r="505" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C505" s="4"/>
       <c r="D505" s="4"/>
       <c r="F505" s="4"/>
     </row>
-    <row r="506" ht="15.75" customHeight="1">
+    <row r="506" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C506" s="4"/>
       <c r="D506" s="4"/>
       <c r="F506" s="4"/>
     </row>
-    <row r="507" ht="15.75" customHeight="1">
+    <row r="507" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C507" s="4"/>
       <c r="D507" s="4"/>
       <c r="F507" s="4"/>
     </row>
-    <row r="508" ht="15.75" customHeight="1">
+    <row r="508" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C508" s="4"/>
       <c r="D508" s="4"/>
       <c r="F508" s="4"/>
     </row>
-    <row r="509" ht="15.75" customHeight="1">
+    <row r="509" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C509" s="4"/>
       <c r="D509" s="4"/>
       <c r="F509" s="4"/>
     </row>
-    <row r="510" ht="15.75" customHeight="1">
+    <row r="510" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C510" s="4"/>
       <c r="D510" s="4"/>
       <c r="F510" s="4"/>
     </row>
-    <row r="511" ht="15.75" customHeight="1">
+    <row r="511" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C511" s="4"/>
       <c r="D511" s="4"/>
       <c r="F511" s="4"/>
     </row>
-    <row r="512" ht="15.75" customHeight="1">
+    <row r="512" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C512" s="4"/>
       <c r="D512" s="4"/>
       <c r="F512" s="4"/>
     </row>
-    <row r="513" ht="15.75" customHeight="1">
+    <row r="513" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C513" s="4"/>
       <c r="D513" s="4"/>
       <c r="F513" s="4"/>
     </row>
-    <row r="514" ht="15.75" customHeight="1">
+    <row r="514" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C514" s="4"/>
       <c r="D514" s="4"/>
       <c r="F514" s="4"/>
     </row>
-    <row r="515" ht="15.75" customHeight="1">
+    <row r="515" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C515" s="4"/>
       <c r="D515" s="4"/>
       <c r="F515" s="4"/>
     </row>
-    <row r="516" ht="15.75" customHeight="1">
+    <row r="516" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C516" s="4"/>
       <c r="D516" s="4"/>
       <c r="F516" s="4"/>
     </row>
-    <row r="517" ht="15.75" customHeight="1">
+    <row r="517" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C517" s="4"/>
       <c r="D517" s="4"/>
       <c r="F517" s="4"/>
     </row>
-    <row r="518" ht="15.75" customHeight="1">
+    <row r="518" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C518" s="4"/>
       <c r="D518" s="4"/>
       <c r="F518" s="4"/>
     </row>
-    <row r="519" ht="15.75" customHeight="1">
+    <row r="519" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C519" s="4"/>
       <c r="D519" s="4"/>
       <c r="F519" s="4"/>
     </row>
-    <row r="520" ht="15.75" customHeight="1">
+    <row r="520" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C520" s="4"/>
       <c r="D520" s="4"/>
       <c r="F520" s="4"/>
     </row>
-    <row r="521" ht="15.75" customHeight="1">
+    <row r="521" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C521" s="4"/>
       <c r="D521" s="4"/>
       <c r="F521" s="4"/>
     </row>
-    <row r="522" ht="15.75" customHeight="1">
+    <row r="522" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C522" s="4"/>
       <c r="D522" s="4"/>
       <c r="F522" s="4"/>
     </row>
-    <row r="523" ht="15.75" customHeight="1">
+    <row r="523" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C523" s="4"/>
       <c r="D523" s="4"/>
       <c r="F523" s="4"/>
     </row>
-    <row r="524" ht="15.75" customHeight="1">
+    <row r="524" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C524" s="4"/>
       <c r="D524" s="4"/>
       <c r="F524" s="4"/>
     </row>
-    <row r="525" ht="15.75" customHeight="1">
+    <row r="525" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C525" s="4"/>
       <c r="D525" s="4"/>
       <c r="F525" s="4"/>
     </row>
-    <row r="526" ht="15.75" customHeight="1">
+    <row r="526" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C526" s="4"/>
       <c r="D526" s="4"/>
       <c r="F526" s="4"/>
     </row>
-    <row r="527" ht="15.75" customHeight="1">
+    <row r="527" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C527" s="4"/>
       <c r="D527" s="4"/>
       <c r="F527" s="4"/>
     </row>
-    <row r="528" ht="15.75" customHeight="1">
+    <row r="528" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C528" s="4"/>
       <c r="D528" s="4"/>
       <c r="F528" s="4"/>
     </row>
-    <row r="529" ht="15.75" customHeight="1">
+    <row r="529" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C529" s="4"/>
       <c r="D529" s="4"/>
       <c r="F529" s="4"/>
     </row>
-    <row r="530" ht="15.75" customHeight="1">
+    <row r="530" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C530" s="4"/>
       <c r="D530" s="4"/>
       <c r="F530" s="4"/>
     </row>
-    <row r="531" ht="15.75" customHeight="1">
+    <row r="531" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C531" s="4"/>
       <c r="D531" s="4"/>
       <c r="F531" s="4"/>
     </row>
-    <row r="532" ht="15.75" customHeight="1">
+    <row r="532" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C532" s="4"/>
       <c r="D532" s="4"/>
       <c r="F532" s="4"/>
     </row>
-    <row r="533" ht="15.75" customHeight="1">
+    <row r="533" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C533" s="4"/>
       <c r="D533" s="4"/>
       <c r="F533" s="4"/>
     </row>
-    <row r="534" ht="15.75" customHeight="1">
+    <row r="534" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C534" s="4"/>
       <c r="D534" s="4"/>
       <c r="F534" s="4"/>
     </row>
-    <row r="535" ht="15.75" customHeight="1">
+    <row r="535" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C535" s="4"/>
       <c r="D535" s="4"/>
       <c r="F535" s="4"/>
     </row>
-    <row r="536" ht="15.75" customHeight="1">
+    <row r="536" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C536" s="4"/>
       <c r="D536" s="4"/>
       <c r="F536" s="4"/>
     </row>
-    <row r="537" ht="15.75" customHeight="1">
+    <row r="537" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C537" s="4"/>
       <c r="D537" s="4"/>
       <c r="F537" s="4"/>
     </row>
-    <row r="538" ht="15.75" customHeight="1">
+    <row r="538" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C538" s="4"/>
       <c r="D538" s="4"/>
       <c r="F538" s="4"/>
     </row>
-    <row r="539" ht="15.75" customHeight="1">
+    <row r="539" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C539" s="4"/>
       <c r="D539" s="4"/>
       <c r="F539" s="4"/>
     </row>
-    <row r="540" ht="15.75" customHeight="1">
+    <row r="540" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C540" s="4"/>
       <c r="D540" s="4"/>
       <c r="F540" s="4"/>
     </row>
-    <row r="541" ht="15.75" customHeight="1">
+    <row r="541" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C541" s="4"/>
       <c r="D541" s="4"/>
       <c r="F541" s="4"/>
     </row>
-    <row r="542" ht="15.75" customHeight="1">
+    <row r="542" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C542" s="4"/>
       <c r="D542" s="4"/>
       <c r="F542" s="4"/>
     </row>
-    <row r="543" ht="15.75" customHeight="1">
+    <row r="543" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C543" s="4"/>
       <c r="D543" s="4"/>
       <c r="F543" s="4"/>
     </row>
-    <row r="544" ht="15.75" customHeight="1">
+    <row r="544" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C544" s="4"/>
       <c r="D544" s="4"/>
       <c r="F544" s="4"/>
     </row>
-    <row r="545" ht="15.75" customHeight="1">
+    <row r="545" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C545" s="4"/>
       <c r="D545" s="4"/>
       <c r="F545" s="4"/>
     </row>
-    <row r="546" ht="15.75" customHeight="1">
+    <row r="546" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C546" s="4"/>
       <c r="D546" s="4"/>
       <c r="F546" s="4"/>
     </row>
-    <row r="547" ht="15.75" customHeight="1">
+    <row r="547" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C547" s="4"/>
       <c r="D547" s="4"/>
       <c r="F547" s="4"/>
     </row>
-    <row r="548" ht="15.75" customHeight="1">
+    <row r="548" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C548" s="4"/>
       <c r="D548" s="4"/>
       <c r="F548" s="4"/>
     </row>
-    <row r="549" ht="15.75" customHeight="1">
+    <row r="549" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C549" s="4"/>
       <c r="D549" s="4"/>
       <c r="F549" s="4"/>
     </row>
-    <row r="550" ht="15.75" customHeight="1">
+    <row r="550" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C550" s="4"/>
       <c r="D550" s="4"/>
       <c r="F550" s="4"/>
     </row>
-    <row r="551" ht="15.75" customHeight="1">
+    <row r="551" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C551" s="4"/>
       <c r="D551" s="4"/>
       <c r="F551" s="4"/>
     </row>
-    <row r="552" ht="15.75" customHeight="1">
+    <row r="552" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C552" s="4"/>
       <c r="D552" s="4"/>
       <c r="F552" s="4"/>
     </row>
-    <row r="553" ht="15.75" customHeight="1">
+    <row r="553" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C553" s="4"/>
       <c r="D553" s="4"/>
       <c r="F553" s="4"/>
     </row>
-    <row r="554" ht="15.75" customHeight="1">
+    <row r="554" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C554" s="4"/>
       <c r="D554" s="4"/>
       <c r="F554" s="4"/>
     </row>
-    <row r="555" ht="15.75" customHeight="1">
+    <row r="555" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C555" s="4"/>
       <c r="D555" s="4"/>
       <c r="F555" s="4"/>
     </row>
-    <row r="556" ht="15.75" customHeight="1">
+    <row r="556" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C556" s="4"/>
       <c r="D556" s="4"/>
       <c r="F556" s="4"/>
     </row>
-    <row r="557" ht="15.75" customHeight="1">
+    <row r="557" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C557" s="4"/>
       <c r="D557" s="4"/>
       <c r="F557" s="4"/>
     </row>
-    <row r="558" ht="15.75" customHeight="1">
+    <row r="558" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C558" s="4"/>
       <c r="D558" s="4"/>
       <c r="F558" s="4"/>
     </row>
-    <row r="559" ht="15.75" customHeight="1">
+    <row r="559" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C559" s="4"/>
       <c r="D559" s="4"/>
       <c r="F559" s="4"/>
     </row>
-    <row r="560" ht="15.75" customHeight="1">
+    <row r="560" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C560" s="4"/>
       <c r="D560" s="4"/>
       <c r="F560" s="4"/>
     </row>
-    <row r="561" ht="15.75" customHeight="1">
+    <row r="561" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C561" s="4"/>
       <c r="D561" s="4"/>
       <c r="F561" s="4"/>
     </row>
-    <row r="562" ht="15.75" customHeight="1">
+    <row r="562" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C562" s="4"/>
       <c r="D562" s="4"/>
       <c r="F562" s="4"/>
     </row>
-    <row r="563" ht="15.75" customHeight="1">
+    <row r="563" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C563" s="4"/>
       <c r="D563" s="4"/>
       <c r="F563" s="4"/>
     </row>
-    <row r="564" ht="15.75" customHeight="1">
+    <row r="564" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C564" s="4"/>
       <c r="D564" s="4"/>
       <c r="F564" s="4"/>
     </row>
-    <row r="565" ht="15.75" customHeight="1">
+    <row r="565" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C565" s="4"/>
       <c r="D565" s="4"/>
       <c r="F565" s="4"/>
     </row>
-    <row r="566" ht="15.75" customHeight="1">
+    <row r="566" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C566" s="4"/>
       <c r="D566" s="4"/>
       <c r="F566" s="4"/>
     </row>
-    <row r="567" ht="15.75" customHeight="1">
+    <row r="567" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C567" s="4"/>
       <c r="D567" s="4"/>
       <c r="F567" s="4"/>
     </row>
-    <row r="568" ht="15.75" customHeight="1">
+    <row r="568" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C568" s="4"/>
       <c r="D568" s="4"/>
       <c r="F568" s="4"/>
     </row>
-    <row r="569" ht="15.75" customHeight="1">
+    <row r="569" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C569" s="4"/>
       <c r="D569" s="4"/>
       <c r="F569" s="4"/>
     </row>
-    <row r="570" ht="15.75" customHeight="1">
+    <row r="570" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C570" s="4"/>
       <c r="D570" s="4"/>
       <c r="F570" s="4"/>
     </row>
-    <row r="571" ht="15.75" customHeight="1">
+    <row r="571" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C571" s="4"/>
       <c r="D571" s="4"/>
       <c r="F571" s="4"/>
     </row>
-    <row r="572" ht="15.75" customHeight="1">
+    <row r="572" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C572" s="4"/>
       <c r="D572" s="4"/>
       <c r="F572" s="4"/>
     </row>
-    <row r="573" ht="15.75" customHeight="1">
+    <row r="573" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C573" s="4"/>
       <c r="D573" s="4"/>
       <c r="F573" s="4"/>
     </row>
-    <row r="574" ht="15.75" customHeight="1">
+    <row r="574" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C574" s="4"/>
       <c r="D574" s="4"/>
       <c r="F574" s="4"/>
     </row>
-    <row r="575" ht="15.75" customHeight="1">
+    <row r="575" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C575" s="4"/>
       <c r="D575" s="4"/>
       <c r="F575" s="4"/>
     </row>
-    <row r="576" ht="15.75" customHeight="1">
+    <row r="576" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C576" s="4"/>
       <c r="D576" s="4"/>
       <c r="F576" s="4"/>
     </row>
-    <row r="577" ht="15.75" customHeight="1">
+    <row r="577" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C577" s="4"/>
       <c r="D577" s="4"/>
       <c r="F577" s="4"/>
     </row>
-    <row r="578" ht="15.75" customHeight="1">
+    <row r="578" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C578" s="4"/>
       <c r="D578" s="4"/>
       <c r="F578" s="4"/>
     </row>
-    <row r="579" ht="15.75" customHeight="1">
+    <row r="579" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C579" s="4"/>
       <c r="D579" s="4"/>
       <c r="F579" s="4"/>
     </row>
-    <row r="580" ht="15.75" customHeight="1">
+    <row r="580" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C580" s="4"/>
       <c r="D580" s="4"/>
       <c r="F580" s="4"/>
     </row>
-    <row r="581" ht="15.75" customHeight="1">
+    <row r="581" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C581" s="4"/>
       <c r="D581" s="4"/>
       <c r="F581" s="4"/>
     </row>
-    <row r="582" ht="15.75" customHeight="1">
+    <row r="582" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C582" s="4"/>
       <c r="D582" s="4"/>
       <c r="F582" s="4"/>
     </row>
-    <row r="583" ht="15.75" customHeight="1">
+    <row r="583" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C583" s="4"/>
       <c r="D583" s="4"/>
       <c r="F583" s="4"/>
     </row>
-    <row r="584" ht="15.75" customHeight="1">
+    <row r="584" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C584" s="4"/>
       <c r="D584" s="4"/>
       <c r="F584" s="4"/>
     </row>
-    <row r="585" ht="15.75" customHeight="1">
+    <row r="585" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C585" s="4"/>
       <c r="D585" s="4"/>
       <c r="F585" s="4"/>
     </row>
-    <row r="586" ht="15.75" customHeight="1">
+    <row r="586" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C586" s="4"/>
       <c r="D586" s="4"/>
       <c r="F586" s="4"/>
     </row>
-    <row r="587" ht="15.75" customHeight="1">
+    <row r="587" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C587" s="4"/>
       <c r="D587" s="4"/>
       <c r="F587" s="4"/>
     </row>
-    <row r="588" ht="15.75" customHeight="1">
+    <row r="588" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C588" s="4"/>
       <c r="D588" s="4"/>
       <c r="F588" s="4"/>
     </row>
-    <row r="589" ht="15.75" customHeight="1">
+    <row r="589" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C589" s="4"/>
       <c r="D589" s="4"/>
       <c r="F589" s="4"/>
     </row>
-    <row r="590" ht="15.75" customHeight="1">
+    <row r="590" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C590" s="4"/>
       <c r="D590" s="4"/>
       <c r="F590" s="4"/>
     </row>
-    <row r="591" ht="15.75" customHeight="1">
+    <row r="591" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C591" s="4"/>
       <c r="D591" s="4"/>
       <c r="F591" s="4"/>
     </row>
-    <row r="592" ht="15.75" customHeight="1">
+    <row r="592" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C592" s="4"/>
       <c r="D592" s="4"/>
       <c r="F592" s="4"/>
     </row>
-    <row r="593" ht="15.75" customHeight="1">
+    <row r="593" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C593" s="4"/>
       <c r="D593" s="4"/>
       <c r="F593" s="4"/>
     </row>
-    <row r="594" ht="15.75" customHeight="1">
+    <row r="594" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C594" s="4"/>
       <c r="D594" s="4"/>
       <c r="F594" s="4"/>
     </row>
-    <row r="595" ht="15.75" customHeight="1">
+    <row r="595" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C595" s="4"/>
       <c r="D595" s="4"/>
       <c r="F595" s="4"/>
     </row>
-    <row r="596" ht="15.75" customHeight="1">
+    <row r="596" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C596" s="4"/>
       <c r="D596" s="4"/>
       <c r="F596" s="4"/>
     </row>
-    <row r="597" ht="15.75" customHeight="1">
+    <row r="597" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C597" s="4"/>
       <c r="D597" s="4"/>
       <c r="F597" s="4"/>
     </row>
-    <row r="598" ht="15.75" customHeight="1">
+    <row r="598" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C598" s="4"/>
       <c r="D598" s="4"/>
       <c r="F598" s="4"/>
     </row>
-    <row r="599" ht="15.75" customHeight="1">
+    <row r="599" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C599" s="4"/>
       <c r="D599" s="4"/>
       <c r="F599" s="4"/>
     </row>
-    <row r="600" ht="15.75" customHeight="1">
+    <row r="600" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C600" s="4"/>
       <c r="D600" s="4"/>
       <c r="F600" s="4"/>
     </row>
-    <row r="601" ht="15.75" customHeight="1">
+    <row r="601" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C601" s="4"/>
       <c r="D601" s="4"/>
       <c r="F601" s="4"/>
     </row>
-    <row r="602" ht="15.75" customHeight="1">
+    <row r="602" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C602" s="4"/>
       <c r="D602" s="4"/>
       <c r="F602" s="4"/>
     </row>
-    <row r="603" ht="15.75" customHeight="1">
+    <row r="603" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C603" s="4"/>
       <c r="D603" s="4"/>
       <c r="F603" s="4"/>
     </row>
-    <row r="604" ht="15.75" customHeight="1">
+    <row r="604" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C604" s="4"/>
       <c r="D604" s="4"/>
       <c r="F604" s="4"/>
     </row>
-    <row r="605" ht="15.75" customHeight="1">
+    <row r="605" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C605" s="4"/>
       <c r="D605" s="4"/>
       <c r="F605" s="4"/>
     </row>
-    <row r="606" ht="15.75" customHeight="1">
+    <row r="606" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C606" s="4"/>
       <c r="D606" s="4"/>
       <c r="F606" s="4"/>
     </row>
-    <row r="607" ht="15.75" customHeight="1">
+    <row r="607" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C607" s="4"/>
       <c r="D607" s="4"/>
       <c r="F607" s="4"/>
     </row>
-    <row r="608" ht="15.75" customHeight="1">
+    <row r="608" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C608" s="4"/>
       <c r="D608" s="4"/>
       <c r="F608" s="4"/>
     </row>
-    <row r="609" ht="15.75" customHeight="1">
+    <row r="609" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C609" s="4"/>
       <c r="D609" s="4"/>
       <c r="F609" s="4"/>
     </row>
-    <row r="610" ht="15.75" customHeight="1">
+    <row r="610" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C610" s="4"/>
       <c r="D610" s="4"/>
       <c r="F610" s="4"/>
     </row>
-    <row r="611" ht="15.75" customHeight="1">
+    <row r="611" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C611" s="4"/>
       <c r="D611" s="4"/>
       <c r="F611" s="4"/>
     </row>
-    <row r="612" ht="15.75" customHeight="1">
+    <row r="612" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C612" s="4"/>
       <c r="D612" s="4"/>
       <c r="F612" s="4"/>
     </row>
-    <row r="613" ht="15.75" customHeight="1">
+    <row r="613" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C613" s="4"/>
       <c r="D613" s="4"/>
       <c r="F613" s="4"/>
     </row>
-    <row r="614" ht="15.75" customHeight="1">
+    <row r="614" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C614" s="4"/>
       <c r="D614" s="4"/>
       <c r="F614" s="4"/>
     </row>
-    <row r="615" ht="15.75" customHeight="1">
+    <row r="615" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C615" s="4"/>
       <c r="D615" s="4"/>
       <c r="F615" s="4"/>
     </row>
-    <row r="616" ht="15.75" customHeight="1">
+    <row r="616" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C616" s="4"/>
       <c r="D616" s="4"/>
       <c r="F616" s="4"/>
     </row>
-    <row r="617" ht="15.75" customHeight="1">
+    <row r="617" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C617" s="4"/>
       <c r="D617" s="4"/>
       <c r="F617" s="4"/>
     </row>
-    <row r="618" ht="15.75" customHeight="1">
+    <row r="618" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C618" s="4"/>
       <c r="D618" s="4"/>
       <c r="F618" s="4"/>
     </row>
-    <row r="619" ht="15.75" customHeight="1">
+    <row r="619" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C619" s="4"/>
       <c r="D619" s="4"/>
       <c r="F619" s="4"/>
     </row>
-    <row r="620" ht="15.75" customHeight="1">
+    <row r="620" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C620" s="4"/>
       <c r="D620" s="4"/>
       <c r="F620" s="4"/>
     </row>
-    <row r="621" ht="15.75" customHeight="1">
+    <row r="621" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C621" s="4"/>
       <c r="D621" s="4"/>
       <c r="F621" s="4"/>
     </row>
-    <row r="622" ht="15.75" customHeight="1">
+    <row r="622" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C622" s="4"/>
       <c r="D622" s="4"/>
       <c r="F622" s="4"/>
     </row>
-    <row r="623" ht="15.75" customHeight="1">
+    <row r="623" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C623" s="4"/>
       <c r="D623" s="4"/>
       <c r="F623" s="4"/>
     </row>
-    <row r="624" ht="15.75" customHeight="1">
+    <row r="624" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C624" s="4"/>
       <c r="D624" s="4"/>
       <c r="F624" s="4"/>
     </row>
-    <row r="625" ht="15.75" customHeight="1">
+    <row r="625" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C625" s="4"/>
       <c r="D625" s="4"/>
       <c r="F625" s="4"/>
     </row>
-    <row r="626" ht="15.75" customHeight="1">
+    <row r="626" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C626" s="4"/>
       <c r="D626" s="4"/>
       <c r="F626" s="4"/>
     </row>
-    <row r="627" ht="15.75" customHeight="1">
+    <row r="627" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C627" s="4"/>
       <c r="D627" s="4"/>
       <c r="F627" s="4"/>
     </row>
-    <row r="628" ht="15.75" customHeight="1">
+    <row r="628" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C628" s="4"/>
       <c r="D628" s="4"/>
       <c r="F628" s="4"/>
     </row>
-    <row r="629" ht="15.75" customHeight="1">
+    <row r="629" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C629" s="4"/>
       <c r="D629" s="4"/>
       <c r="F629" s="4"/>
     </row>
-    <row r="630" ht="15.75" customHeight="1">
+    <row r="630" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C630" s="4"/>
       <c r="D630" s="4"/>
       <c r="F630" s="4"/>
     </row>
-    <row r="631" ht="15.75" customHeight="1">
+    <row r="631" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C631" s="4"/>
       <c r="D631" s="4"/>
       <c r="F631" s="4"/>
     </row>
-    <row r="632" ht="15.75" customHeight="1">
+    <row r="632" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C632" s="4"/>
       <c r="D632" s="4"/>
       <c r="F632" s="4"/>
     </row>
-    <row r="633" ht="15.75" customHeight="1">
+    <row r="633" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C633" s="4"/>
       <c r="D633" s="4"/>
       <c r="F633" s="4"/>
     </row>
-    <row r="634" ht="15.75" customHeight="1">
+    <row r="634" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C634" s="4"/>
       <c r="D634" s="4"/>
       <c r="F634" s="4"/>
     </row>
-    <row r="635" ht="15.75" customHeight="1">
+    <row r="635" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C635" s="4"/>
       <c r="D635" s="4"/>
       <c r="F635" s="4"/>
     </row>
-    <row r="636" ht="15.75" customHeight="1">
+    <row r="636" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C636" s="4"/>
       <c r="D636" s="4"/>
       <c r="F636" s="4"/>
     </row>
-    <row r="637" ht="15.75" customHeight="1">
+    <row r="637" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C637" s="4"/>
       <c r="D637" s="4"/>
       <c r="F637" s="4"/>
     </row>
-    <row r="638" ht="15.75" customHeight="1">
+    <row r="638" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C638" s="4"/>
       <c r="D638" s="4"/>
       <c r="F638" s="4"/>
     </row>
-    <row r="639" ht="15.75" customHeight="1">
+    <row r="639" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C639" s="4"/>
       <c r="D639" s="4"/>
       <c r="F639" s="4"/>
     </row>
-    <row r="640" ht="15.75" customHeight="1">
+    <row r="640" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C640" s="4"/>
       <c r="D640" s="4"/>
       <c r="F640" s="4"/>
     </row>
-    <row r="641" ht="15.75" customHeight="1">
+    <row r="641" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C641" s="4"/>
       <c r="D641" s="4"/>
       <c r="F641" s="4"/>
     </row>
-    <row r="642" ht="15.75" customHeight="1">
+    <row r="642" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C642" s="4"/>
       <c r="D642" s="4"/>
       <c r="F642" s="4"/>
     </row>
-    <row r="643" ht="15.75" customHeight="1">
+    <row r="643" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C643" s="4"/>
       <c r="D643" s="4"/>
       <c r="F643" s="4"/>
     </row>
-    <row r="644" ht="15.75" customHeight="1">
+    <row r="644" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C644" s="4"/>
       <c r="D644" s="4"/>
       <c r="F644" s="4"/>
     </row>
-    <row r="645" ht="15.75" customHeight="1">
+    <row r="645" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C645" s="4"/>
       <c r="D645" s="4"/>
       <c r="F645" s="4"/>
     </row>
-    <row r="646" ht="15.75" customHeight="1">
+    <row r="646" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C646" s="4"/>
       <c r="D646" s="4"/>
       <c r="F646" s="4"/>
     </row>
-    <row r="647" ht="15.75" customHeight="1">
+    <row r="647" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C647" s="4"/>
       <c r="D647" s="4"/>
       <c r="F647" s="4"/>
     </row>
-    <row r="648" ht="15.75" customHeight="1">
+    <row r="648" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C648" s="4"/>
       <c r="D648" s="4"/>
       <c r="F648" s="4"/>
     </row>
-    <row r="649" ht="15.75" customHeight="1">
+    <row r="649" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C649" s="4"/>
       <c r="D649" s="4"/>
       <c r="F649" s="4"/>
     </row>
-    <row r="650" ht="15.75" customHeight="1">
+    <row r="650" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C650" s="4"/>
       <c r="D650" s="4"/>
       <c r="F650" s="4"/>
     </row>
-    <row r="651" ht="15.75" customHeight="1">
+    <row r="651" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C651" s="4"/>
       <c r="D651" s="4"/>
       <c r="F651" s="4"/>
     </row>
-    <row r="652" ht="15.75" customHeight="1">
+    <row r="652" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C652" s="4"/>
       <c r="D652" s="4"/>
       <c r="F652" s="4"/>
     </row>
-    <row r="653" ht="15.75" customHeight="1">
+    <row r="653" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C653" s="4"/>
       <c r="D653" s="4"/>
       <c r="F653" s="4"/>
     </row>
-    <row r="654" ht="15.75" customHeight="1">
+    <row r="654" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C654" s="4"/>
       <c r="D654" s="4"/>
       <c r="F654" s="4"/>
     </row>
-    <row r="655" ht="15.75" customHeight="1">
+    <row r="655" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C655" s="4"/>
       <c r="D655" s="4"/>
       <c r="F655" s="4"/>
     </row>
-    <row r="656" ht="15.75" customHeight="1">
+    <row r="656" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C656" s="4"/>
       <c r="D656" s="4"/>
       <c r="F656" s="4"/>
     </row>
-    <row r="657" ht="15.75" customHeight="1">
+    <row r="657" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C657" s="4"/>
       <c r="D657" s="4"/>
       <c r="F657" s="4"/>
     </row>
-    <row r="658" ht="15.75" customHeight="1">
+    <row r="658" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C658" s="4"/>
       <c r="D658" s="4"/>
       <c r="F658" s="4"/>
     </row>
-    <row r="659" ht="15.75" customHeight="1">
+    <row r="659" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C659" s="4"/>
       <c r="D659" s="4"/>
       <c r="F659" s="4"/>
     </row>
-    <row r="660" ht="15.75" customHeight="1">
+    <row r="660" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C660" s="4"/>
       <c r="D660" s="4"/>
       <c r="F660" s="4"/>
     </row>
-    <row r="661" ht="15.75" customHeight="1">
+    <row r="661" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C661" s="4"/>
       <c r="D661" s="4"/>
       <c r="F661" s="4"/>
     </row>
-    <row r="662" ht="15.75" customHeight="1">
+    <row r="662" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C662" s="4"/>
       <c r="D662" s="4"/>
       <c r="F662" s="4"/>
     </row>
-    <row r="663" ht="15.75" customHeight="1">
+    <row r="663" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C663" s="4"/>
       <c r="D663" s="4"/>
       <c r="F663" s="4"/>
     </row>
-    <row r="664" ht="15.75" customHeight="1">
+    <row r="664" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C664" s="4"/>
       <c r="D664" s="4"/>
       <c r="F664" s="4"/>
     </row>
-    <row r="665" ht="15.75" customHeight="1">
+    <row r="665" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C665" s="4"/>
       <c r="D665" s="4"/>
       <c r="F665" s="4"/>
     </row>
-    <row r="666" ht="15.75" customHeight="1">
+    <row r="666" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C666" s="4"/>
       <c r="D666" s="4"/>
       <c r="F666" s="4"/>
     </row>
-    <row r="667" ht="15.75" customHeight="1">
+    <row r="667" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C667" s="4"/>
       <c r="D667" s="4"/>
       <c r="F667" s="4"/>
     </row>
-    <row r="668" ht="15.75" customHeight="1">
+    <row r="668" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C668" s="4"/>
       <c r="D668" s="4"/>
       <c r="F668" s="4"/>
     </row>
-    <row r="669" ht="15.75" customHeight="1">
+    <row r="669" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C669" s="4"/>
       <c r="D669" s="4"/>
       <c r="F669" s="4"/>
     </row>
-    <row r="670" ht="15.75" customHeight="1">
+    <row r="670" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C670" s="4"/>
       <c r="D670" s="4"/>
       <c r="F670" s="4"/>
     </row>
-    <row r="671" ht="15.75" customHeight="1">
+    <row r="671" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C671" s="4"/>
       <c r="D671" s="4"/>
       <c r="F671" s="4"/>
     </row>
-    <row r="672" ht="15.75" customHeight="1">
+    <row r="672" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C672" s="4"/>
       <c r="D672" s="4"/>
       <c r="F672" s="4"/>
     </row>
-    <row r="673" ht="15.75" customHeight="1">
+    <row r="673" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C673" s="4"/>
       <c r="D673" s="4"/>
       <c r="F673" s="4"/>
     </row>
-    <row r="674" ht="15.75" customHeight="1">
+    <row r="674" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C674" s="4"/>
       <c r="D674" s="4"/>
       <c r="F674" s="4"/>
     </row>
-    <row r="675" ht="15.75" customHeight="1">
+    <row r="675" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C675" s="4"/>
       <c r="D675" s="4"/>
       <c r="F675" s="4"/>
     </row>
-    <row r="676" ht="15.75" customHeight="1">
+    <row r="676" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C676" s="4"/>
       <c r="D676" s="4"/>
       <c r="F676" s="4"/>
     </row>
-    <row r="677" ht="15.75" customHeight="1">
+    <row r="677" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C677" s="4"/>
       <c r="D677" s="4"/>
       <c r="F677" s="4"/>
     </row>
-    <row r="678" ht="15.75" customHeight="1">
+    <row r="678" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C678" s="4"/>
       <c r="D678" s="4"/>
       <c r="F678" s="4"/>
     </row>
-    <row r="679" ht="15.75" customHeight="1">
+    <row r="679" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C679" s="4"/>
       <c r="D679" s="4"/>
       <c r="F679" s="4"/>
     </row>
-    <row r="680" ht="15.75" customHeight="1">
+    <row r="680" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C680" s="4"/>
       <c r="D680" s="4"/>
       <c r="F680" s="4"/>
     </row>
-    <row r="681" ht="15.75" customHeight="1">
+    <row r="681" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C681" s="4"/>
       <c r="D681" s="4"/>
       <c r="F681" s="4"/>
     </row>
-    <row r="682" ht="15.75" customHeight="1">
+    <row r="682" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C682" s="4"/>
       <c r="D682" s="4"/>
       <c r="F682" s="4"/>
     </row>
-    <row r="683" ht="15.75" customHeight="1">
+    <row r="683" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C683" s="4"/>
       <c r="D683" s="4"/>
       <c r="F683" s="4"/>
     </row>
-    <row r="684" ht="15.75" customHeight="1">
+    <row r="684" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C684" s="4"/>
       <c r="D684" s="4"/>
       <c r="F684" s="4"/>
     </row>
-    <row r="685" ht="15.75" customHeight="1">
+    <row r="685" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C685" s="4"/>
       <c r="D685" s="4"/>
       <c r="F685" s="4"/>
     </row>
-    <row r="686" ht="15.75" customHeight="1">
+    <row r="686" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C686" s="4"/>
       <c r="D686" s="4"/>
       <c r="F686" s="4"/>
     </row>
-    <row r="687" ht="15.75" customHeight="1">
+    <row r="687" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C687" s="4"/>
       <c r="D687" s="4"/>
       <c r="F687" s="4"/>
     </row>
-    <row r="688" ht="15.75" customHeight="1">
+    <row r="688" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C688" s="4"/>
       <c r="D688" s="4"/>
       <c r="F688" s="4"/>
     </row>
-    <row r="689" ht="15.75" customHeight="1">
+    <row r="689" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C689" s="4"/>
       <c r="D689" s="4"/>
       <c r="F689" s="4"/>
     </row>
-    <row r="690" ht="15.75" customHeight="1">
+    <row r="690" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C690" s="4"/>
       <c r="D690" s="4"/>
       <c r="F690" s="4"/>
     </row>
-    <row r="691" ht="15.75" customHeight="1">
+    <row r="691" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C691" s="4"/>
       <c r="D691" s="4"/>
       <c r="F691" s="4"/>
     </row>
-    <row r="692" ht="15.75" customHeight="1">
+    <row r="692" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C692" s="4"/>
       <c r="D692" s="4"/>
       <c r="F692" s="4"/>
     </row>
-    <row r="693" ht="15.75" customHeight="1">
+    <row r="693" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C693" s="4"/>
       <c r="D693" s="4"/>
       <c r="F693" s="4"/>
     </row>
-    <row r="694" ht="15.75" customHeight="1">
+    <row r="694" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C694" s="4"/>
       <c r="D694" s="4"/>
       <c r="F694" s="4"/>
     </row>
-    <row r="695" ht="15.75" customHeight="1">
+    <row r="695" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C695" s="4"/>
       <c r="D695" s="4"/>
       <c r="F695" s="4"/>
     </row>
-    <row r="696" ht="15.75" customHeight="1">
+    <row r="696" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C696" s="4"/>
       <c r="D696" s="4"/>
       <c r="F696" s="4"/>
     </row>
-    <row r="697" ht="15.75" customHeight="1">
+    <row r="697" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C697" s="4"/>
       <c r="D697" s="4"/>
       <c r="F697" s="4"/>
     </row>
-    <row r="698" ht="15.75" customHeight="1">
+    <row r="698" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C698" s="4"/>
       <c r="D698" s="4"/>
       <c r="F698" s="4"/>
     </row>
-    <row r="699" ht="15.75" customHeight="1">
+    <row r="699" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C699" s="4"/>
       <c r="D699" s="4"/>
       <c r="F699" s="4"/>
     </row>
-    <row r="700" ht="15.75" customHeight="1">
+    <row r="700" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C700" s="4"/>
       <c r="D700" s="4"/>
       <c r="F700" s="4"/>
     </row>
-    <row r="701" ht="15.75" customHeight="1">
+    <row r="701" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C701" s="4"/>
       <c r="D701" s="4"/>
       <c r="F701" s="4"/>
     </row>
-    <row r="702" ht="15.75" customHeight="1">
+    <row r="702" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C702" s="4"/>
       <c r="D702" s="4"/>
       <c r="F702" s="4"/>
     </row>
-    <row r="703" ht="15.75" customHeight="1">
+    <row r="703" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C703" s="4"/>
       <c r="D703" s="4"/>
       <c r="F703" s="4"/>
     </row>
-    <row r="704" ht="15.75" customHeight="1">
+    <row r="704" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C704" s="4"/>
       <c r="D704" s="4"/>
       <c r="F704" s="4"/>
     </row>
-    <row r="705" ht="15.75" customHeight="1">
+    <row r="705" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C705" s="4"/>
       <c r="D705" s="4"/>
       <c r="F705" s="4"/>
     </row>
-    <row r="706" ht="15.75" customHeight="1">
+    <row r="706" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C706" s="4"/>
       <c r="D706" s="4"/>
       <c r="F706" s="4"/>
     </row>
-    <row r="707" ht="15.75" customHeight="1">
+    <row r="707" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C707" s="4"/>
       <c r="D707" s="4"/>
       <c r="F707" s="4"/>
     </row>
-    <row r="708" ht="15.75" customHeight="1">
+    <row r="708" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C708" s="4"/>
       <c r="D708" s="4"/>
       <c r="F708" s="4"/>
     </row>
-    <row r="709" ht="15.75" customHeight="1">
+    <row r="709" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C709" s="4"/>
       <c r="D709" s="4"/>
       <c r="F709" s="4"/>
     </row>
-    <row r="710" ht="15.75" customHeight="1">
+    <row r="710" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C710" s="4"/>
       <c r="D710" s="4"/>
       <c r="F710" s="4"/>
     </row>
-    <row r="711" ht="15.75" customHeight="1">
+    <row r="711" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C711" s="4"/>
       <c r="D711" s="4"/>
       <c r="F711" s="4"/>
     </row>
-    <row r="712" ht="15.75" customHeight="1">
+    <row r="712" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C712" s="4"/>
       <c r="D712" s="4"/>
       <c r="F712" s="4"/>
     </row>
-    <row r="713" ht="15.75" customHeight="1">
+    <row r="713" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C713" s="4"/>
       <c r="D713" s="4"/>
       <c r="F713" s="4"/>
     </row>
-    <row r="714" ht="15.75" customHeight="1">
+    <row r="714" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C714" s="4"/>
       <c r="D714" s="4"/>
       <c r="F714" s="4"/>
     </row>
-    <row r="715" ht="15.75" customHeight="1">
+    <row r="715" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C715" s="4"/>
       <c r="D715" s="4"/>
       <c r="F715" s="4"/>
     </row>
-    <row r="716" ht="15.75" customHeight="1">
+    <row r="716" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C716" s="4"/>
       <c r="D716" s="4"/>
       <c r="F716" s="4"/>
     </row>
-    <row r="717" ht="15.75" customHeight="1">
+    <row r="717" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C717" s="4"/>
       <c r="D717" s="4"/>
       <c r="F717" s="4"/>
     </row>
-    <row r="718" ht="15.75" customHeight="1">
+    <row r="718" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C718" s="4"/>
       <c r="D718" s="4"/>
       <c r="F718" s="4"/>
     </row>
-    <row r="719" ht="15.75" customHeight="1">
+    <row r="719" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C719" s="4"/>
       <c r="D719" s="4"/>
       <c r="F719" s="4"/>
     </row>
-    <row r="720" ht="15.75" customHeight="1">
+    <row r="720" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C720" s="4"/>
       <c r="D720" s="4"/>
       <c r="F720" s="4"/>
     </row>
-    <row r="721" ht="15.75" customHeight="1">
+    <row r="721" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C721" s="4"/>
       <c r="D721" s="4"/>
       <c r="F721" s="4"/>
     </row>
-    <row r="722" ht="15.75" customHeight="1">
+    <row r="722" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C722" s="4"/>
       <c r="D722" s="4"/>
       <c r="F722" s="4"/>
     </row>
-    <row r="723" ht="15.75" customHeight="1">
+    <row r="723" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C723" s="4"/>
       <c r="D723" s="4"/>
       <c r="F723" s="4"/>
     </row>
-    <row r="724" ht="15.75" customHeight="1">
+    <row r="724" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C724" s="4"/>
       <c r="D724" s="4"/>
       <c r="F724" s="4"/>
     </row>
-    <row r="725" ht="15.75" customHeight="1">
+    <row r="725" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C725" s="4"/>
       <c r="D725" s="4"/>
       <c r="F725" s="4"/>
     </row>
-    <row r="726" ht="15.75" customHeight="1">
+    <row r="726" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C726" s="4"/>
       <c r="D726" s="4"/>
       <c r="F726" s="4"/>
     </row>
-    <row r="727" ht="15.75" customHeight="1">
+    <row r="727" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C727" s="4"/>
       <c r="D727" s="4"/>
       <c r="F727" s="4"/>
     </row>
-    <row r="728" ht="15.75" customHeight="1">
+    <row r="728" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C728" s="4"/>
       <c r="D728" s="4"/>
       <c r="F728" s="4"/>
     </row>
-    <row r="729" ht="15.75" customHeight="1">
+    <row r="729" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C729" s="4"/>
       <c r="D729" s="4"/>
       <c r="F729" s="4"/>
     </row>
-    <row r="730" ht="15.75" customHeight="1">
+    <row r="730" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C730" s="4"/>
       <c r="D730" s="4"/>
       <c r="F730" s="4"/>
     </row>
-    <row r="731" ht="15.75" customHeight="1">
+    <row r="731" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C731" s="4"/>
       <c r="D731" s="4"/>
       <c r="F731" s="4"/>
     </row>
-    <row r="732" ht="15.75" customHeight="1">
+    <row r="732" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C732" s="4"/>
       <c r="D732" s="4"/>
       <c r="F732" s="4"/>
     </row>
-    <row r="733" ht="15.75" customHeight="1">
+    <row r="733" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C733" s="4"/>
       <c r="D733" s="4"/>
       <c r="F733" s="4"/>
     </row>
-    <row r="734" ht="15.75" customHeight="1">
+    <row r="734" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C734" s="4"/>
       <c r="D734" s="4"/>
       <c r="F734" s="4"/>
     </row>
-    <row r="735" ht="15.75" customHeight="1">
+    <row r="735" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C735" s="4"/>
       <c r="D735" s="4"/>
       <c r="F735" s="4"/>
     </row>
-    <row r="736" ht="15.75" customHeight="1">
+    <row r="736" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C736" s="4"/>
       <c r="D736" s="4"/>
       <c r="F736" s="4"/>
     </row>
-    <row r="737" ht="15.75" customHeight="1">
+    <row r="737" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C737" s="4"/>
       <c r="D737" s="4"/>
       <c r="F737" s="4"/>
     </row>
-    <row r="738" ht="15.75" customHeight="1">
+    <row r="738" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C738" s="4"/>
       <c r="D738" s="4"/>
       <c r="F738" s="4"/>
     </row>
-    <row r="739" ht="15.75" customHeight="1">
+    <row r="739" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C739" s="4"/>
       <c r="D739" s="4"/>
       <c r="F739" s="4"/>
     </row>
-    <row r="740" ht="15.75" customHeight="1">
+    <row r="740" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C740" s="4"/>
       <c r="D740" s="4"/>
       <c r="F740" s="4"/>
     </row>
-    <row r="741" ht="15.75" customHeight="1">
+    <row r="741" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C741" s="4"/>
       <c r="D741" s="4"/>
       <c r="F741" s="4"/>
     </row>
-    <row r="742" ht="15.75" customHeight="1">
+    <row r="742" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C742" s="4"/>
       <c r="D742" s="4"/>
       <c r="F742" s="4"/>
     </row>
-    <row r="743" ht="15.75" customHeight="1">
+    <row r="743" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C743" s="4"/>
       <c r="D743" s="4"/>
       <c r="F743" s="4"/>
     </row>
-    <row r="744" ht="15.75" customHeight="1">
+    <row r="744" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C744" s="4"/>
       <c r="D744" s="4"/>
       <c r="F744" s="4"/>
     </row>
-    <row r="745" ht="15.75" customHeight="1">
+    <row r="745" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C745" s="4"/>
       <c r="D745" s="4"/>
       <c r="F745" s="4"/>
     </row>
-    <row r="746" ht="15.75" customHeight="1">
+    <row r="746" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C746" s="4"/>
       <c r="D746" s="4"/>
       <c r="F746" s="4"/>
     </row>
-    <row r="747" ht="15.75" customHeight="1">
+    <row r="747" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C747" s="4"/>
       <c r="D747" s="4"/>
       <c r="F747" s="4"/>
     </row>
-    <row r="748" ht="15.75" customHeight="1">
+    <row r="748" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C748" s="4"/>
       <c r="D748" s="4"/>
       <c r="F748" s="4"/>
     </row>
-    <row r="749" ht="15.75" customHeight="1">
+    <row r="749" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C749" s="4"/>
       <c r="D749" s="4"/>
       <c r="F749" s="4"/>
     </row>
-    <row r="750" ht="15.75" customHeight="1">
+    <row r="750" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C750" s="4"/>
       <c r="D750" s="4"/>
       <c r="F750" s="4"/>
     </row>
-    <row r="751" ht="15.75" customHeight="1">
+    <row r="751" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C751" s="4"/>
       <c r="D751" s="4"/>
       <c r="F751" s="4"/>
     </row>
-    <row r="752" ht="15.75" customHeight="1">
+    <row r="752" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C752" s="4"/>
       <c r="D752" s="4"/>
       <c r="F752" s="4"/>
     </row>
-    <row r="753" ht="15.75" customHeight="1">
+    <row r="753" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C753" s="4"/>
       <c r="D753" s="4"/>
       <c r="F753" s="4"/>
     </row>
-    <row r="754" ht="15.75" customHeight="1">
+    <row r="754" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C754" s="4"/>
       <c r="D754" s="4"/>
       <c r="F754" s="4"/>
     </row>
-    <row r="755" ht="15.75" customHeight="1">
+    <row r="755" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C755" s="4"/>
       <c r="D755" s="4"/>
       <c r="F755" s="4"/>
     </row>
-    <row r="756" ht="15.75" customHeight="1">
+    <row r="756" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C756" s="4"/>
       <c r="D756" s="4"/>
       <c r="F756" s="4"/>
     </row>
-    <row r="757" ht="15.75" customHeight="1">
+    <row r="757" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C757" s="4"/>
       <c r="D757" s="4"/>
       <c r="F757" s="4"/>
     </row>
-    <row r="758" ht="15.75" customHeight="1">
+    <row r="758" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C758" s="4"/>
       <c r="D758" s="4"/>
       <c r="F758" s="4"/>
     </row>
-    <row r="759" ht="15.75" customHeight="1">
+    <row r="759" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C759" s="4"/>
       <c r="D759" s="4"/>
       <c r="F759" s="4"/>
     </row>
-    <row r="760" ht="15.75" customHeight="1">
+    <row r="760" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C760" s="4"/>
       <c r="D760" s="4"/>
       <c r="F760" s="4"/>
     </row>
-    <row r="761" ht="15.75" customHeight="1">
+    <row r="761" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C761" s="4"/>
       <c r="D761" s="4"/>
       <c r="F761" s="4"/>
     </row>
-    <row r="762" ht="15.75" customHeight="1">
+    <row r="762" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C762" s="4"/>
       <c r="D762" s="4"/>
       <c r="F762" s="4"/>
     </row>
-    <row r="763" ht="15.75" customHeight="1">
+    <row r="763" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C763" s="4"/>
       <c r="D763" s="4"/>
       <c r="F763" s="4"/>
     </row>
-    <row r="764" ht="15.75" customHeight="1">
+    <row r="764" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C764" s="4"/>
       <c r="D764" s="4"/>
       <c r="F764" s="4"/>
     </row>
-    <row r="765" ht="15.75" customHeight="1">
+    <row r="765" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C765" s="4"/>
       <c r="D765" s="4"/>
       <c r="F765" s="4"/>
     </row>
-    <row r="766" ht="15.75" customHeight="1">
+    <row r="766" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C766" s="4"/>
       <c r="D766" s="4"/>
       <c r="F766" s="4"/>
     </row>
-    <row r="767" ht="15.75" customHeight="1">
+    <row r="767" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C767" s="4"/>
       <c r="D767" s="4"/>
       <c r="F767" s="4"/>
     </row>
-    <row r="768" ht="15.75" customHeight="1">
+    <row r="768" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C768" s="4"/>
       <c r="D768" s="4"/>
       <c r="F768" s="4"/>
     </row>
-    <row r="769" ht="15.75" customHeight="1">
+    <row r="769" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C769" s="4"/>
       <c r="D769" s="4"/>
       <c r="F769" s="4"/>
     </row>
-    <row r="770" ht="15.75" customHeight="1">
+    <row r="770" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C770" s="4"/>
       <c r="D770" s="4"/>
       <c r="F770" s="4"/>
     </row>
-    <row r="771" ht="15.75" customHeight="1">
+    <row r="771" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C771" s="4"/>
       <c r="D771" s="4"/>
       <c r="F771" s="4"/>
     </row>
-    <row r="772" ht="15.75" customHeight="1">
+    <row r="772" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C772" s="4"/>
       <c r="D772" s="4"/>
       <c r="F772" s="4"/>
     </row>
-    <row r="773" ht="15.75" customHeight="1">
+    <row r="773" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C773" s="4"/>
       <c r="D773" s="4"/>
       <c r="F773" s="4"/>
     </row>
-    <row r="774" ht="15.75" customHeight="1">
+    <row r="774" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C774" s="4"/>
       <c r="D774" s="4"/>
       <c r="F774" s="4"/>
     </row>
-    <row r="775" ht="15.75" customHeight="1">
+    <row r="775" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C775" s="4"/>
       <c r="D775" s="4"/>
       <c r="F775" s="4"/>
     </row>
-    <row r="776" ht="15.75" customHeight="1">
+    <row r="776" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C776" s="4"/>
       <c r="D776" s="4"/>
       <c r="F776" s="4"/>
     </row>
-    <row r="777" ht="15.75" customHeight="1">
+    <row r="777" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C777" s="4"/>
       <c r="D777" s="4"/>
       <c r="F777" s="4"/>
     </row>
-    <row r="778" ht="15.75" customHeight="1">
+    <row r="778" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C778" s="4"/>
       <c r="D778" s="4"/>
       <c r="F778" s="4"/>
     </row>
-    <row r="779" ht="15.75" customHeight="1">
+    <row r="779" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C779" s="4"/>
       <c r="D779" s="4"/>
       <c r="F779" s="4"/>
     </row>
-    <row r="780" ht="15.75" customHeight="1">
+    <row r="780" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C780" s="4"/>
       <c r="D780" s="4"/>
       <c r="F780" s="4"/>
     </row>
-    <row r="781" ht="15.75" customHeight="1">
+    <row r="781" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C781" s="4"/>
       <c r="D781" s="4"/>
       <c r="F781" s="4"/>
     </row>
-    <row r="782" ht="15.75" customHeight="1">
+    <row r="782" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C782" s="4"/>
       <c r="D782" s="4"/>
       <c r="F782" s="4"/>
     </row>
-    <row r="783" ht="15.75" customHeight="1">
+    <row r="783" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C783" s="4"/>
       <c r="D783" s="4"/>
       <c r="F783" s="4"/>
     </row>
-    <row r="784" ht="15.75" customHeight="1">
+    <row r="784" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C784" s="4"/>
       <c r="D784" s="4"/>
       <c r="F784" s="4"/>
     </row>
-    <row r="785" ht="15.75" customHeight="1">
+    <row r="785" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C785" s="4"/>
       <c r="D785" s="4"/>
       <c r="F785" s="4"/>
     </row>
-    <row r="786" ht="15.75" customHeight="1">
+    <row r="786" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C786" s="4"/>
       <c r="D786" s="4"/>
       <c r="F786" s="4"/>
     </row>
-    <row r="787" ht="15.75" customHeight="1">
+    <row r="787" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C787" s="4"/>
       <c r="D787" s="4"/>
       <c r="F787" s="4"/>
     </row>
-    <row r="788" ht="15.75" customHeight="1">
+    <row r="788" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C788" s="4"/>
       <c r="D788" s="4"/>
       <c r="F788" s="4"/>
     </row>
-    <row r="789" ht="15.75" customHeight="1">
+    <row r="789" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C789" s="4"/>
       <c r="D789" s="4"/>
       <c r="F789" s="4"/>
     </row>
-    <row r="790" ht="15.75" customHeight="1">
+    <row r="790" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C790" s="4"/>
       <c r="D790" s="4"/>
       <c r="F790" s="4"/>
     </row>
-    <row r="791" ht="15.75" customHeight="1">
+    <row r="791" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C791" s="4"/>
       <c r="D791" s="4"/>
       <c r="F791" s="4"/>
     </row>
-    <row r="792" ht="15.75" customHeight="1">
+    <row r="792" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C792" s="4"/>
       <c r="D792" s="4"/>
       <c r="F792" s="4"/>
     </row>
-    <row r="793" ht="15.75" customHeight="1">
+    <row r="793" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C793" s="4"/>
       <c r="D793" s="4"/>
       <c r="F793" s="4"/>
     </row>
-    <row r="794" ht="15.75" customHeight="1">
+    <row r="794" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C794" s="4"/>
       <c r="D794" s="4"/>
       <c r="F794" s="4"/>
     </row>
-    <row r="795" ht="15.75" customHeight="1">
+    <row r="795" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C795" s="4"/>
       <c r="D795" s="4"/>
       <c r="F795" s="4"/>
     </row>
-    <row r="796" ht="15.75" customHeight="1">
+    <row r="796" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C796" s="4"/>
       <c r="D796" s="4"/>
       <c r="F796" s="4"/>
     </row>
-    <row r="797" ht="15.75" customHeight="1">
+    <row r="797" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C797" s="4"/>
       <c r="D797" s="4"/>
       <c r="F797" s="4"/>
     </row>
-    <row r="798" ht="15.75" customHeight="1">
+    <row r="798" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C798" s="4"/>
       <c r="D798" s="4"/>
       <c r="F798" s="4"/>
     </row>
-    <row r="799" ht="15.75" customHeight="1">
+    <row r="799" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C799" s="4"/>
       <c r="D799" s="4"/>
       <c r="F799" s="4"/>
     </row>
-    <row r="800" ht="15.75" customHeight="1">
+    <row r="800" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C800" s="4"/>
       <c r="D800" s="4"/>
       <c r="F800" s="4"/>
     </row>
-    <row r="801" ht="15.75" customHeight="1">
+    <row r="801" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C801" s="4"/>
       <c r="D801" s="4"/>
       <c r="F801" s="4"/>
     </row>
-    <row r="802" ht="15.75" customHeight="1">
+    <row r="802" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C802" s="4"/>
       <c r="D802" s="4"/>
       <c r="F802" s="4"/>
     </row>
-    <row r="803" ht="15.75" customHeight="1">
+    <row r="803" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C803" s="4"/>
       <c r="D803" s="4"/>
       <c r="F803" s="4"/>
     </row>
-    <row r="804" ht="15.75" customHeight="1">
+    <row r="804" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C804" s="4"/>
       <c r="D804" s="4"/>
       <c r="F804" s="4"/>
     </row>
-    <row r="805" ht="15.75" customHeight="1">
+    <row r="805" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C805" s="4"/>
       <c r="D805" s="4"/>
       <c r="F805" s="4"/>
     </row>
-    <row r="806" ht="15.75" customHeight="1">
+    <row r="806" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C806" s="4"/>
       <c r="D806" s="4"/>
       <c r="F806" s="4"/>
     </row>
-    <row r="807" ht="15.75" customHeight="1">
+    <row r="807" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C807" s="4"/>
       <c r="D807" s="4"/>
       <c r="F807" s="4"/>
     </row>
-    <row r="808" ht="15.75" customHeight="1">
+    <row r="808" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C808" s="4"/>
       <c r="D808" s="4"/>
       <c r="F808" s="4"/>
     </row>
-    <row r="809" ht="15.75" customHeight="1">
+    <row r="809" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C809" s="4"/>
       <c r="D809" s="4"/>
       <c r="F809" s="4"/>
     </row>
-    <row r="810" ht="15.75" customHeight="1">
+    <row r="810" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C810" s="4"/>
       <c r="D810" s="4"/>
       <c r="F810" s="4"/>
     </row>
-    <row r="811" ht="15.75" customHeight="1">
+    <row r="811" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C811" s="4"/>
       <c r="D811" s="4"/>
       <c r="F811" s="4"/>
     </row>
-    <row r="812" ht="15.75" customHeight="1">
+    <row r="812" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C812" s="4"/>
       <c r="D812" s="4"/>
       <c r="F812" s="4"/>
     </row>
-    <row r="813" ht="15.75" customHeight="1">
+    <row r="813" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C813" s="4"/>
       <c r="D813" s="4"/>
       <c r="F813" s="4"/>
     </row>
-    <row r="814" ht="15.75" customHeight="1">
+    <row r="814" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C814" s="4"/>
       <c r="D814" s="4"/>
       <c r="F814" s="4"/>
     </row>
-    <row r="815" ht="15.75" customHeight="1">
+    <row r="815" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C815" s="4"/>
       <c r="D815" s="4"/>
       <c r="F815" s="4"/>
     </row>
-    <row r="816" ht="15.75" customHeight="1">
+    <row r="816" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C816" s="4"/>
       <c r="D816" s="4"/>
       <c r="F816" s="4"/>
     </row>
-    <row r="817" ht="15.75" customHeight="1">
+    <row r="817" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C817" s="4"/>
       <c r="D817" s="4"/>
       <c r="F817" s="4"/>
     </row>
-    <row r="818" ht="15.75" customHeight="1">
+    <row r="818" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C818" s="4"/>
       <c r="D818" s="4"/>
       <c r="F818" s="4"/>
     </row>
-    <row r="819" ht="15.75" customHeight="1">
+    <row r="819" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C819" s="4"/>
       <c r="D819" s="4"/>
       <c r="F819" s="4"/>
     </row>
-    <row r="820" ht="15.75" customHeight="1">
+    <row r="820" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C820" s="4"/>
       <c r="D820" s="4"/>
       <c r="F820" s="4"/>
     </row>
-    <row r="821" ht="15.75" customHeight="1">
+    <row r="821" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C821" s="4"/>
       <c r="D821" s="4"/>
       <c r="F821" s="4"/>
     </row>
-    <row r="822" ht="15.75" customHeight="1">
+    <row r="822" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C822" s="4"/>
       <c r="D822" s="4"/>
       <c r="F822" s="4"/>
     </row>
-    <row r="823" ht="15.75" customHeight="1">
+    <row r="823" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C823" s="4"/>
       <c r="D823" s="4"/>
       <c r="F823" s="4"/>
     </row>
-    <row r="824" ht="15.75" customHeight="1">
+    <row r="824" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C824" s="4"/>
       <c r="D824" s="4"/>
       <c r="F824" s="4"/>
     </row>
-    <row r="825" ht="15.75" customHeight="1">
+    <row r="825" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C825" s="4"/>
       <c r="D825" s="4"/>
       <c r="F825" s="4"/>
     </row>
-    <row r="826" ht="15.75" customHeight="1">
+    <row r="826" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C826" s="4"/>
       <c r="D826" s="4"/>
       <c r="F826" s="4"/>
     </row>
-    <row r="827" ht="15.75" customHeight="1">
+    <row r="827" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C827" s="4"/>
       <c r="D827" s="4"/>
       <c r="F827" s="4"/>
     </row>
-    <row r="828" ht="15.75" customHeight="1">
+    <row r="828" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C828" s="4"/>
       <c r="D828" s="4"/>
       <c r="F828" s="4"/>
     </row>
-    <row r="829" ht="15.75" customHeight="1">
+    <row r="829" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C829" s="4"/>
       <c r="D829" s="4"/>
       <c r="F829" s="4"/>
     </row>
-    <row r="830" ht="15.75" customHeight="1">
+    <row r="830" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C830" s="4"/>
       <c r="D830" s="4"/>
       <c r="F830" s="4"/>
     </row>
-    <row r="831" ht="15.75" customHeight="1">
+    <row r="831" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C831" s="4"/>
       <c r="D831" s="4"/>
       <c r="F831" s="4"/>
     </row>
-    <row r="832" ht="15.75" customHeight="1">
+    <row r="832" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C832" s="4"/>
       <c r="D832" s="4"/>
       <c r="F832" s="4"/>
     </row>
-    <row r="833" ht="15.75" customHeight="1">
+    <row r="833" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C833" s="4"/>
       <c r="D833" s="4"/>
       <c r="F833" s="4"/>
     </row>
-    <row r="834" ht="15.75" customHeight="1">
+    <row r="834" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C834" s="4"/>
       <c r="D834" s="4"/>
       <c r="F834" s="4"/>
     </row>
-    <row r="835" ht="15.75" customHeight="1">
+    <row r="835" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C835" s="4"/>
       <c r="D835" s="4"/>
       <c r="F835" s="4"/>
     </row>
-    <row r="836" ht="15.75" customHeight="1">
+    <row r="836" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C836" s="4"/>
       <c r="D836" s="4"/>
       <c r="F836" s="4"/>
     </row>
-    <row r="837" ht="15.75" customHeight="1">
+    <row r="837" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C837" s="4"/>
       <c r="D837" s="4"/>
       <c r="F837" s="4"/>
     </row>
-    <row r="838" ht="15.75" customHeight="1">
+    <row r="838" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C838" s="4"/>
       <c r="D838" s="4"/>
       <c r="F838" s="4"/>
     </row>
-    <row r="839" ht="15.75" customHeight="1">
+    <row r="839" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C839" s="4"/>
       <c r="D839" s="4"/>
       <c r="F839" s="4"/>
     </row>
-    <row r="840" ht="15.75" customHeight="1">
+    <row r="840" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C840" s="4"/>
       <c r="D840" s="4"/>
       <c r="F840" s="4"/>
     </row>
-    <row r="841" ht="15.75" customHeight="1">
+    <row r="841" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C841" s="4"/>
       <c r="D841" s="4"/>
       <c r="F841" s="4"/>
     </row>
-    <row r="842" ht="15.75" customHeight="1">
+    <row r="842" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C842" s="4"/>
       <c r="D842" s="4"/>
       <c r="F842" s="4"/>
     </row>
-    <row r="843" ht="15.75" customHeight="1">
+    <row r="843" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C843" s="4"/>
       <c r="D843" s="4"/>
       <c r="F843" s="4"/>
     </row>
-    <row r="844" ht="15.75" customHeight="1">
+    <row r="844" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C844" s="4"/>
       <c r="D844" s="4"/>
       <c r="F844" s="4"/>
     </row>
-    <row r="845" ht="15.75" customHeight="1">
+    <row r="845" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C845" s="4"/>
       <c r="D845" s="4"/>
       <c r="F845" s="4"/>
     </row>
-    <row r="846" ht="15.75" customHeight="1">
+    <row r="846" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C846" s="4"/>
       <c r="D846" s="4"/>
       <c r="F846" s="4"/>
     </row>
-    <row r="847" ht="15.75" customHeight="1">
+    <row r="847" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C847" s="4"/>
       <c r="D847" s="4"/>
       <c r="F847" s="4"/>
     </row>
-    <row r="848" ht="15.75" customHeight="1">
+    <row r="848" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C848" s="4"/>
       <c r="D848" s="4"/>
       <c r="F848" s="4"/>
     </row>
-    <row r="849" ht="15.75" customHeight="1">
+    <row r="849" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C849" s="4"/>
       <c r="D849" s="4"/>
       <c r="F849" s="4"/>
     </row>
-    <row r="850" ht="15.75" customHeight="1">
+    <row r="850" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C850" s="4"/>
       <c r="D850" s="4"/>
       <c r="F850" s="4"/>
     </row>
-    <row r="851" ht="15.75" customHeight="1">
+    <row r="851" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C851" s="4"/>
       <c r="D851" s="4"/>
       <c r="F851" s="4"/>
     </row>
-    <row r="852" ht="15.75" customHeight="1">
+    <row r="852" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C852" s="4"/>
       <c r="D852" s="4"/>
       <c r="F852" s="4"/>
     </row>
-    <row r="853" ht="15.75" customHeight="1">
+    <row r="853" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C853" s="4"/>
       <c r="D853" s="4"/>
       <c r="F853" s="4"/>
     </row>
-    <row r="854" ht="15.75" customHeight="1">
+    <row r="854" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C854" s="4"/>
       <c r="D854" s="4"/>
       <c r="F854" s="4"/>
     </row>
-    <row r="855" ht="15.75" customHeight="1">
+    <row r="855" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C855" s="4"/>
       <c r="D855" s="4"/>
       <c r="F855" s="4"/>
     </row>
-    <row r="856" ht="15.75" customHeight="1">
+    <row r="856" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C856" s="4"/>
       <c r="D856" s="4"/>
       <c r="F856" s="4"/>
     </row>
-    <row r="857" ht="15.75" customHeight="1">
+    <row r="857" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C857" s="4"/>
       <c r="D857" s="4"/>
       <c r="F857" s="4"/>
     </row>
-    <row r="858" ht="15.75" customHeight="1">
+    <row r="858" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C858" s="4"/>
       <c r="D858" s="4"/>
       <c r="F858" s="4"/>
     </row>
-    <row r="859" ht="15.75" customHeight="1">
+    <row r="859" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C859" s="4"/>
       <c r="D859" s="4"/>
       <c r="F859" s="4"/>
     </row>
-    <row r="860" ht="15.75" customHeight="1">
+    <row r="860" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C860" s="4"/>
       <c r="D860" s="4"/>
       <c r="F860" s="4"/>
     </row>
-    <row r="861" ht="15.75" customHeight="1">
+    <row r="861" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C861" s="4"/>
       <c r="D861" s="4"/>
       <c r="F861" s="4"/>
     </row>
-    <row r="862" ht="15.75" customHeight="1">
+    <row r="862" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C862" s="4"/>
       <c r="D862" s="4"/>
       <c r="F862" s="4"/>
     </row>
-    <row r="863" ht="15.75" customHeight="1">
+    <row r="863" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C863" s="4"/>
       <c r="D863" s="4"/>
       <c r="F863" s="4"/>
     </row>
-    <row r="864" ht="15.75" customHeight="1">
+    <row r="864" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C864" s="4"/>
       <c r="D864" s="4"/>
       <c r="F864" s="4"/>
     </row>
-    <row r="865" ht="15.75" customHeight="1">
+    <row r="865" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C865" s="4"/>
       <c r="D865" s="4"/>
       <c r="F865" s="4"/>
     </row>
-    <row r="866" ht="15.75" customHeight="1">
+    <row r="866" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C866" s="4"/>
       <c r="D866" s="4"/>
       <c r="F866" s="4"/>
     </row>
-    <row r="867" ht="15.75" customHeight="1">
+    <row r="867" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C867" s="4"/>
       <c r="D867" s="4"/>
       <c r="F867" s="4"/>
     </row>
-    <row r="868" ht="15.75" customHeight="1">
+    <row r="868" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C868" s="4"/>
       <c r="D868" s="4"/>
       <c r="F868" s="4"/>
     </row>
-    <row r="869" ht="15.75" customHeight="1">
+    <row r="869" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C869" s="4"/>
       <c r="D869" s="4"/>
       <c r="F869" s="4"/>
     </row>
-    <row r="870" ht="15.75" customHeight="1">
+    <row r="870" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C870" s="4"/>
       <c r="D870" s="4"/>
       <c r="F870" s="4"/>
     </row>
-    <row r="871" ht="15.75" customHeight="1">
+    <row r="871" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C871" s="4"/>
       <c r="D871" s="4"/>
       <c r="F871" s="4"/>
     </row>
-    <row r="872" ht="15.75" customHeight="1">
+    <row r="872" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C872" s="4"/>
       <c r="D872" s="4"/>
       <c r="F872" s="4"/>
     </row>
-    <row r="873" ht="15.75" customHeight="1">
+    <row r="873" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C873" s="4"/>
       <c r="D873" s="4"/>
       <c r="F873" s="4"/>
     </row>
-    <row r="874" ht="15.75" customHeight="1">
+    <row r="874" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C874" s="4"/>
       <c r="D874" s="4"/>
       <c r="F874" s="4"/>
     </row>
-    <row r="875" ht="15.75" customHeight="1">
+    <row r="875" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C875" s="4"/>
       <c r="D875" s="4"/>
       <c r="F875" s="4"/>
     </row>
-    <row r="876" ht="15.75" customHeight="1">
+    <row r="876" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C876" s="4"/>
       <c r="D876" s="4"/>
       <c r="F876" s="4"/>
     </row>
-    <row r="877" ht="15.75" customHeight="1">
+    <row r="877" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C877" s="4"/>
       <c r="D877" s="4"/>
       <c r="F877" s="4"/>
     </row>
-    <row r="878" ht="15.75" customHeight="1">
+    <row r="878" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C878" s="4"/>
       <c r="D878" s="4"/>
       <c r="F878" s="4"/>
     </row>
-    <row r="879" ht="15.75" customHeight="1">
+    <row r="879" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C879" s="4"/>
       <c r="D879" s="4"/>
       <c r="F879" s="4"/>
     </row>
-    <row r="880" ht="15.75" customHeight="1">
+    <row r="880" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C880" s="4"/>
       <c r="D880" s="4"/>
       <c r="F880" s="4"/>
     </row>
-    <row r="881" ht="15.75" customHeight="1">
+    <row r="881" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C881" s="4"/>
       <c r="D881" s="4"/>
       <c r="F881" s="4"/>
     </row>
-    <row r="882" ht="15.75" customHeight="1">
+    <row r="882" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C882" s="4"/>
       <c r="D882" s="4"/>
       <c r="F882" s="4"/>
     </row>
-    <row r="883" ht="15.75" customHeight="1">
+    <row r="883" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C883" s="4"/>
       <c r="D883" s="4"/>
       <c r="F883" s="4"/>
     </row>
-    <row r="884" ht="15.75" customHeight="1">
+    <row r="884" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C884" s="4"/>
       <c r="D884" s="4"/>
       <c r="F884" s="4"/>
     </row>
-    <row r="885" ht="15.75" customHeight="1">
+    <row r="885" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C885" s="4"/>
       <c r="D885" s="4"/>
       <c r="F885" s="4"/>
     </row>
-    <row r="886" ht="15.75" customHeight="1">
+    <row r="886" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C886" s="4"/>
       <c r="D886" s="4"/>
       <c r="F886" s="4"/>
     </row>
-    <row r="887" ht="15.75" customHeight="1">
+    <row r="887" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C887" s="4"/>
       <c r="D887" s="4"/>
       <c r="F887" s="4"/>
     </row>
-    <row r="888" ht="15.75" customHeight="1">
+    <row r="888" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C888" s="4"/>
       <c r="D888" s="4"/>
       <c r="F888" s="4"/>
     </row>
-    <row r="889" ht="15.75" customHeight="1">
+    <row r="889" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C889" s="4"/>
       <c r="D889" s="4"/>
       <c r="F889" s="4"/>
     </row>
-    <row r="890" ht="15.75" customHeight="1">
+    <row r="890" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C890" s="4"/>
       <c r="D890" s="4"/>
       <c r="F890" s="4"/>
     </row>
-    <row r="891" ht="15.75" customHeight="1">
+    <row r="891" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C891" s="4"/>
       <c r="D891" s="4"/>
       <c r="F891" s="4"/>
     </row>
-    <row r="892" ht="15.75" customHeight="1">
+    <row r="892" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C892" s="4"/>
       <c r="D892" s="4"/>
       <c r="F892" s="4"/>
     </row>
-    <row r="893" ht="15.75" customHeight="1">
+    <row r="893" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C893" s="4"/>
       <c r="D893" s="4"/>
       <c r="F893" s="4"/>
     </row>
-    <row r="894" ht="15.75" customHeight="1">
+    <row r="894" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C894" s="4"/>
       <c r="D894" s="4"/>
       <c r="F894" s="4"/>
     </row>
-    <row r="895" ht="15.75" customHeight="1">
+    <row r="895" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C895" s="4"/>
       <c r="D895" s="4"/>
       <c r="F895" s="4"/>
     </row>
-    <row r="896" ht="15.75" customHeight="1">
+    <row r="896" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C896" s="4"/>
       <c r="D896" s="4"/>
       <c r="F896" s="4"/>
     </row>
-    <row r="897" ht="15.75" customHeight="1">
+    <row r="897" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C897" s="4"/>
       <c r="D897" s="4"/>
       <c r="F897" s="4"/>
     </row>
-    <row r="898" ht="15.75" customHeight="1">
+    <row r="898" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C898" s="4"/>
       <c r="D898" s="4"/>
       <c r="F898" s="4"/>
     </row>
-    <row r="899" ht="15.75" customHeight="1">
+    <row r="899" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C899" s="4"/>
       <c r="D899" s="4"/>
       <c r="F899" s="4"/>
     </row>
-    <row r="900" ht="15.75" customHeight="1">
+    <row r="900" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C900" s="4"/>
       <c r="D900" s="4"/>
       <c r="F900" s="4"/>
     </row>
-    <row r="901" ht="15.75" customHeight="1">
+    <row r="901" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C901" s="4"/>
       <c r="D901" s="4"/>
       <c r="F901" s="4"/>
     </row>
-    <row r="902" ht="15.75" customHeight="1">
+    <row r="902" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C902" s="4"/>
       <c r="D902" s="4"/>
       <c r="F902" s="4"/>
     </row>
-    <row r="903" ht="15.75" customHeight="1">
+    <row r="903" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C903" s="4"/>
       <c r="D903" s="4"/>
       <c r="F903" s="4"/>
     </row>
-    <row r="904" ht="15.75" customHeight="1">
+    <row r="904" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C904" s="4"/>
       <c r="D904" s="4"/>
       <c r="F904" s="4"/>
     </row>
-    <row r="905" ht="15.75" customHeight="1">
+    <row r="905" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C905" s="4"/>
       <c r="D905" s="4"/>
       <c r="F905" s="4"/>
     </row>
-    <row r="906" ht="15.75" customHeight="1">
+    <row r="906" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C906" s="4"/>
       <c r="D906" s="4"/>
       <c r="F906" s="4"/>
     </row>
-    <row r="907" ht="15.75" customHeight="1">
+    <row r="907" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C907" s="4"/>
       <c r="D907" s="4"/>
       <c r="F907" s="4"/>
     </row>
-    <row r="908" ht="15.75" customHeight="1">
+    <row r="908" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C908" s="4"/>
       <c r="D908" s="4"/>
       <c r="F908" s="4"/>
     </row>
-    <row r="909" ht="15.75" customHeight="1">
+    <row r="909" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C909" s="4"/>
       <c r="D909" s="4"/>
       <c r="F909" s="4"/>
     </row>
-    <row r="910" ht="15.75" customHeight="1">
+    <row r="910" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C910" s="4"/>
       <c r="D910" s="4"/>
       <c r="F910" s="4"/>
     </row>
-    <row r="911" ht="15.75" customHeight="1">
+    <row r="911" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C911" s="4"/>
       <c r="D911" s="4"/>
       <c r="F911" s="4"/>
     </row>
-    <row r="912" ht="15.75" customHeight="1">
+    <row r="912" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C912" s="4"/>
       <c r="D912" s="4"/>
       <c r="F912" s="4"/>
     </row>
-    <row r="913" ht="15.75" customHeight="1">
+    <row r="913" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C913" s="4"/>
       <c r="D913" s="4"/>
       <c r="F913" s="4"/>
     </row>
-    <row r="914" ht="15.75" customHeight="1">
+    <row r="914" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C914" s="4"/>
       <c r="D914" s="4"/>
       <c r="F914" s="4"/>
     </row>
-    <row r="915" ht="15.75" customHeight="1">
+    <row r="915" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C915" s="4"/>
       <c r="D915" s="4"/>
       <c r="F915" s="4"/>
     </row>
-    <row r="916" ht="15.75" customHeight="1">
+    <row r="916" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C916" s="4"/>
       <c r="D916" s="4"/>
       <c r="F916" s="4"/>
     </row>
-    <row r="917" ht="15.75" customHeight="1">
+    <row r="917" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C917" s="4"/>
       <c r="D917" s="4"/>
       <c r="F917" s="4"/>
     </row>
-    <row r="918" ht="15.75" customHeight="1">
+    <row r="918" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C918" s="4"/>
       <c r="D918" s="4"/>
       <c r="F918" s="4"/>
     </row>
-    <row r="919" ht="15.75" customHeight="1">
+    <row r="919" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C919" s="4"/>
       <c r="D919" s="4"/>
       <c r="F919" s="4"/>
     </row>
-    <row r="920" ht="15.75" customHeight="1">
+    <row r="920" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C920" s="4"/>
       <c r="D920" s="4"/>
       <c r="F920" s="4"/>
     </row>
-    <row r="921" ht="15.75" customHeight="1">
+    <row r="921" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C921" s="4"/>
       <c r="D921" s="4"/>
       <c r="F921" s="4"/>
     </row>
-    <row r="922" ht="15.75" customHeight="1">
+    <row r="922" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C922" s="4"/>
       <c r="D922" s="4"/>
       <c r="F922" s="4"/>
     </row>
-    <row r="923" ht="15.75" customHeight="1">
+    <row r="923" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C923" s="4"/>
       <c r="D923" s="4"/>
       <c r="F923" s="4"/>
     </row>
-    <row r="924" ht="15.75" customHeight="1">
+    <row r="924" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C924" s="4"/>
       <c r="D924" s="4"/>
       <c r="F924" s="4"/>
     </row>
-    <row r="925" ht="15.75" customHeight="1">
+    <row r="925" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C925" s="4"/>
       <c r="D925" s="4"/>
       <c r="F925" s="4"/>
     </row>
-    <row r="926" ht="15.75" customHeight="1">
+    <row r="926" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C926" s="4"/>
       <c r="D926" s="4"/>
       <c r="F926" s="4"/>
     </row>
-    <row r="927" ht="15.75" customHeight="1">
+    <row r="927" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C927" s="4"/>
       <c r="D927" s="4"/>
       <c r="F927" s="4"/>
     </row>
-    <row r="928" ht="15.75" customHeight="1">
+    <row r="928" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C928" s="4"/>
       <c r="D928" s="4"/>
       <c r="F928" s="4"/>
     </row>
-    <row r="929" ht="15.75" customHeight="1">
+    <row r="929" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C929" s="4"/>
       <c r="D929" s="4"/>
       <c r="F929" s="4"/>
     </row>
-    <row r="930" ht="15.75" customHeight="1">
+    <row r="930" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C930" s="4"/>
       <c r="D930" s="4"/>
       <c r="F930" s="4"/>
     </row>
-    <row r="931" ht="15.75" customHeight="1">
+    <row r="931" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C931" s="4"/>
       <c r="D931" s="4"/>
       <c r="F931" s="4"/>
     </row>
-    <row r="932" ht="15.75" customHeight="1">
+    <row r="932" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C932" s="4"/>
       <c r="D932" s="4"/>
       <c r="F932" s="4"/>
     </row>
-    <row r="933" ht="15.75" customHeight="1">
+    <row r="933" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C933" s="4"/>
       <c r="D933" s="4"/>
       <c r="F933" s="4"/>
     </row>
-    <row r="934" ht="15.75" customHeight="1">
+    <row r="934" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C934" s="4"/>
       <c r="D934" s="4"/>
       <c r="F934" s="4"/>
     </row>
-    <row r="935" ht="15.75" customHeight="1">
+    <row r="935" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C935" s="4"/>
       <c r="D935" s="4"/>
       <c r="F935" s="4"/>
     </row>
-    <row r="936" ht="15.75" customHeight="1">
+    <row r="936" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C936" s="4"/>
       <c r="D936" s="4"/>
       <c r="F936" s="4"/>
     </row>
-    <row r="937" ht="15.75" customHeight="1">
+    <row r="937" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C937" s="4"/>
       <c r="D937" s="4"/>
       <c r="F937" s="4"/>
     </row>
-    <row r="938" ht="15.75" customHeight="1">
+    <row r="938" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C938" s="4"/>
       <c r="D938" s="4"/>
       <c r="F938" s="4"/>
     </row>
-    <row r="939" ht="15.75" customHeight="1">
+    <row r="939" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C939" s="4"/>
       <c r="D939" s="4"/>
       <c r="F939" s="4"/>
     </row>
-    <row r="940" ht="15.75" customHeight="1">
+    <row r="940" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C940" s="4"/>
       <c r="D940" s="4"/>
       <c r="F940" s="4"/>
     </row>
-    <row r="941" ht="15.75" customHeight="1">
+    <row r="941" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C941" s="4"/>
       <c r="D941" s="4"/>
       <c r="F941" s="4"/>
     </row>
-    <row r="942" ht="15.75" customHeight="1">
+    <row r="942" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C942" s="4"/>
       <c r="D942" s="4"/>
       <c r="F942" s="4"/>
     </row>
-    <row r="943" ht="15.75" customHeight="1">
+    <row r="943" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C943" s="4"/>
       <c r="D943" s="4"/>
       <c r="F943" s="4"/>
     </row>
-    <row r="944" ht="15.75" customHeight="1">
+    <row r="944" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C944" s="4"/>
       <c r="D944" s="4"/>
       <c r="F944" s="4"/>
     </row>
-    <row r="945" ht="15.75" customHeight="1">
+    <row r="945" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C945" s="4"/>
       <c r="D945" s="4"/>
       <c r="F945" s="4"/>
     </row>
-    <row r="946" ht="15.75" customHeight="1">
+    <row r="946" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C946" s="4"/>
       <c r="D946" s="4"/>
       <c r="F946" s="4"/>
     </row>
-    <row r="947" ht="15.75" customHeight="1">
+    <row r="947" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C947" s="4"/>
       <c r="D947" s="4"/>
       <c r="F947" s="4"/>
     </row>
-    <row r="948" ht="15.75" customHeight="1">
+    <row r="948" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C948" s="4"/>
       <c r="D948" s="4"/>
       <c r="F948" s="4"/>
     </row>
-    <row r="949" ht="15.75" customHeight="1">
+    <row r="949" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C949" s="4"/>
       <c r="D949" s="4"/>
       <c r="F949" s="4"/>
     </row>
-    <row r="950" ht="15.75" customHeight="1">
+    <row r="950" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C950" s="4"/>
       <c r="D950" s="4"/>
       <c r="F950" s="4"/>
     </row>
-    <row r="951" ht="15.75" customHeight="1">
+    <row r="951" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C951" s="4"/>
       <c r="D951" s="4"/>
       <c r="F951" s="4"/>
     </row>
-    <row r="952" ht="15.75" customHeight="1">
+    <row r="952" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C952" s="4"/>
       <c r="D952" s="4"/>
       <c r="F952" s="4"/>
     </row>
-    <row r="953" ht="15.75" customHeight="1">
+    <row r="953" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C953" s="4"/>
       <c r="D953" s="4"/>
       <c r="F953" s="4"/>
     </row>
-    <row r="954" ht="15.75" customHeight="1">
+    <row r="954" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C954" s="4"/>
       <c r="D954" s="4"/>
       <c r="F954" s="4"/>
     </row>
-    <row r="955" ht="15.75" customHeight="1">
+    <row r="955" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C955" s="4"/>
       <c r="D955" s="4"/>
       <c r="F955" s="4"/>
     </row>
-    <row r="956" ht="15.75" customHeight="1">
+    <row r="956" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C956" s="4"/>
       <c r="D956" s="4"/>
       <c r="F956" s="4"/>
     </row>
-    <row r="957" ht="15.75" customHeight="1">
+    <row r="957" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C957" s="4"/>
       <c r="D957" s="4"/>
       <c r="F957" s="4"/>
     </row>
-    <row r="958" ht="15.75" customHeight="1">
+    <row r="958" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C958" s="4"/>
       <c r="D958" s="4"/>
       <c r="F958" s="4"/>
     </row>
-    <row r="959" ht="15.75" customHeight="1">
+    <row r="959" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C959" s="4"/>
       <c r="D959" s="4"/>
       <c r="F959" s="4"/>
     </row>
-    <row r="960" ht="15.75" customHeight="1">
+    <row r="960" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C960" s="4"/>
       <c r="D960" s="4"/>
       <c r="F960" s="4"/>
     </row>
-    <row r="961" ht="15.75" customHeight="1">
+    <row r="961" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C961" s="4"/>
       <c r="D961" s="4"/>
       <c r="F961" s="4"/>
     </row>
-    <row r="962" ht="15.75" customHeight="1">
+    <row r="962" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C962" s="4"/>
       <c r="D962" s="4"/>
       <c r="F962" s="4"/>
     </row>
-    <row r="963" ht="15.75" customHeight="1">
+    <row r="963" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C963" s="4"/>
       <c r="D963" s="4"/>
       <c r="F963" s="4"/>
     </row>
-    <row r="964" ht="15.75" customHeight="1">
+    <row r="964" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C964" s="4"/>
       <c r="D964" s="4"/>
       <c r="F964" s="4"/>
     </row>
-    <row r="965" ht="15.75" customHeight="1">
+    <row r="965" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C965" s="4"/>
       <c r="D965" s="4"/>
       <c r="F965" s="4"/>
     </row>
-    <row r="966" ht="15.75" customHeight="1">
+    <row r="966" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C966" s="4"/>
       <c r="D966" s="4"/>
       <c r="F966" s="4"/>
     </row>
-    <row r="967" ht="15.75" customHeight="1">
+    <row r="967" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C967" s="4"/>
       <c r="D967" s="4"/>
       <c r="F967" s="4"/>
     </row>
-    <row r="968" ht="15.75" customHeight="1">
+    <row r="968" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C968" s="4"/>
       <c r="D968" s="4"/>
       <c r="F968" s="4"/>
     </row>
-    <row r="969" ht="15.75" customHeight="1">
+    <row r="969" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C969" s="4"/>
       <c r="D969" s="4"/>
       <c r="F969" s="4"/>
     </row>
-    <row r="970" ht="15.75" customHeight="1">
+    <row r="970" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C970" s="4"/>
       <c r="D970" s="4"/>
       <c r="F970" s="4"/>
     </row>
-    <row r="971" ht="15.75" customHeight="1">
+    <row r="971" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C971" s="4"/>
       <c r="D971" s="4"/>
       <c r="F971" s="4"/>
     </row>
-    <row r="972" ht="15.75" customHeight="1">
+    <row r="972" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C972" s="4"/>
       <c r="D972" s="4"/>
       <c r="F972" s="4"/>
     </row>
-    <row r="973" ht="15.75" customHeight="1">
+    <row r="973" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C973" s="4"/>
       <c r="D973" s="4"/>
       <c r="F973" s="4"/>
     </row>
-    <row r="974" ht="15.75" customHeight="1">
+    <row r="974" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C974" s="4"/>
       <c r="D974" s="4"/>
       <c r="F974" s="4"/>
     </row>
-    <row r="975" ht="15.75" customHeight="1">
+    <row r="975" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C975" s="4"/>
       <c r="D975" s="4"/>
       <c r="F975" s="4"/>
     </row>
-    <row r="976" ht="15.75" customHeight="1">
+    <row r="976" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C976" s="4"/>
       <c r="D976" s="4"/>
       <c r="F976" s="4"/>
     </row>
-    <row r="977" ht="15.75" customHeight="1">
+    <row r="977" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C977" s="4"/>
       <c r="D977" s="4"/>
       <c r="F977" s="4"/>
     </row>
-    <row r="978" ht="15.75" customHeight="1">
+    <row r="978" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C978" s="4"/>
       <c r="D978" s="4"/>
       <c r="F978" s="4"/>
     </row>
-    <row r="979" ht="15.75" customHeight="1">
+    <row r="979" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C979" s="4"/>
       <c r="D979" s="4"/>
       <c r="F979" s="4"/>
     </row>
-    <row r="980" ht="15.75" customHeight="1">
+    <row r="980" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C980" s="4"/>
       <c r="D980" s="4"/>
       <c r="F980" s="4"/>
     </row>
-    <row r="981" ht="15.75" customHeight="1">
+    <row r="981" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C981" s="4"/>
       <c r="D981" s="4"/>
       <c r="F981" s="4"/>
     </row>
-    <row r="982" ht="15.75" customHeight="1">
+    <row r="982" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C982" s="4"/>
       <c r="D982" s="4"/>
       <c r="F982" s="4"/>
     </row>
-    <row r="983" ht="15.75" customHeight="1">
+    <row r="983" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C983" s="4"/>
       <c r="D983" s="4"/>
       <c r="F983" s="4"/>
     </row>
-    <row r="984" ht="15.75" customHeight="1">
+    <row r="984" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C984" s="4"/>
       <c r="D984" s="4"/>
       <c r="F984" s="4"/>
     </row>
-    <row r="985" ht="15.75" customHeight="1">
+    <row r="985" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C985" s="4"/>
       <c r="D985" s="4"/>
       <c r="F985" s="4"/>
     </row>
-    <row r="986" ht="15.75" customHeight="1">
+    <row r="986" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C986" s="4"/>
       <c r="D986" s="4"/>
       <c r="F986" s="4"/>
     </row>
-    <row r="987" ht="15.75" customHeight="1">
+    <row r="987" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C987" s="4"/>
       <c r="D987" s="4"/>
       <c r="F987" s="4"/>
     </row>
-    <row r="988" ht="15.75" customHeight="1">
+    <row r="988" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C988" s="4"/>
       <c r="D988" s="4"/>
       <c r="F988" s="4"/>
     </row>
-    <row r="989" ht="15.75" customHeight="1">
+    <row r="989" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C989" s="4"/>
       <c r="D989" s="4"/>
       <c r="F989" s="4"/>
     </row>
-    <row r="990" ht="15.75" customHeight="1">
+    <row r="990" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C990" s="4"/>
       <c r="D990" s="4"/>
       <c r="F990" s="4"/>
     </row>
-    <row r="991" ht="15.75" customHeight="1">
+    <row r="991" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C991" s="4"/>
       <c r="D991" s="4"/>
       <c r="F991" s="4"/>
     </row>
-    <row r="992" ht="15.75" customHeight="1">
+    <row r="992" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C992" s="4"/>
       <c r="D992" s="4"/>
       <c r="F992" s="4"/>
     </row>
-    <row r="993" ht="15.75" customHeight="1">
+    <row r="993" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C993" s="4"/>
       <c r="D993" s="4"/>
       <c r="F993" s="4"/>
     </row>
-    <row r="994" ht="15.75" customHeight="1">
+    <row r="994" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C994" s="4"/>
       <c r="D994" s="4"/>
       <c r="F994" s="4"/>
     </row>
-    <row r="995" ht="15.75" customHeight="1">
+    <row r="995" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C995" s="4"/>
       <c r="D995" s="4"/>
       <c r="F995" s="4"/>
     </row>
-    <row r="996" ht="15.75" customHeight="1">
+    <row r="996" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C996" s="4"/>
       <c r="D996" s="4"/>
       <c r="F996" s="4"/>
     </row>
-    <row r="997" ht="15.75" customHeight="1">
+    <row r="997" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C997" s="4"/>
       <c r="D997" s="4"/>
       <c r="F997" s="4"/>
     </row>
-    <row r="998" ht="15.75" customHeight="1">
+    <row r="998" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C998" s="4"/>
       <c r="D998" s="4"/>
       <c r="F998" s="4"/>
     </row>
-    <row r="999" ht="15.75" customHeight="1">
+    <row r="999" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C999" s="4"/>
       <c r="D999" s="4"/>
       <c r="F999" s="4"/>
     </row>
-    <row r="1000" ht="15.75" customHeight="1"/>
+    <row r="1000" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
   </sheetData>
-  <dataValidations>
-    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="C2:C999">
+  <dataValidations count="1">
+    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="C2:C999" xr:uid="{00000000-0002-0000-0000-000000000000}">
       <formula1>"bool,date,dateTime,string,number,enumeration"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="0-1 is Contacts, 0-2 is Companies" sqref="F2:F999">
-      <formula1>Choices!$I$2:$I$13</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="D2:D999">
-      <formula1>Choices!$A$2:$F$6</formula1>
-    </dataValidation>
   </dataValidations>
-  <printOptions/>
-  <pageMargins bottom="0.75" footer="0.0" header="0.0" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
   <pageSetup orientation="landscape"/>
-  <drawing r:id="rId1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
+      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="3">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="0-1 is Contacts, 0-2 is Companies" xr:uid="{00000000-0002-0000-0000-000001000000}">
+          <x14:formula1>
+            <xm:f>Choices!$I$2:$I$13</xm:f>
+          </x14:formula1>
+          <xm:sqref>F2:F999</xm:sqref>
+        </x14:dataValidation>
+        <x14:dataValidation type="list" allowBlank="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0000-000002000000}">
+          <x14:formula1>
+            <xm:f>Choices!$A$2:$F$6</xm:f>
+          </x14:formula1>
+          <xm:sqref>D3:D999</xm:sqref>
+        </x14:dataValidation>
+        <x14:dataValidation type="list" allowBlank="1" showErrorMessage="1" xr:uid="{69217560-4B8A-4C43-AD53-29EF408DEC98}">
+          <x14:formula1>
+            <xm:f>Choices!$A$2:$A$7</xm:f>
+          </x14:formula1>
+          <xm:sqref>D2</xm:sqref>
+        </x14:dataValidation>
+      </x14:dataValidations>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
-    <pageSetUpPr/>
   </sheetPr>
+  <dimension ref="A1:I1000"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A8" sqref="A8"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.0"/>
+  <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col customWidth="1" min="1" max="6" width="12.63"/>
+    <col min="1" max="6" width="12.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="15.75" customHeight="1">
+    <row r="1" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="C1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="F1" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="I1" s="1" t="s">
+    </row>
+    <row r="2" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="1" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="2" ht="15.75" customHeight="1">
-      <c r="A2" s="1" t="s">
+      <c r="B2" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C2" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="B2" s="1" t="s">
-        <v>7</v>
+      <c r="D2" s="1" t="s">
+        <v>8</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="E2" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="I2" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="D2" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="E2" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="F2" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="I2" s="1" t="s">
+    </row>
+    <row r="3" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="1" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="3" ht="15.75" customHeight="1">
-      <c r="A3" s="1" t="s">
+      <c r="B3" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="B3" s="1" t="s">
+      <c r="C3" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="F3" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="C3" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="F3" s="1" t="s">
+      <c r="I3" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="I3" s="1" t="s">
+    </row>
+    <row r="4" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="1" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="4" ht="15.75" customHeight="1">
-      <c r="A4" s="1" t="s">
+      <c r="F4" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="F4" s="1" t="s">
+      <c r="I4" s="1"/>
+    </row>
+    <row r="5" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="F5" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="I4" s="1"/>
-    </row>
-    <row r="5" ht="15.75" customHeight="1">
-      <c r="A5" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="F5" s="1" t="s">
+    </row>
+    <row r="6" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="1" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="6" ht="15.75" customHeight="1">
-      <c r="A6" s="1" t="s">
-        <v>23</v>
+      <c r="F6" s="1" t="s">
+        <v>16</v>
       </c>
-      <c r="F6" s="1" t="s">
-        <v>17</v>
+    </row>
+    <row r="7" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A7" s="3" t="s">
+        <v>6</v>
       </c>
     </row>
-    <row r="7" ht="15.75" customHeight="1"/>
-    <row r="8" ht="15.75" customHeight="1"/>
-    <row r="9" ht="15.75" customHeight="1"/>
-    <row r="10" ht="15.75" customHeight="1"/>
-    <row r="11" ht="15.75" customHeight="1"/>
-    <row r="12" ht="15.75" customHeight="1"/>
-    <row r="13" ht="15.75" customHeight="1"/>
-    <row r="14" ht="15.75" customHeight="1"/>
-    <row r="15" ht="15.75" customHeight="1"/>
-    <row r="16" ht="15.75" customHeight="1"/>
-    <row r="17" ht="15.75" customHeight="1"/>
-    <row r="18" ht="15.75" customHeight="1"/>
-    <row r="19" ht="15.75" customHeight="1"/>
-    <row r="20" ht="15.75" customHeight="1"/>
-    <row r="21" ht="15.75" customHeight="1"/>
-    <row r="22" ht="15.75" customHeight="1"/>
-    <row r="23" ht="15.75" customHeight="1"/>
-    <row r="24" ht="15.75" customHeight="1"/>
-    <row r="25" ht="15.75" customHeight="1"/>
-    <row r="26" ht="15.75" customHeight="1"/>
-    <row r="27" ht="15.75" customHeight="1"/>
-    <row r="28" ht="15.75" customHeight="1"/>
-    <row r="29" ht="15.75" customHeight="1"/>
-    <row r="30" ht="15.75" customHeight="1"/>
-    <row r="31" ht="15.75" customHeight="1"/>
-    <row r="32" ht="15.75" customHeight="1"/>
-    <row r="33" ht="15.75" customHeight="1"/>
-    <row r="34" ht="15.75" customHeight="1"/>
-    <row r="35" ht="15.75" customHeight="1"/>
-    <row r="36" ht="15.75" customHeight="1"/>
-    <row r="37" ht="15.75" customHeight="1"/>
-    <row r="38" ht="15.75" customHeight="1"/>
-    <row r="39" ht="15.75" customHeight="1"/>
-    <row r="40" ht="15.75" customHeight="1"/>
-    <row r="41" ht="15.75" customHeight="1"/>
-    <row r="42" ht="15.75" customHeight="1"/>
-    <row r="43" ht="15.75" customHeight="1"/>
-    <row r="44" ht="15.75" customHeight="1"/>
-    <row r="45" ht="15.75" customHeight="1"/>
-    <row r="46" ht="15.75" customHeight="1"/>
-    <row r="47" ht="15.75" customHeight="1"/>
-    <row r="48" ht="15.75" customHeight="1"/>
-    <row r="49" ht="15.75" customHeight="1"/>
-    <row r="50" ht="15.75" customHeight="1"/>
-    <row r="51" ht="15.75" customHeight="1"/>
-    <row r="52" ht="15.75" customHeight="1"/>
-    <row r="53" ht="15.75" customHeight="1"/>
-    <row r="54" ht="15.75" customHeight="1"/>
-    <row r="55" ht="15.75" customHeight="1"/>
-    <row r="56" ht="15.75" customHeight="1"/>
-    <row r="57" ht="15.75" customHeight="1"/>
-    <row r="58" ht="15.75" customHeight="1"/>
-    <row r="59" ht="15.75" customHeight="1"/>
-    <row r="60" ht="15.75" customHeight="1"/>
-    <row r="61" ht="15.75" customHeight="1"/>
-    <row r="62" ht="15.75" customHeight="1"/>
-    <row r="63" ht="15.75" customHeight="1"/>
-    <row r="64" ht="15.75" customHeight="1"/>
-    <row r="65" ht="15.75" customHeight="1"/>
-    <row r="66" ht="15.75" customHeight="1"/>
-    <row r="67" ht="15.75" customHeight="1"/>
-    <row r="68" ht="15.75" customHeight="1"/>
-    <row r="69" ht="15.75" customHeight="1"/>
-    <row r="70" ht="15.75" customHeight="1"/>
-    <row r="71" ht="15.75" customHeight="1"/>
-    <row r="72" ht="15.75" customHeight="1"/>
-    <row r="73" ht="15.75" customHeight="1"/>
-    <row r="74" ht="15.75" customHeight="1"/>
-    <row r="75" ht="15.75" customHeight="1"/>
-    <row r="76" ht="15.75" customHeight="1"/>
-    <row r="77" ht="15.75" customHeight="1"/>
-    <row r="78" ht="15.75" customHeight="1"/>
-    <row r="79" ht="15.75" customHeight="1"/>
-    <row r="80" ht="15.75" customHeight="1"/>
-    <row r="81" ht="15.75" customHeight="1"/>
-    <row r="82" ht="15.75" customHeight="1"/>
-    <row r="83" ht="15.75" customHeight="1"/>
-    <row r="84" ht="15.75" customHeight="1"/>
-    <row r="85" ht="15.75" customHeight="1"/>
-    <row r="86" ht="15.75" customHeight="1"/>
-    <row r="87" ht="15.75" customHeight="1"/>
-    <row r="88" ht="15.75" customHeight="1"/>
-    <row r="89" ht="15.75" customHeight="1"/>
-    <row r="90" ht="15.75" customHeight="1"/>
-    <row r="91" ht="15.75" customHeight="1"/>
-    <row r="92" ht="15.75" customHeight="1"/>
-    <row r="93" ht="15.75" customHeight="1"/>
-    <row r="94" ht="15.75" customHeight="1"/>
-    <row r="95" ht="15.75" customHeight="1"/>
-    <row r="96" ht="15.75" customHeight="1"/>
-    <row r="97" ht="15.75" customHeight="1"/>
-    <row r="98" ht="15.75" customHeight="1"/>
-    <row r="99" ht="15.75" customHeight="1"/>
-    <row r="100" ht="15.75" customHeight="1"/>
-    <row r="101" ht="15.75" customHeight="1"/>
-    <row r="102" ht="15.75" customHeight="1"/>
-    <row r="103" ht="15.75" customHeight="1"/>
-    <row r="104" ht="15.75" customHeight="1"/>
-    <row r="105" ht="15.75" customHeight="1"/>
-    <row r="106" ht="15.75" customHeight="1"/>
-    <row r="107" ht="15.75" customHeight="1"/>
-    <row r="108" ht="15.75" customHeight="1"/>
-    <row r="109" ht="15.75" customHeight="1"/>
-    <row r="110" ht="15.75" customHeight="1"/>
-    <row r="111" ht="15.75" customHeight="1"/>
-    <row r="112" ht="15.75" customHeight="1"/>
-    <row r="113" ht="15.75" customHeight="1"/>
-    <row r="114" ht="15.75" customHeight="1"/>
-    <row r="115" ht="15.75" customHeight="1"/>
-    <row r="116" ht="15.75" customHeight="1"/>
-    <row r="117" ht="15.75" customHeight="1"/>
-    <row r="118" ht="15.75" customHeight="1"/>
-    <row r="119" ht="15.75" customHeight="1"/>
-    <row r="120" ht="15.75" customHeight="1"/>
-    <row r="121" ht="15.75" customHeight="1"/>
-    <row r="122" ht="15.75" customHeight="1"/>
-    <row r="123" ht="15.75" customHeight="1"/>
-    <row r="124" ht="15.75" customHeight="1"/>
-    <row r="125" ht="15.75" customHeight="1"/>
-    <row r="126" ht="15.75" customHeight="1"/>
-    <row r="127" ht="15.75" customHeight="1"/>
-    <row r="128" ht="15.75" customHeight="1"/>
-    <row r="129" ht="15.75" customHeight="1"/>
-    <row r="130" ht="15.75" customHeight="1"/>
-    <row r="131" ht="15.75" customHeight="1"/>
-    <row r="132" ht="15.75" customHeight="1"/>
-    <row r="133" ht="15.75" customHeight="1"/>
-    <row r="134" ht="15.75" customHeight="1"/>
-    <row r="135" ht="15.75" customHeight="1"/>
-    <row r="136" ht="15.75" customHeight="1"/>
-    <row r="137" ht="15.75" customHeight="1"/>
-    <row r="138" ht="15.75" customHeight="1"/>
-    <row r="139" ht="15.75" customHeight="1"/>
-    <row r="140" ht="15.75" customHeight="1"/>
-    <row r="141" ht="15.75" customHeight="1"/>
-    <row r="142" ht="15.75" customHeight="1"/>
-    <row r="143" ht="15.75" customHeight="1"/>
-    <row r="144" ht="15.75" customHeight="1"/>
-    <row r="145" ht="15.75" customHeight="1"/>
-    <row r="146" ht="15.75" customHeight="1"/>
-    <row r="147" ht="15.75" customHeight="1"/>
-    <row r="148" ht="15.75" customHeight="1"/>
-    <row r="149" ht="15.75" customHeight="1"/>
-    <row r="150" ht="15.75" customHeight="1"/>
-    <row r="151" ht="15.75" customHeight="1"/>
-    <row r="152" ht="15.75" customHeight="1"/>
-    <row r="153" ht="15.75" customHeight="1"/>
-    <row r="154" ht="15.75" customHeight="1"/>
-    <row r="155" ht="15.75" customHeight="1"/>
-    <row r="156" ht="15.75" customHeight="1"/>
-    <row r="157" ht="15.75" customHeight="1"/>
-    <row r="158" ht="15.75" customHeight="1"/>
-    <row r="159" ht="15.75" customHeight="1"/>
-    <row r="160" ht="15.75" customHeight="1"/>
-    <row r="161" ht="15.75" customHeight="1"/>
-    <row r="162" ht="15.75" customHeight="1"/>
-    <row r="163" ht="15.75" customHeight="1"/>
-    <row r="164" ht="15.75" customHeight="1"/>
-    <row r="165" ht="15.75" customHeight="1"/>
-    <row r="166" ht="15.75" customHeight="1"/>
-    <row r="167" ht="15.75" customHeight="1"/>
-    <row r="168" ht="15.75" customHeight="1"/>
-    <row r="169" ht="15.75" customHeight="1"/>
-    <row r="170" ht="15.75" customHeight="1"/>
-    <row r="171" ht="15.75" customHeight="1"/>
-    <row r="172" ht="15.75" customHeight="1"/>
-    <row r="173" ht="15.75" customHeight="1"/>
-    <row r="174" ht="15.75" customHeight="1"/>
-    <row r="175" ht="15.75" customHeight="1"/>
-    <row r="176" ht="15.75" customHeight="1"/>
-    <row r="177" ht="15.75" customHeight="1"/>
-    <row r="178" ht="15.75" customHeight="1"/>
-    <row r="179" ht="15.75" customHeight="1"/>
-    <row r="180" ht="15.75" customHeight="1"/>
-    <row r="181" ht="15.75" customHeight="1"/>
-    <row r="182" ht="15.75" customHeight="1"/>
-    <row r="183" ht="15.75" customHeight="1"/>
-    <row r="184" ht="15.75" customHeight="1"/>
-    <row r="185" ht="15.75" customHeight="1"/>
-    <row r="186" ht="15.75" customHeight="1"/>
-    <row r="187" ht="15.75" customHeight="1"/>
-    <row r="188" ht="15.75" customHeight="1"/>
-    <row r="189" ht="15.75" customHeight="1"/>
-    <row r="190" ht="15.75" customHeight="1"/>
-    <row r="191" ht="15.75" customHeight="1"/>
-    <row r="192" ht="15.75" customHeight="1"/>
-    <row r="193" ht="15.75" customHeight="1"/>
-    <row r="194" ht="15.75" customHeight="1"/>
-    <row r="195" ht="15.75" customHeight="1"/>
-    <row r="196" ht="15.75" customHeight="1"/>
-    <row r="197" ht="15.75" customHeight="1"/>
-    <row r="198" ht="15.75" customHeight="1"/>
-    <row r="199" ht="15.75" customHeight="1"/>
-    <row r="200" ht="15.75" customHeight="1"/>
-    <row r="201" ht="15.75" customHeight="1"/>
-    <row r="202" ht="15.75" customHeight="1"/>
-    <row r="203" ht="15.75" customHeight="1"/>
-    <row r="204" ht="15.75" customHeight="1"/>
-    <row r="205" ht="15.75" customHeight="1"/>
-    <row r="206" ht="15.75" customHeight="1"/>
-    <row r="207" ht="15.75" customHeight="1"/>
-    <row r="208" ht="15.75" customHeight="1"/>
-    <row r="209" ht="15.75" customHeight="1"/>
-    <row r="210" ht="15.75" customHeight="1"/>
-    <row r="211" ht="15.75" customHeight="1"/>
-    <row r="212" ht="15.75" customHeight="1"/>
-    <row r="213" ht="15.75" customHeight="1"/>
-    <row r="214" ht="15.75" customHeight="1"/>
-    <row r="215" ht="15.75" customHeight="1"/>
-    <row r="216" ht="15.75" customHeight="1"/>
-    <row r="217" ht="15.75" customHeight="1"/>
-    <row r="218" ht="15.75" customHeight="1"/>
-    <row r="219" ht="15.75" customHeight="1"/>
-    <row r="220" ht="15.75" customHeight="1"/>
-    <row r="221" ht="15.75" customHeight="1"/>
-    <row r="222" ht="15.75" customHeight="1"/>
-    <row r="223" ht="15.75" customHeight="1"/>
-    <row r="224" ht="15.75" customHeight="1"/>
-    <row r="225" ht="15.75" customHeight="1"/>
-    <row r="226" ht="15.75" customHeight="1"/>
-    <row r="227" ht="15.75" customHeight="1"/>
-    <row r="228" ht="15.75" customHeight="1"/>
-    <row r="229" ht="15.75" customHeight="1"/>
-    <row r="230" ht="15.75" customHeight="1"/>
-    <row r="231" ht="15.75" customHeight="1"/>
-    <row r="232" ht="15.75" customHeight="1"/>
-    <row r="233" ht="15.75" customHeight="1"/>
-    <row r="234" ht="15.75" customHeight="1"/>
-    <row r="235" ht="15.75" customHeight="1"/>
-    <row r="236" ht="15.75" customHeight="1"/>
-    <row r="237" ht="15.75" customHeight="1"/>
-    <row r="238" ht="15.75" customHeight="1"/>
-    <row r="239" ht="15.75" customHeight="1"/>
-    <row r="240" ht="15.75" customHeight="1"/>
-    <row r="241" ht="15.75" customHeight="1"/>
-    <row r="242" ht="15.75" customHeight="1"/>
-    <row r="243" ht="15.75" customHeight="1"/>
-    <row r="244" ht="15.75" customHeight="1"/>
-    <row r="245" ht="15.75" customHeight="1"/>
-    <row r="246" ht="15.75" customHeight="1"/>
-    <row r="247" ht="15.75" customHeight="1"/>
-    <row r="248" ht="15.75" customHeight="1"/>
-    <row r="249" ht="15.75" customHeight="1"/>
-    <row r="250" ht="15.75" customHeight="1"/>
-    <row r="251" ht="15.75" customHeight="1"/>
-    <row r="252" ht="15.75" customHeight="1"/>
-    <row r="253" ht="15.75" customHeight="1"/>
-    <row r="254" ht="15.75" customHeight="1"/>
-    <row r="255" ht="15.75" customHeight="1"/>
-    <row r="256" ht="15.75" customHeight="1"/>
-    <row r="257" ht="15.75" customHeight="1"/>
-    <row r="258" ht="15.75" customHeight="1"/>
-    <row r="259" ht="15.75" customHeight="1"/>
-    <row r="260" ht="15.75" customHeight="1"/>
-    <row r="261" ht="15.75" customHeight="1"/>
-    <row r="262" ht="15.75" customHeight="1"/>
-    <row r="263" ht="15.75" customHeight="1"/>
-    <row r="264" ht="15.75" customHeight="1"/>
-    <row r="265" ht="15.75" customHeight="1"/>
-    <row r="266" ht="15.75" customHeight="1"/>
-    <row r="267" ht="15.75" customHeight="1"/>
-    <row r="268" ht="15.75" customHeight="1"/>
-    <row r="269" ht="15.75" customHeight="1"/>
-    <row r="270" ht="15.75" customHeight="1"/>
-    <row r="271" ht="15.75" customHeight="1"/>
-    <row r="272" ht="15.75" customHeight="1"/>
-    <row r="273" ht="15.75" customHeight="1"/>
-    <row r="274" ht="15.75" customHeight="1"/>
-    <row r="275" ht="15.75" customHeight="1"/>
-    <row r="276" ht="15.75" customHeight="1"/>
-    <row r="277" ht="15.75" customHeight="1"/>
-    <row r="278" ht="15.75" customHeight="1"/>
-    <row r="279" ht="15.75" customHeight="1"/>
-    <row r="280" ht="15.75" customHeight="1"/>
-    <row r="281" ht="15.75" customHeight="1"/>
-    <row r="282" ht="15.75" customHeight="1"/>
-    <row r="283" ht="15.75" customHeight="1"/>
-    <row r="284" ht="15.75" customHeight="1"/>
-    <row r="285" ht="15.75" customHeight="1"/>
-    <row r="286" ht="15.75" customHeight="1"/>
-    <row r="287" ht="15.75" customHeight="1"/>
-    <row r="288" ht="15.75" customHeight="1"/>
-    <row r="289" ht="15.75" customHeight="1"/>
-    <row r="290" ht="15.75" customHeight="1"/>
-    <row r="291" ht="15.75" customHeight="1"/>
-    <row r="292" ht="15.75" customHeight="1"/>
-    <row r="293" ht="15.75" customHeight="1"/>
-    <row r="294" ht="15.75" customHeight="1"/>
-    <row r="295" ht="15.75" customHeight="1"/>
-    <row r="296" ht="15.75" customHeight="1"/>
-    <row r="297" ht="15.75" customHeight="1"/>
-    <row r="298" ht="15.75" customHeight="1"/>
-    <row r="299" ht="15.75" customHeight="1"/>
-    <row r="300" ht="15.75" customHeight="1"/>
-    <row r="301" ht="15.75" customHeight="1"/>
-    <row r="302" ht="15.75" customHeight="1"/>
-    <row r="303" ht="15.75" customHeight="1"/>
-    <row r="304" ht="15.75" customHeight="1"/>
-    <row r="305" ht="15.75" customHeight="1"/>
-    <row r="306" ht="15.75" customHeight="1"/>
-    <row r="307" ht="15.75" customHeight="1"/>
-    <row r="308" ht="15.75" customHeight="1"/>
-    <row r="309" ht="15.75" customHeight="1"/>
-    <row r="310" ht="15.75" customHeight="1"/>
-    <row r="311" ht="15.75" customHeight="1"/>
-    <row r="312" ht="15.75" customHeight="1"/>
-    <row r="313" ht="15.75" customHeight="1"/>
-    <row r="314" ht="15.75" customHeight="1"/>
-    <row r="315" ht="15.75" customHeight="1"/>
-    <row r="316" ht="15.75" customHeight="1"/>
-    <row r="317" ht="15.75" customHeight="1"/>
-    <row r="318" ht="15.75" customHeight="1"/>
-    <row r="319" ht="15.75" customHeight="1"/>
-    <row r="320" ht="15.75" customHeight="1"/>
-    <row r="321" ht="15.75" customHeight="1"/>
-    <row r="322" ht="15.75" customHeight="1"/>
-    <row r="323" ht="15.75" customHeight="1"/>
-    <row r="324" ht="15.75" customHeight="1"/>
-    <row r="325" ht="15.75" customHeight="1"/>
-    <row r="326" ht="15.75" customHeight="1"/>
-    <row r="327" ht="15.75" customHeight="1"/>
-    <row r="328" ht="15.75" customHeight="1"/>
-    <row r="329" ht="15.75" customHeight="1"/>
-    <row r="330" ht="15.75" customHeight="1"/>
-    <row r="331" ht="15.75" customHeight="1"/>
-    <row r="332" ht="15.75" customHeight="1"/>
-    <row r="333" ht="15.75" customHeight="1"/>
-    <row r="334" ht="15.75" customHeight="1"/>
-    <row r="335" ht="15.75" customHeight="1"/>
-    <row r="336" ht="15.75" customHeight="1"/>
-    <row r="337" ht="15.75" customHeight="1"/>
-    <row r="338" ht="15.75" customHeight="1"/>
-    <row r="339" ht="15.75" customHeight="1"/>
-    <row r="340" ht="15.75" customHeight="1"/>
-    <row r="341" ht="15.75" customHeight="1"/>
-    <row r="342" ht="15.75" customHeight="1"/>
-    <row r="343" ht="15.75" customHeight="1"/>
-    <row r="344" ht="15.75" customHeight="1"/>
-    <row r="345" ht="15.75" customHeight="1"/>
-    <row r="346" ht="15.75" customHeight="1"/>
-    <row r="347" ht="15.75" customHeight="1"/>
-    <row r="348" ht="15.75" customHeight="1"/>
-    <row r="349" ht="15.75" customHeight="1"/>
-    <row r="350" ht="15.75" customHeight="1"/>
-    <row r="351" ht="15.75" customHeight="1"/>
-    <row r="352" ht="15.75" customHeight="1"/>
-    <row r="353" ht="15.75" customHeight="1"/>
-    <row r="354" ht="15.75" customHeight="1"/>
-    <row r="355" ht="15.75" customHeight="1"/>
-    <row r="356" ht="15.75" customHeight="1"/>
-    <row r="357" ht="15.75" customHeight="1"/>
-    <row r="358" ht="15.75" customHeight="1"/>
-    <row r="359" ht="15.75" customHeight="1"/>
-    <row r="360" ht="15.75" customHeight="1"/>
-    <row r="361" ht="15.75" customHeight="1"/>
-    <row r="362" ht="15.75" customHeight="1"/>
-    <row r="363" ht="15.75" customHeight="1"/>
-    <row r="364" ht="15.75" customHeight="1"/>
-    <row r="365" ht="15.75" customHeight="1"/>
-    <row r="366" ht="15.75" customHeight="1"/>
-    <row r="367" ht="15.75" customHeight="1"/>
-    <row r="368" ht="15.75" customHeight="1"/>
-    <row r="369" ht="15.75" customHeight="1"/>
-    <row r="370" ht="15.75" customHeight="1"/>
-    <row r="371" ht="15.75" customHeight="1"/>
-    <row r="372" ht="15.75" customHeight="1"/>
-    <row r="373" ht="15.75" customHeight="1"/>
-    <row r="374" ht="15.75" customHeight="1"/>
-    <row r="375" ht="15.75" customHeight="1"/>
-    <row r="376" ht="15.75" customHeight="1"/>
-    <row r="377" ht="15.75" customHeight="1"/>
-    <row r="378" ht="15.75" customHeight="1"/>
-    <row r="379" ht="15.75" customHeight="1"/>
-    <row r="380" ht="15.75" customHeight="1"/>
-    <row r="381" ht="15.75" customHeight="1"/>
-    <row r="382" ht="15.75" customHeight="1"/>
-    <row r="383" ht="15.75" customHeight="1"/>
-    <row r="384" ht="15.75" customHeight="1"/>
-    <row r="385" ht="15.75" customHeight="1"/>
-    <row r="386" ht="15.75" customHeight="1"/>
-    <row r="387" ht="15.75" customHeight="1"/>
-    <row r="388" ht="15.75" customHeight="1"/>
-    <row r="389" ht="15.75" customHeight="1"/>
-    <row r="390" ht="15.75" customHeight="1"/>
-    <row r="391" ht="15.75" customHeight="1"/>
-    <row r="392" ht="15.75" customHeight="1"/>
-    <row r="393" ht="15.75" customHeight="1"/>
-    <row r="394" ht="15.75" customHeight="1"/>
-    <row r="395" ht="15.75" customHeight="1"/>
-    <row r="396" ht="15.75" customHeight="1"/>
-    <row r="397" ht="15.75" customHeight="1"/>
-    <row r="398" ht="15.75" customHeight="1"/>
-    <row r="399" ht="15.75" customHeight="1"/>
-    <row r="400" ht="15.75" customHeight="1"/>
-    <row r="401" ht="15.75" customHeight="1"/>
-    <row r="402" ht="15.75" customHeight="1"/>
-    <row r="403" ht="15.75" customHeight="1"/>
-    <row r="404" ht="15.75" customHeight="1"/>
-    <row r="405" ht="15.75" customHeight="1"/>
-    <row r="406" ht="15.75" customHeight="1"/>
-    <row r="407" ht="15.75" customHeight="1"/>
-    <row r="408" ht="15.75" customHeight="1"/>
-    <row r="409" ht="15.75" customHeight="1"/>
-    <row r="410" ht="15.75" customHeight="1"/>
-    <row r="411" ht="15.75" customHeight="1"/>
-    <row r="412" ht="15.75" customHeight="1"/>
-    <row r="413" ht="15.75" customHeight="1"/>
-    <row r="414" ht="15.75" customHeight="1"/>
-    <row r="415" ht="15.75" customHeight="1"/>
-    <row r="416" ht="15.75" customHeight="1"/>
-    <row r="417" ht="15.75" customHeight="1"/>
-    <row r="418" ht="15.75" customHeight="1"/>
-    <row r="419" ht="15.75" customHeight="1"/>
-    <row r="420" ht="15.75" customHeight="1"/>
-    <row r="421" ht="15.75" customHeight="1"/>
-    <row r="422" ht="15.75" customHeight="1"/>
-    <row r="423" ht="15.75" customHeight="1"/>
-    <row r="424" ht="15.75" customHeight="1"/>
-    <row r="425" ht="15.75" customHeight="1"/>
-    <row r="426" ht="15.75" customHeight="1"/>
-    <row r="427" ht="15.75" customHeight="1"/>
-    <row r="428" ht="15.75" customHeight="1"/>
-    <row r="429" ht="15.75" customHeight="1"/>
-    <row r="430" ht="15.75" customHeight="1"/>
-    <row r="431" ht="15.75" customHeight="1"/>
-    <row r="432" ht="15.75" customHeight="1"/>
-    <row r="433" ht="15.75" customHeight="1"/>
-    <row r="434" ht="15.75" customHeight="1"/>
-    <row r="435" ht="15.75" customHeight="1"/>
-    <row r="436" ht="15.75" customHeight="1"/>
-    <row r="437" ht="15.75" customHeight="1"/>
-    <row r="438" ht="15.75" customHeight="1"/>
-    <row r="439" ht="15.75" customHeight="1"/>
-    <row r="440" ht="15.75" customHeight="1"/>
-    <row r="441" ht="15.75" customHeight="1"/>
-    <row r="442" ht="15.75" customHeight="1"/>
-    <row r="443" ht="15.75" customHeight="1"/>
-    <row r="444" ht="15.75" customHeight="1"/>
-    <row r="445" ht="15.75" customHeight="1"/>
-    <row r="446" ht="15.75" customHeight="1"/>
-    <row r="447" ht="15.75" customHeight="1"/>
-    <row r="448" ht="15.75" customHeight="1"/>
-    <row r="449" ht="15.75" customHeight="1"/>
-    <row r="450" ht="15.75" customHeight="1"/>
-    <row r="451" ht="15.75" customHeight="1"/>
-    <row r="452" ht="15.75" customHeight="1"/>
-    <row r="453" ht="15.75" customHeight="1"/>
-    <row r="454" ht="15.75" customHeight="1"/>
-    <row r="455" ht="15.75" customHeight="1"/>
-    <row r="456" ht="15.75" customHeight="1"/>
-    <row r="457" ht="15.75" customHeight="1"/>
-    <row r="458" ht="15.75" customHeight="1"/>
-    <row r="459" ht="15.75" customHeight="1"/>
-    <row r="460" ht="15.75" customHeight="1"/>
-    <row r="461" ht="15.75" customHeight="1"/>
-    <row r="462" ht="15.75" customHeight="1"/>
-    <row r="463" ht="15.75" customHeight="1"/>
-    <row r="464" ht="15.75" customHeight="1"/>
-    <row r="465" ht="15.75" customHeight="1"/>
-    <row r="466" ht="15.75" customHeight="1"/>
-    <row r="467" ht="15.75" customHeight="1"/>
-    <row r="468" ht="15.75" customHeight="1"/>
-    <row r="469" ht="15.75" customHeight="1"/>
-    <row r="470" ht="15.75" customHeight="1"/>
-    <row r="471" ht="15.75" customHeight="1"/>
-    <row r="472" ht="15.75" customHeight="1"/>
-    <row r="473" ht="15.75" customHeight="1"/>
-    <row r="474" ht="15.75" customHeight="1"/>
-    <row r="475" ht="15.75" customHeight="1"/>
-    <row r="476" ht="15.75" customHeight="1"/>
-    <row r="477" ht="15.75" customHeight="1"/>
-    <row r="478" ht="15.75" customHeight="1"/>
-    <row r="479" ht="15.75" customHeight="1"/>
-    <row r="480" ht="15.75" customHeight="1"/>
-    <row r="481" ht="15.75" customHeight="1"/>
-    <row r="482" ht="15.75" customHeight="1"/>
-    <row r="483" ht="15.75" customHeight="1"/>
-    <row r="484" ht="15.75" customHeight="1"/>
-    <row r="485" ht="15.75" customHeight="1"/>
-    <row r="486" ht="15.75" customHeight="1"/>
-    <row r="487" ht="15.75" customHeight="1"/>
-    <row r="488" ht="15.75" customHeight="1"/>
-    <row r="489" ht="15.75" customHeight="1"/>
-    <row r="490" ht="15.75" customHeight="1"/>
-    <row r="491" ht="15.75" customHeight="1"/>
-    <row r="492" ht="15.75" customHeight="1"/>
-    <row r="493" ht="15.75" customHeight="1"/>
-    <row r="494" ht="15.75" customHeight="1"/>
-    <row r="495" ht="15.75" customHeight="1"/>
-    <row r="496" ht="15.75" customHeight="1"/>
-    <row r="497" ht="15.75" customHeight="1"/>
-    <row r="498" ht="15.75" customHeight="1"/>
-    <row r="499" ht="15.75" customHeight="1"/>
-    <row r="500" ht="15.75" customHeight="1"/>
-    <row r="501" ht="15.75" customHeight="1"/>
-    <row r="502" ht="15.75" customHeight="1"/>
-    <row r="503" ht="15.75" customHeight="1"/>
-    <row r="504" ht="15.75" customHeight="1"/>
-    <row r="505" ht="15.75" customHeight="1"/>
-    <row r="506" ht="15.75" customHeight="1"/>
-    <row r="507" ht="15.75" customHeight="1"/>
-    <row r="508" ht="15.75" customHeight="1"/>
-    <row r="509" ht="15.75" customHeight="1"/>
-    <row r="510" ht="15.75" customHeight="1"/>
-    <row r="511" ht="15.75" customHeight="1"/>
-    <row r="512" ht="15.75" customHeight="1"/>
-    <row r="513" ht="15.75" customHeight="1"/>
-    <row r="514" ht="15.75" customHeight="1"/>
-    <row r="515" ht="15.75" customHeight="1"/>
-    <row r="516" ht="15.75" customHeight="1"/>
-    <row r="517" ht="15.75" customHeight="1"/>
-    <row r="518" ht="15.75" customHeight="1"/>
-    <row r="519" ht="15.75" customHeight="1"/>
-    <row r="520" ht="15.75" customHeight="1"/>
-    <row r="521" ht="15.75" customHeight="1"/>
-    <row r="522" ht="15.75" customHeight="1"/>
-    <row r="523" ht="15.75" customHeight="1"/>
-    <row r="524" ht="15.75" customHeight="1"/>
-    <row r="525" ht="15.75" customHeight="1"/>
-    <row r="526" ht="15.75" customHeight="1"/>
-    <row r="527" ht="15.75" customHeight="1"/>
-    <row r="528" ht="15.75" customHeight="1"/>
-    <row r="529" ht="15.75" customHeight="1"/>
-    <row r="530" ht="15.75" customHeight="1"/>
-    <row r="531" ht="15.75" customHeight="1"/>
-    <row r="532" ht="15.75" customHeight="1"/>
-    <row r="533" ht="15.75" customHeight="1"/>
-    <row r="534" ht="15.75" customHeight="1"/>
-    <row r="535" ht="15.75" customHeight="1"/>
-    <row r="536" ht="15.75" customHeight="1"/>
-    <row r="537" ht="15.75" customHeight="1"/>
-    <row r="538" ht="15.75" customHeight="1"/>
-    <row r="539" ht="15.75" customHeight="1"/>
-    <row r="540" ht="15.75" customHeight="1"/>
-    <row r="541" ht="15.75" customHeight="1"/>
-    <row r="542" ht="15.75" customHeight="1"/>
-    <row r="543" ht="15.75" customHeight="1"/>
-    <row r="544" ht="15.75" customHeight="1"/>
-    <row r="545" ht="15.75" customHeight="1"/>
-    <row r="546" ht="15.75" customHeight="1"/>
-    <row r="547" ht="15.75" customHeight="1"/>
-    <row r="548" ht="15.75" customHeight="1"/>
-    <row r="549" ht="15.75" customHeight="1"/>
-    <row r="550" ht="15.75" customHeight="1"/>
-    <row r="551" ht="15.75" customHeight="1"/>
-    <row r="552" ht="15.75" customHeight="1"/>
-    <row r="553" ht="15.75" customHeight="1"/>
-    <row r="554" ht="15.75" customHeight="1"/>
-    <row r="555" ht="15.75" customHeight="1"/>
-    <row r="556" ht="15.75" customHeight="1"/>
-    <row r="557" ht="15.75" customHeight="1"/>
-    <row r="558" ht="15.75" customHeight="1"/>
-    <row r="559" ht="15.75" customHeight="1"/>
-    <row r="560" ht="15.75" customHeight="1"/>
-    <row r="561" ht="15.75" customHeight="1"/>
-    <row r="562" ht="15.75" customHeight="1"/>
-    <row r="563" ht="15.75" customHeight="1"/>
-    <row r="564" ht="15.75" customHeight="1"/>
-    <row r="565" ht="15.75" customHeight="1"/>
-    <row r="566" ht="15.75" customHeight="1"/>
-    <row r="567" ht="15.75" customHeight="1"/>
-    <row r="568" ht="15.75" customHeight="1"/>
-    <row r="569" ht="15.75" customHeight="1"/>
-    <row r="570" ht="15.75" customHeight="1"/>
-    <row r="571" ht="15.75" customHeight="1"/>
-    <row r="572" ht="15.75" customHeight="1"/>
-    <row r="573" ht="15.75" customHeight="1"/>
-    <row r="574" ht="15.75" customHeight="1"/>
-    <row r="575" ht="15.75" customHeight="1"/>
-    <row r="576" ht="15.75" customHeight="1"/>
-    <row r="577" ht="15.75" customHeight="1"/>
-    <row r="578" ht="15.75" customHeight="1"/>
-    <row r="579" ht="15.75" customHeight="1"/>
-    <row r="580" ht="15.75" customHeight="1"/>
-    <row r="581" ht="15.75" customHeight="1"/>
-    <row r="582" ht="15.75" customHeight="1"/>
-    <row r="583" ht="15.75" customHeight="1"/>
-    <row r="584" ht="15.75" customHeight="1"/>
-    <row r="585" ht="15.75" customHeight="1"/>
-    <row r="586" ht="15.75" customHeight="1"/>
-    <row r="587" ht="15.75" customHeight="1"/>
-    <row r="588" ht="15.75" customHeight="1"/>
-    <row r="589" ht="15.75" customHeight="1"/>
-    <row r="590" ht="15.75" customHeight="1"/>
-    <row r="591" ht="15.75" customHeight="1"/>
-    <row r="592" ht="15.75" customHeight="1"/>
-    <row r="593" ht="15.75" customHeight="1"/>
-    <row r="594" ht="15.75" customHeight="1"/>
-    <row r="595" ht="15.75" customHeight="1"/>
-    <row r="596" ht="15.75" customHeight="1"/>
-    <row r="597" ht="15.75" customHeight="1"/>
-    <row r="598" ht="15.75" customHeight="1"/>
-    <row r="599" ht="15.75" customHeight="1"/>
-    <row r="600" ht="15.75" customHeight="1"/>
-    <row r="601" ht="15.75" customHeight="1"/>
-    <row r="602" ht="15.75" customHeight="1"/>
-    <row r="603" ht="15.75" customHeight="1"/>
-    <row r="604" ht="15.75" customHeight="1"/>
-    <row r="605" ht="15.75" customHeight="1"/>
-    <row r="606" ht="15.75" customHeight="1"/>
-    <row r="607" ht="15.75" customHeight="1"/>
-    <row r="608" ht="15.75" customHeight="1"/>
-    <row r="609" ht="15.75" customHeight="1"/>
-    <row r="610" ht="15.75" customHeight="1"/>
-    <row r="611" ht="15.75" customHeight="1"/>
-    <row r="612" ht="15.75" customHeight="1"/>
-    <row r="613" ht="15.75" customHeight="1"/>
-    <row r="614" ht="15.75" customHeight="1"/>
-    <row r="615" ht="15.75" customHeight="1"/>
-    <row r="616" ht="15.75" customHeight="1"/>
-    <row r="617" ht="15.75" customHeight="1"/>
-    <row r="618" ht="15.75" customHeight="1"/>
-    <row r="619" ht="15.75" customHeight="1"/>
-    <row r="620" ht="15.75" customHeight="1"/>
-    <row r="621" ht="15.75" customHeight="1"/>
-    <row r="622" ht="15.75" customHeight="1"/>
-    <row r="623" ht="15.75" customHeight="1"/>
-    <row r="624" ht="15.75" customHeight="1"/>
-    <row r="625" ht="15.75" customHeight="1"/>
-    <row r="626" ht="15.75" customHeight="1"/>
-    <row r="627" ht="15.75" customHeight="1"/>
-    <row r="628" ht="15.75" customHeight="1"/>
-    <row r="629" ht="15.75" customHeight="1"/>
-    <row r="630" ht="15.75" customHeight="1"/>
-    <row r="631" ht="15.75" customHeight="1"/>
-    <row r="632" ht="15.75" customHeight="1"/>
-    <row r="633" ht="15.75" customHeight="1"/>
-    <row r="634" ht="15.75" customHeight="1"/>
-    <row r="635" ht="15.75" customHeight="1"/>
-    <row r="636" ht="15.75" customHeight="1"/>
-    <row r="637" ht="15.75" customHeight="1"/>
-    <row r="638" ht="15.75" customHeight="1"/>
-    <row r="639" ht="15.75" customHeight="1"/>
-    <row r="640" ht="15.75" customHeight="1"/>
-    <row r="641" ht="15.75" customHeight="1"/>
-    <row r="642" ht="15.75" customHeight="1"/>
-    <row r="643" ht="15.75" customHeight="1"/>
-    <row r="644" ht="15.75" customHeight="1"/>
-    <row r="645" ht="15.75" customHeight="1"/>
-    <row r="646" ht="15.75" customHeight="1"/>
-    <row r="647" ht="15.75" customHeight="1"/>
-    <row r="648" ht="15.75" customHeight="1"/>
-    <row r="649" ht="15.75" customHeight="1"/>
-    <row r="650" ht="15.75" customHeight="1"/>
-    <row r="651" ht="15.75" customHeight="1"/>
-    <row r="652" ht="15.75" customHeight="1"/>
-    <row r="653" ht="15.75" customHeight="1"/>
-    <row r="654" ht="15.75" customHeight="1"/>
-    <row r="655" ht="15.75" customHeight="1"/>
-    <row r="656" ht="15.75" customHeight="1"/>
-    <row r="657" ht="15.75" customHeight="1"/>
-    <row r="658" ht="15.75" customHeight="1"/>
-    <row r="659" ht="15.75" customHeight="1"/>
-    <row r="660" ht="15.75" customHeight="1"/>
-    <row r="661" ht="15.75" customHeight="1"/>
-    <row r="662" ht="15.75" customHeight="1"/>
-    <row r="663" ht="15.75" customHeight="1"/>
-    <row r="664" ht="15.75" customHeight="1"/>
-    <row r="665" ht="15.75" customHeight="1"/>
-    <row r="666" ht="15.75" customHeight="1"/>
-    <row r="667" ht="15.75" customHeight="1"/>
-    <row r="668" ht="15.75" customHeight="1"/>
-    <row r="669" ht="15.75" customHeight="1"/>
-    <row r="670" ht="15.75" customHeight="1"/>
-    <row r="671" ht="15.75" customHeight="1"/>
-    <row r="672" ht="15.75" customHeight="1"/>
-    <row r="673" ht="15.75" customHeight="1"/>
-    <row r="674" ht="15.75" customHeight="1"/>
-    <row r="675" ht="15.75" customHeight="1"/>
-    <row r="676" ht="15.75" customHeight="1"/>
-    <row r="677" ht="15.75" customHeight="1"/>
-    <row r="678" ht="15.75" customHeight="1"/>
-    <row r="679" ht="15.75" customHeight="1"/>
-    <row r="680" ht="15.75" customHeight="1"/>
-    <row r="681" ht="15.75" customHeight="1"/>
-    <row r="682" ht="15.75" customHeight="1"/>
-    <row r="683" ht="15.75" customHeight="1"/>
-    <row r="684" ht="15.75" customHeight="1"/>
-    <row r="685" ht="15.75" customHeight="1"/>
-    <row r="686" ht="15.75" customHeight="1"/>
-    <row r="687" ht="15.75" customHeight="1"/>
-    <row r="688" ht="15.75" customHeight="1"/>
-    <row r="689" ht="15.75" customHeight="1"/>
-    <row r="690" ht="15.75" customHeight="1"/>
-    <row r="691" ht="15.75" customHeight="1"/>
-    <row r="692" ht="15.75" customHeight="1"/>
-    <row r="693" ht="15.75" customHeight="1"/>
-    <row r="694" ht="15.75" customHeight="1"/>
-    <row r="695" ht="15.75" customHeight="1"/>
-    <row r="696" ht="15.75" customHeight="1"/>
-    <row r="697" ht="15.75" customHeight="1"/>
-    <row r="698" ht="15.75" customHeight="1"/>
-    <row r="699" ht="15.75" customHeight="1"/>
-    <row r="700" ht="15.75" customHeight="1"/>
-    <row r="701" ht="15.75" customHeight="1"/>
-    <row r="702" ht="15.75" customHeight="1"/>
-    <row r="703" ht="15.75" customHeight="1"/>
-    <row r="704" ht="15.75" customHeight="1"/>
-    <row r="705" ht="15.75" customHeight="1"/>
-    <row r="706" ht="15.75" customHeight="1"/>
-    <row r="707" ht="15.75" customHeight="1"/>
-    <row r="708" ht="15.75" customHeight="1"/>
-    <row r="709" ht="15.75" customHeight="1"/>
-    <row r="710" ht="15.75" customHeight="1"/>
-    <row r="711" ht="15.75" customHeight="1"/>
-    <row r="712" ht="15.75" customHeight="1"/>
-    <row r="713" ht="15.75" customHeight="1"/>
-    <row r="714" ht="15.75" customHeight="1"/>
-    <row r="715" ht="15.75" customHeight="1"/>
-    <row r="716" ht="15.75" customHeight="1"/>
-    <row r="717" ht="15.75" customHeight="1"/>
-    <row r="718" ht="15.75" customHeight="1"/>
-    <row r="719" ht="15.75" customHeight="1"/>
-    <row r="720" ht="15.75" customHeight="1"/>
-    <row r="721" ht="15.75" customHeight="1"/>
-    <row r="722" ht="15.75" customHeight="1"/>
-    <row r="723" ht="15.75" customHeight="1"/>
-    <row r="724" ht="15.75" customHeight="1"/>
-    <row r="725" ht="15.75" customHeight="1"/>
-    <row r="726" ht="15.75" customHeight="1"/>
-    <row r="727" ht="15.75" customHeight="1"/>
-    <row r="728" ht="15.75" customHeight="1"/>
-    <row r="729" ht="15.75" customHeight="1"/>
-    <row r="730" ht="15.75" customHeight="1"/>
-    <row r="731" ht="15.75" customHeight="1"/>
-    <row r="732" ht="15.75" customHeight="1"/>
-    <row r="733" ht="15.75" customHeight="1"/>
-    <row r="734" ht="15.75" customHeight="1"/>
-    <row r="735" ht="15.75" customHeight="1"/>
-    <row r="736" ht="15.75" customHeight="1"/>
-    <row r="737" ht="15.75" customHeight="1"/>
-    <row r="738" ht="15.75" customHeight="1"/>
-    <row r="739" ht="15.75" customHeight="1"/>
-    <row r="740" ht="15.75" customHeight="1"/>
-    <row r="741" ht="15.75" customHeight="1"/>
-    <row r="742" ht="15.75" customHeight="1"/>
-    <row r="743" ht="15.75" customHeight="1"/>
-    <row r="744" ht="15.75" customHeight="1"/>
-    <row r="745" ht="15.75" customHeight="1"/>
-    <row r="746" ht="15.75" customHeight="1"/>
-    <row r="747" ht="15.75" customHeight="1"/>
-    <row r="748" ht="15.75" customHeight="1"/>
-    <row r="749" ht="15.75" customHeight="1"/>
-    <row r="750" ht="15.75" customHeight="1"/>
-    <row r="751" ht="15.75" customHeight="1"/>
-    <row r="752" ht="15.75" customHeight="1"/>
-    <row r="753" ht="15.75" customHeight="1"/>
-    <row r="754" ht="15.75" customHeight="1"/>
-    <row r="755" ht="15.75" customHeight="1"/>
-    <row r="756" ht="15.75" customHeight="1"/>
-    <row r="757" ht="15.75" customHeight="1"/>
-    <row r="758" ht="15.75" customHeight="1"/>
-    <row r="759" ht="15.75" customHeight="1"/>
-    <row r="760" ht="15.75" customHeight="1"/>
-    <row r="761" ht="15.75" customHeight="1"/>
-    <row r="762" ht="15.75" customHeight="1"/>
-    <row r="763" ht="15.75" customHeight="1"/>
-    <row r="764" ht="15.75" customHeight="1"/>
-    <row r="765" ht="15.75" customHeight="1"/>
-    <row r="766" ht="15.75" customHeight="1"/>
-    <row r="767" ht="15.75" customHeight="1"/>
-    <row r="768" ht="15.75" customHeight="1"/>
-    <row r="769" ht="15.75" customHeight="1"/>
-    <row r="770" ht="15.75" customHeight="1"/>
-    <row r="771" ht="15.75" customHeight="1"/>
-    <row r="772" ht="15.75" customHeight="1"/>
-    <row r="773" ht="15.75" customHeight="1"/>
-    <row r="774" ht="15.75" customHeight="1"/>
-    <row r="775" ht="15.75" customHeight="1"/>
-    <row r="776" ht="15.75" customHeight="1"/>
-    <row r="777" ht="15.75" customHeight="1"/>
-    <row r="778" ht="15.75" customHeight="1"/>
-    <row r="779" ht="15.75" customHeight="1"/>
-    <row r="780" ht="15.75" customHeight="1"/>
-    <row r="781" ht="15.75" customHeight="1"/>
-    <row r="782" ht="15.75" customHeight="1"/>
-    <row r="783" ht="15.75" customHeight="1"/>
-    <row r="784" ht="15.75" customHeight="1"/>
-    <row r="785" ht="15.75" customHeight="1"/>
-    <row r="786" ht="15.75" customHeight="1"/>
-    <row r="787" ht="15.75" customHeight="1"/>
-    <row r="788" ht="15.75" customHeight="1"/>
-    <row r="789" ht="15.75" customHeight="1"/>
-    <row r="790" ht="15.75" customHeight="1"/>
-    <row r="791" ht="15.75" customHeight="1"/>
-    <row r="792" ht="15.75" customHeight="1"/>
-    <row r="793" ht="15.75" customHeight="1"/>
-    <row r="794" ht="15.75" customHeight="1"/>
-    <row r="795" ht="15.75" customHeight="1"/>
-    <row r="796" ht="15.75" customHeight="1"/>
-    <row r="797" ht="15.75" customHeight="1"/>
-    <row r="798" ht="15.75" customHeight="1"/>
-    <row r="799" ht="15.75" customHeight="1"/>
-    <row r="800" ht="15.75" customHeight="1"/>
-    <row r="801" ht="15.75" customHeight="1"/>
-    <row r="802" ht="15.75" customHeight="1"/>
-    <row r="803" ht="15.75" customHeight="1"/>
-    <row r="804" ht="15.75" customHeight="1"/>
-    <row r="805" ht="15.75" customHeight="1"/>
-    <row r="806" ht="15.75" customHeight="1"/>
-    <row r="807" ht="15.75" customHeight="1"/>
-    <row r="808" ht="15.75" customHeight="1"/>
-    <row r="809" ht="15.75" customHeight="1"/>
-    <row r="810" ht="15.75" customHeight="1"/>
-    <row r="811" ht="15.75" customHeight="1"/>
-    <row r="812" ht="15.75" customHeight="1"/>
-    <row r="813" ht="15.75" customHeight="1"/>
-    <row r="814" ht="15.75" customHeight="1"/>
-    <row r="815" ht="15.75" customHeight="1"/>
-    <row r="816" ht="15.75" customHeight="1"/>
-    <row r="817" ht="15.75" customHeight="1"/>
-    <row r="818" ht="15.75" customHeight="1"/>
-    <row r="819" ht="15.75" customHeight="1"/>
-    <row r="820" ht="15.75" customHeight="1"/>
-    <row r="821" ht="15.75" customHeight="1"/>
-    <row r="822" ht="15.75" customHeight="1"/>
-    <row r="823" ht="15.75" customHeight="1"/>
-    <row r="824" ht="15.75" customHeight="1"/>
-    <row r="825" ht="15.75" customHeight="1"/>
-    <row r="826" ht="15.75" customHeight="1"/>
-    <row r="827" ht="15.75" customHeight="1"/>
-    <row r="828" ht="15.75" customHeight="1"/>
-    <row r="829" ht="15.75" customHeight="1"/>
-    <row r="830" ht="15.75" customHeight="1"/>
-    <row r="831" ht="15.75" customHeight="1"/>
-    <row r="832" ht="15.75" customHeight="1"/>
-    <row r="833" ht="15.75" customHeight="1"/>
-    <row r="834" ht="15.75" customHeight="1"/>
-    <row r="835" ht="15.75" customHeight="1"/>
-    <row r="836" ht="15.75" customHeight="1"/>
-    <row r="837" ht="15.75" customHeight="1"/>
-    <row r="838" ht="15.75" customHeight="1"/>
-    <row r="839" ht="15.75" customHeight="1"/>
-    <row r="840" ht="15.75" customHeight="1"/>
-    <row r="841" ht="15.75" customHeight="1"/>
-    <row r="842" ht="15.75" customHeight="1"/>
-    <row r="843" ht="15.75" customHeight="1"/>
-    <row r="844" ht="15.75" customHeight="1"/>
-    <row r="845" ht="15.75" customHeight="1"/>
-    <row r="846" ht="15.75" customHeight="1"/>
-    <row r="847" ht="15.75" customHeight="1"/>
-    <row r="848" ht="15.75" customHeight="1"/>
-    <row r="849" ht="15.75" customHeight="1"/>
-    <row r="850" ht="15.75" customHeight="1"/>
-    <row r="851" ht="15.75" customHeight="1"/>
-    <row r="852" ht="15.75" customHeight="1"/>
-    <row r="853" ht="15.75" customHeight="1"/>
-    <row r="854" ht="15.75" customHeight="1"/>
-    <row r="855" ht="15.75" customHeight="1"/>
-    <row r="856" ht="15.75" customHeight="1"/>
-    <row r="857" ht="15.75" customHeight="1"/>
-    <row r="858" ht="15.75" customHeight="1"/>
-    <row r="859" ht="15.75" customHeight="1"/>
-    <row r="860" ht="15.75" customHeight="1"/>
-    <row r="861" ht="15.75" customHeight="1"/>
-    <row r="862" ht="15.75" customHeight="1"/>
-    <row r="863" ht="15.75" customHeight="1"/>
-    <row r="864" ht="15.75" customHeight="1"/>
-    <row r="865" ht="15.75" customHeight="1"/>
-    <row r="866" ht="15.75" customHeight="1"/>
-    <row r="867" ht="15.75" customHeight="1"/>
-    <row r="868" ht="15.75" customHeight="1"/>
-    <row r="869" ht="15.75" customHeight="1"/>
-    <row r="870" ht="15.75" customHeight="1"/>
-    <row r="871" ht="15.75" customHeight="1"/>
-    <row r="872" ht="15.75" customHeight="1"/>
-    <row r="873" ht="15.75" customHeight="1"/>
-    <row r="874" ht="15.75" customHeight="1"/>
-    <row r="875" ht="15.75" customHeight="1"/>
-    <row r="876" ht="15.75" customHeight="1"/>
-    <row r="877" ht="15.75" customHeight="1"/>
-    <row r="878" ht="15.75" customHeight="1"/>
-    <row r="879" ht="15.75" customHeight="1"/>
-    <row r="880" ht="15.75" customHeight="1"/>
-    <row r="881" ht="15.75" customHeight="1"/>
-    <row r="882" ht="15.75" customHeight="1"/>
-    <row r="883" ht="15.75" customHeight="1"/>
-    <row r="884" ht="15.75" customHeight="1"/>
-    <row r="885" ht="15.75" customHeight="1"/>
-    <row r="886" ht="15.75" customHeight="1"/>
-    <row r="887" ht="15.75" customHeight="1"/>
-    <row r="888" ht="15.75" customHeight="1"/>
-    <row r="889" ht="15.75" customHeight="1"/>
-    <row r="890" ht="15.75" customHeight="1"/>
-    <row r="891" ht="15.75" customHeight="1"/>
-    <row r="892" ht="15.75" customHeight="1"/>
-    <row r="893" ht="15.75" customHeight="1"/>
-    <row r="894" ht="15.75" customHeight="1"/>
-    <row r="895" ht="15.75" customHeight="1"/>
-    <row r="896" ht="15.75" customHeight="1"/>
-    <row r="897" ht="15.75" customHeight="1"/>
-    <row r="898" ht="15.75" customHeight="1"/>
-    <row r="899" ht="15.75" customHeight="1"/>
-    <row r="900" ht="15.75" customHeight="1"/>
-    <row r="901" ht="15.75" customHeight="1"/>
-    <row r="902" ht="15.75" customHeight="1"/>
-    <row r="903" ht="15.75" customHeight="1"/>
-    <row r="904" ht="15.75" customHeight="1"/>
-    <row r="905" ht="15.75" customHeight="1"/>
-    <row r="906" ht="15.75" customHeight="1"/>
-    <row r="907" ht="15.75" customHeight="1"/>
-    <row r="908" ht="15.75" customHeight="1"/>
-    <row r="909" ht="15.75" customHeight="1"/>
-    <row r="910" ht="15.75" customHeight="1"/>
-    <row r="911" ht="15.75" customHeight="1"/>
-    <row r="912" ht="15.75" customHeight="1"/>
-    <row r="913" ht="15.75" customHeight="1"/>
-    <row r="914" ht="15.75" customHeight="1"/>
-    <row r="915" ht="15.75" customHeight="1"/>
-    <row r="916" ht="15.75" customHeight="1"/>
-    <row r="917" ht="15.75" customHeight="1"/>
-    <row r="918" ht="15.75" customHeight="1"/>
-    <row r="919" ht="15.75" customHeight="1"/>
-    <row r="920" ht="15.75" customHeight="1"/>
-    <row r="921" ht="15.75" customHeight="1"/>
-    <row r="922" ht="15.75" customHeight="1"/>
-    <row r="923" ht="15.75" customHeight="1"/>
-    <row r="924" ht="15.75" customHeight="1"/>
-    <row r="925" ht="15.75" customHeight="1"/>
-    <row r="926" ht="15.75" customHeight="1"/>
-    <row r="927" ht="15.75" customHeight="1"/>
-    <row r="928" ht="15.75" customHeight="1"/>
-    <row r="929" ht="15.75" customHeight="1"/>
-    <row r="930" ht="15.75" customHeight="1"/>
-    <row r="931" ht="15.75" customHeight="1"/>
-    <row r="932" ht="15.75" customHeight="1"/>
-    <row r="933" ht="15.75" customHeight="1"/>
-    <row r="934" ht="15.75" customHeight="1"/>
-    <row r="935" ht="15.75" customHeight="1"/>
-    <row r="936" ht="15.75" customHeight="1"/>
-    <row r="937" ht="15.75" customHeight="1"/>
-    <row r="938" ht="15.75" customHeight="1"/>
-    <row r="939" ht="15.75" customHeight="1"/>
-    <row r="940" ht="15.75" customHeight="1"/>
-    <row r="941" ht="15.75" customHeight="1"/>
-    <row r="942" ht="15.75" customHeight="1"/>
-    <row r="943" ht="15.75" customHeight="1"/>
-    <row r="944" ht="15.75" customHeight="1"/>
-    <row r="945" ht="15.75" customHeight="1"/>
-    <row r="946" ht="15.75" customHeight="1"/>
-    <row r="947" ht="15.75" customHeight="1"/>
-    <row r="948" ht="15.75" customHeight="1"/>
-    <row r="949" ht="15.75" customHeight="1"/>
-    <row r="950" ht="15.75" customHeight="1"/>
-    <row r="951" ht="15.75" customHeight="1"/>
-    <row r="952" ht="15.75" customHeight="1"/>
-    <row r="953" ht="15.75" customHeight="1"/>
-    <row r="954" ht="15.75" customHeight="1"/>
-    <row r="955" ht="15.75" customHeight="1"/>
-    <row r="956" ht="15.75" customHeight="1"/>
-    <row r="957" ht="15.75" customHeight="1"/>
-    <row r="958" ht="15.75" customHeight="1"/>
-    <row r="959" ht="15.75" customHeight="1"/>
-    <row r="960" ht="15.75" customHeight="1"/>
-    <row r="961" ht="15.75" customHeight="1"/>
-    <row r="962" ht="15.75" customHeight="1"/>
-    <row r="963" ht="15.75" customHeight="1"/>
-    <row r="964" ht="15.75" customHeight="1"/>
-    <row r="965" ht="15.75" customHeight="1"/>
-    <row r="966" ht="15.75" customHeight="1"/>
-    <row r="967" ht="15.75" customHeight="1"/>
-    <row r="968" ht="15.75" customHeight="1"/>
-    <row r="969" ht="15.75" customHeight="1"/>
-    <row r="970" ht="15.75" customHeight="1"/>
-    <row r="971" ht="15.75" customHeight="1"/>
-    <row r="972" ht="15.75" customHeight="1"/>
-    <row r="973" ht="15.75" customHeight="1"/>
-    <row r="974" ht="15.75" customHeight="1"/>
-    <row r="975" ht="15.75" customHeight="1"/>
-    <row r="976" ht="15.75" customHeight="1"/>
-    <row r="977" ht="15.75" customHeight="1"/>
-    <row r="978" ht="15.75" customHeight="1"/>
-    <row r="979" ht="15.75" customHeight="1"/>
-    <row r="980" ht="15.75" customHeight="1"/>
-    <row r="981" ht="15.75" customHeight="1"/>
-    <row r="982" ht="15.75" customHeight="1"/>
-    <row r="983" ht="15.75" customHeight="1"/>
-    <row r="984" ht="15.75" customHeight="1"/>
-    <row r="985" ht="15.75" customHeight="1"/>
-    <row r="986" ht="15.75" customHeight="1"/>
-    <row r="987" ht="15.75" customHeight="1"/>
-    <row r="988" ht="15.75" customHeight="1"/>
-    <row r="989" ht="15.75" customHeight="1"/>
-    <row r="990" ht="15.75" customHeight="1"/>
-    <row r="991" ht="15.75" customHeight="1"/>
-    <row r="992" ht="15.75" customHeight="1"/>
-    <row r="993" ht="15.75" customHeight="1"/>
-    <row r="994" ht="15.75" customHeight="1"/>
-    <row r="995" ht="15.75" customHeight="1"/>
-    <row r="996" ht="15.75" customHeight="1"/>
-    <row r="997" ht="15.75" customHeight="1"/>
-    <row r="998" ht="15.75" customHeight="1"/>
-    <row r="999" ht="15.75" customHeight="1"/>
-    <row r="1000" ht="15.75" customHeight="1"/>
+    <row r="8" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A8" s="3"/>
+    </row>
+    <row r="9" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="10" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="11" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="12" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="13" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="14" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="15" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="16" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="17" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="18" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="19" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="20" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="21" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="22" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="24" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="28" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="29" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="30" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="31" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="32" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="33" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="34" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="35" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="36" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="37" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="38" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="39" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="40" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="41" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="42" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="43" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="44" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="45" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="46" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="47" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="48" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="49" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="50" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="51" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="52" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="53" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="54" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="55" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="56" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="57" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="58" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="59" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="60" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="61" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="62" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="63" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="64" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="65" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="66" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="67" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="68" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="69" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="70" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="71" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="72" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="73" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="74" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="75" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="76" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="77" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="78" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="79" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="80" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="81" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="82" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="83" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="84" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="85" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="86" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="87" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="88" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="89" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="90" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="91" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="92" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="93" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="94" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="95" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="96" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="97" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="98" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="99" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="100" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="101" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="102" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="103" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="104" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="105" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="106" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="107" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="108" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="109" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="110" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="111" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="112" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="113" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="114" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="115" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="116" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="117" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="118" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="119" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="120" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="121" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="122" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="123" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="124" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="125" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="126" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="127" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="128" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="129" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="130" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="131" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="132" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="133" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="134" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="135" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="136" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="137" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="138" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="139" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="140" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="141" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="142" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="143" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="144" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="145" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="146" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="147" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="148" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="149" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="150" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="151" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="152" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="153" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="154" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="155" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="156" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="157" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="158" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="159" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="160" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="161" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="162" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="163" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="164" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="165" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="166" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="167" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="168" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="169" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="170" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="171" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="172" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="173" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="174" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="175" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="176" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="177" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="178" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="179" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="180" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="181" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="182" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="183" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="184" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="185" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="186" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="187" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="188" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="189" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="190" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="191" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="192" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="193" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="194" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="195" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="196" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="197" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="198" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="199" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="200" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="201" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="202" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="203" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="204" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="205" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="206" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="207" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="208" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="209" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="210" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="211" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="212" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="213" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="214" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="215" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="216" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="217" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="218" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="219" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="220" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="221" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="222" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="223" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="224" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="225" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="226" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="227" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="228" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="229" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="230" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="231" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="232" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="233" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="234" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="235" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="236" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="237" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="238" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="239" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="240" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="241" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="242" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="243" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="244" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="245" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="246" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="247" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="248" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="249" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="250" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="251" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="252" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="253" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="254" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="255" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="256" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="257" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="258" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="259" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="260" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="261" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="262" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="263" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="264" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="265" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="266" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="267" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="268" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="269" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="270" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="271" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="272" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="273" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="274" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="275" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="276" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="277" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="278" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="279" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="280" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="281" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="282" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="283" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="284" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="285" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="286" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="287" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="288" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="289" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="290" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="291" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="292" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="293" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="294" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="295" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="296" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="297" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="298" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="299" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="300" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="301" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="302" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="303" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="304" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="305" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="306" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="307" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="308" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="309" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="310" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="311" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="312" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="313" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="314" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="315" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="316" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="317" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="318" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="319" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="320" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="321" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="322" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="323" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="324" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="325" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="326" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="327" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="328" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="329" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="330" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="331" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="332" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="333" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="334" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="335" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="336" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="337" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="338" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="339" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="340" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="341" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="342" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="343" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="344" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="345" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="346" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="347" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="348" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="349" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="350" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="351" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="352" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="353" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="354" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="355" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="356" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="357" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="358" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="359" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="360" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="361" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="362" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="363" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="364" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="365" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="366" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="367" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="368" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="369" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="370" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="371" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="372" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="373" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="374" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="375" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="376" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="377" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="378" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="379" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="380" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="381" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="382" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="383" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="384" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="385" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="386" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="387" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="388" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="389" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="390" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="391" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="392" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="393" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="394" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="395" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="396" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="397" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="398" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="399" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="400" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="401" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="402" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="403" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="404" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="405" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="406" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="407" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="408" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="409" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="410" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="411" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="412" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="413" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="414" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="415" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="416" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="417" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="418" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="419" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="420" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="421" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="422" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="423" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="424" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="425" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="426" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="427" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="428" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="429" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="430" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="431" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="432" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="433" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="434" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="435" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="436" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="437" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="438" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="439" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="440" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="441" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="442" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="443" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="444" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="445" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="446" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="447" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="448" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="449" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="450" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="451" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="452" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="453" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="454" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="455" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="456" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="457" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="458" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="459" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="460" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="461" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="462" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="463" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="464" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="465" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="466" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="467" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="468" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="469" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="470" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="471" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="472" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="473" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="474" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="475" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="476" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="477" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="478" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="479" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="480" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="481" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="482" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="483" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="484" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="485" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="486" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="487" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="488" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="489" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="490" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="491" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="492" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="493" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="494" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="495" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="496" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="497" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="498" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="499" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="500" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="501" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="502" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="503" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="504" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="505" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="506" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="507" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="508" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="509" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="510" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="511" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="512" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="513" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="514" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="515" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="516" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="517" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="518" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="519" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="520" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="521" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="522" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="523" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="524" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="525" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="526" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="527" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="528" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="529" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="530" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="531" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="532" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="533" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="534" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="535" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="536" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="537" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="538" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="539" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="540" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="541" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="542" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="543" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="544" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="545" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="546" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="547" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="548" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="549" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="550" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="551" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="552" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="553" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="554" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="555" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="556" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="557" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="558" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="559" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="560" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="561" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="562" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="563" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="564" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="565" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="566" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="567" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="568" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="569" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="570" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="571" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="572" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="573" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="574" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="575" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="576" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="577" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="578" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="579" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="580" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="581" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="582" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="583" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="584" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="585" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="586" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="587" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="588" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="589" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="590" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="591" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="592" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="593" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="594" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="595" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="596" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="597" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="598" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="599" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="600" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="601" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="602" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="603" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="604" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="605" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="606" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="607" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="608" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="609" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="610" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="611" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="612" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="613" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="614" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="615" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="616" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="617" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="618" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="619" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="620" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="621" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="622" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="623" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="624" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="625" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="626" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="627" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="628" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="629" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="630" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="631" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="632" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="633" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="634" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="635" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="636" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="637" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="638" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="639" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="640" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="641" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="642" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="643" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="644" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="645" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="646" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="647" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="648" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="649" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="650" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="651" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="652" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="653" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="654" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="655" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="656" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="657" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="658" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="659" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="660" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="661" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="662" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="663" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="664" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="665" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="666" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="667" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="668" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="669" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="670" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="671" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="672" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="673" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="674" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="675" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="676" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="677" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="678" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="679" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="680" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="681" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="682" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="683" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="684" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="685" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="686" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="687" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="688" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="689" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="690" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="691" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="692" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="693" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="694" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="695" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="696" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="697" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="698" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="699" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="700" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="701" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="702" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="703" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="704" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="705" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="706" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="707" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="708" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="709" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="710" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="711" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="712" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="713" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="714" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="715" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="716" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="717" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="718" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="719" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="720" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="721" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="722" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="723" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="724" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="725" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="726" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="727" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="728" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="729" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="730" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="731" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="732" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="733" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="734" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="735" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="736" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="737" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="738" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="739" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="740" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="741" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="742" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="743" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="744" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="745" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="746" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="747" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="748" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="749" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="750" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="751" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="752" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="753" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="754" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="755" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="756" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="757" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="758" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="759" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="760" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="761" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="762" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="763" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="764" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="765" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="766" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="767" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="768" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="769" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="770" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="771" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="772" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="773" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="774" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="775" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="776" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="777" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="778" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="779" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="780" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="781" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="782" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="783" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="784" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="785" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="786" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="787" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="788" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="789" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="790" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="791" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="792" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="793" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="794" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="795" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="796" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="797" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="798" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="799" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="800" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="801" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="802" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="803" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="804" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="805" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="806" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="807" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="808" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="809" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="810" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="811" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="812" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="813" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="814" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="815" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="816" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="817" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="818" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="819" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="820" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="821" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="822" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="823" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="824" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="825" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="826" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="827" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="828" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="829" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="830" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="831" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="832" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="833" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="834" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="835" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="836" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="837" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="838" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="839" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="840" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="841" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="842" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="843" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="844" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="845" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="846" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="847" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="848" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="849" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="850" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="851" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="852" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="853" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="854" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="855" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="856" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="857" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="858" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="859" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="860" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="861" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="862" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="863" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="864" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="865" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="866" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="867" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="868" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="869" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="870" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="871" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="872" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="873" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="874" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="875" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="876" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="877" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="878" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="879" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="880" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="881" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="882" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="883" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="884" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="885" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="886" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="887" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="888" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="889" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="890" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="891" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="892" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="893" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="894" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="895" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="896" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="897" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="898" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="899" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="900" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="901" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="902" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="903" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="904" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="905" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="906" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="907" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="908" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="909" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="910" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="911" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="912" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="913" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="914" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="915" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="916" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="917" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="918" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="919" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="920" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="921" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="922" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="923" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="924" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="925" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="926" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="927" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="928" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="929" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="930" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="931" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="932" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="933" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="934" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="935" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="936" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="937" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="938" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="939" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="940" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="941" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="942" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="943" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="944" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="945" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="946" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="947" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="948" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="949" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="950" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="951" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="952" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="953" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="954" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="955" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="956" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="957" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="958" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="959" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="960" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="961" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="962" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="963" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="964" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="965" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="966" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="967" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="968" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="969" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="970" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="971" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="972" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="973" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="974" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="975" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="976" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="977" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="978" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="979" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="980" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="981" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="982" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="983" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="984" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="985" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="986" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="987" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="988" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="989" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="990" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="991" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="992" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="993" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="994" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="995" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="996" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="997" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="998" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="999" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="1000" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
   </sheetData>
-  <printOptions/>
-  <pageMargins bottom="0.75" footer="0.0" header="0.0" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
   <pageSetup orientation="landscape"/>
-  <drawing r:id="rId1"/>
 </worksheet>
 </file>
--- a/public/Importer Blank.xlsx
+++ b/public/Importer Blank.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\disne\Desktop\Dev\apt8\rowprop\public\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F284EC11-C930-4C0E-9AB3-FC955F5B0059}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E4DFA8B5-5D01-47FE-8919-78378A65383D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="33375" yWindow="2730" windowWidth="27630" windowHeight="15660" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="570" yWindow="1365" windowWidth="27630" windowHeight="15660" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="22">
   <si>
     <t>Label</t>
   </si>
@@ -63,9 +63,6 @@
     <t>datetime</t>
   </si>
   <si>
-    <t>enumeration</t>
-  </si>
-  <si>
     <t>Object Types</t>
   </si>
   <si>
@@ -84,22 +81,22 @@
     <t>calculation_equation</t>
   </si>
   <si>
-    <t>checkbox</t>
-  </si>
-  <si>
     <t>0-2</t>
   </si>
   <si>
     <t>textarea</t>
   </si>
   <si>
-    <t>radio</t>
+    <t>html</t>
   </si>
   <si>
-    <t>select</t>
+    <t>0-3</t>
   </si>
   <si>
-    <t>html</t>
+    <t>0-5</t>
+  </si>
+  <si>
+    <t>0-7</t>
   </si>
 </sst>
 </file>
@@ -391,7 +388,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C5" sqref="C5"/>
+      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -5420,8 +5417,8 @@
     <row r="1000" spans="3:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
   </sheetData>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="C2:C999" xr:uid="{00000000-0002-0000-0000-000000000000}">
-      <formula1>"bool,date,dateTime,string,number,enumeration"</formula1>
+    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="C2:C1048576" xr:uid="{254D56D3-C271-4FB6-942B-1FAAE583C3D6}">
+      <formula1>"bool,date,dateTime,string,number"</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
@@ -5429,12 +5426,6 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
       <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="3">
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="0-1 is Contacts, 0-2 is Companies" xr:uid="{00000000-0002-0000-0000-000001000000}">
-          <x14:formula1>
-            <xm:f>Choices!$I$2:$I$13</xm:f>
-          </x14:formula1>
-          <xm:sqref>F2:F999</xm:sqref>
-        </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0000-000002000000}">
           <x14:formula1>
             <xm:f>Choices!$A$2:$F$6</xm:f>
@@ -5446,6 +5437,12 @@
             <xm:f>Choices!$A$2:$A$7</xm:f>
           </x14:formula1>
           <xm:sqref>D2</xm:sqref>
+        </x14:dataValidation>
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="0-1 is Contacts, 0-2 is Companies, 0-3 is Deals, 0-5 is Tickets, 0-7 is Products" xr:uid="{D179B74A-A6F8-4F28-A57D-3E1FC5855CB5}">
+          <x14:formula1>
+            <xm:f>Choices!$I$2:$I$13</xm:f>
+          </x14:formula1>
+          <xm:sqref>F2:F1048576</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>
@@ -5461,7 +5458,7 @@
   <dimension ref="A1:I1000"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A8" sqref="A8"/>
+      <selection activeCell="I7" sqref="I7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -5471,7 +5468,7 @@
   <sheetData>
     <row r="1" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>6</v>
@@ -5485,22 +5482,20 @@
       <c r="E1" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="F1" s="1"/>
+      <c r="I1" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="I1" s="1" t="s">
-        <v>11</v>
-      </c>
     </row>
     <row r="2" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>6</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D2" s="1" t="s">
         <v>8</v>
@@ -5508,59 +5503,58 @@
       <c r="E2" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="F2" s="1" t="s">
+      <c r="F2" s="1"/>
+      <c r="I2" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="I2" s="1" t="s">
+    </row>
+    <row r="3" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="1" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="3" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="1" t="s">
+      <c r="B3" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="B3" s="1" t="s">
+      <c r="C3" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="F3" s="1"/>
+      <c r="I3" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="C3" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="F3" s="1" t="s">
+    </row>
+    <row r="4" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="I3" s="1" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="1" t="s">
+      <c r="F4" s="1"/>
+      <c r="I4" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="F4" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="I4" s="1"/>
     </row>
     <row r="5" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="F5" s="1" t="s">
-        <v>21</v>
+      <c r="F5" s="1"/>
+      <c r="I5" s="3" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="6" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
-      <c r="F6" s="1" t="s">
-        <v>16</v>
+      <c r="F6" s="1"/>
+      <c r="I6" s="3" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="7" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="3" t="s">
         <v>6</v>
       </c>
+      <c r="I7" s="3"/>
     </row>
     <row r="8" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="3"/>

--- a/public/Importer Blank.xlsx
+++ b/public/Importer Blank.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\disne\Desktop\Dev\apt8\rowprop\public\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E4DFA8B5-5D01-47FE-8919-78378A65383D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EC667DA5-CC36-438A-B001-C4A5A24B370C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="570" yWindow="1365" windowWidth="27630" windowHeight="15660" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="37515" yWindow="1530" windowWidth="27630" windowHeight="15660" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -388,7 +388,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
+      <selection pane="bottomLeft" activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>

--- a/public/Importer Blank.xlsx
+++ b/public/Importer Blank.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\disne\Desktop\Dev\apt8\rowprop\public\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EC667DA5-CC36-438A-B001-C4A5A24B370C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{156EE4B6-74D9-45E1-8A8C-60A5242FE50D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="37515" yWindow="1530" windowWidth="27630" windowHeight="15660" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="810" yWindow="1035" windowWidth="27630" windowHeight="15660" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -388,7 +388,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F2" sqref="F2"/>
+      <selection pane="bottomLeft" activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -5425,24 +5425,18 @@
   <pageSetup orientation="landscape"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
-      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="3">
-        <x14:dataValidation type="list" allowBlank="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0000-000002000000}">
-          <x14:formula1>
-            <xm:f>Choices!$A$2:$F$6</xm:f>
-          </x14:formula1>
-          <xm:sqref>D3:D999</xm:sqref>
-        </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showErrorMessage="1" xr:uid="{69217560-4B8A-4C43-AD53-29EF408DEC98}">
-          <x14:formula1>
-            <xm:f>Choices!$A$2:$A$7</xm:f>
-          </x14:formula1>
-          <xm:sqref>D2</xm:sqref>
-        </x14:dataValidation>
+      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="2">
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="0-1 is Contacts, 0-2 is Companies, 0-3 is Deals, 0-5 is Tickets, 0-7 is Products" xr:uid="{D179B74A-A6F8-4F28-A57D-3E1FC5855CB5}">
           <x14:formula1>
             <xm:f>Choices!$I$2:$I$13</xm:f>
           </x14:formula1>
           <xm:sqref>F2:F1048576</xm:sqref>
+        </x14:dataValidation>
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{3BD10885-0493-4328-B47A-8DB6A76989E8}">
+          <x14:formula1>
+            <xm:f>Choices!$A$2:$A$7</xm:f>
+          </x14:formula1>
+          <xm:sqref>D2:D1048576</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>

--- a/public/Importer Blank.xlsx
+++ b/public/Importer Blank.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\disne\Desktop\Dev\apt8\rowprop\public\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{156EE4B6-74D9-45E1-8A8C-60A5242FE50D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9BAE1189-F1BA-48EC-A071-2BF88BCA54EC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="810" yWindow="1035" windowWidth="27630" windowHeight="15660" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -388,7 +388,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D6" sqref="D6"/>
+      <selection pane="bottomLeft" activeCell="C2" sqref="C2:C1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -5418,7 +5418,7 @@
   </sheetData>
   <dataValidations count="1">
     <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="C2:C1048576" xr:uid="{254D56D3-C271-4FB6-942B-1FAAE583C3D6}">
-      <formula1>"bool,date,dateTime,string,number"</formula1>
+      <formula1>"bool,date,datetime,string,number"</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>

--- a/public/Importer Blank.xlsx
+++ b/public/Importer Blank.xlsx
@@ -5,24 +5,36 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\disne\Desktop\Dev\apt8\rowprop\public\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\disne\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9BAE1189-F1BA-48EC-A071-2BF88BCA54EC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1AB5A207-C080-4357-83D1-2ACE65C59E29}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="810" yWindow="1035" windowWidth="27630" windowHeight="15660" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="30735" yWindow="945" windowWidth="27630" windowHeight="15660" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Properties" sheetId="1" r:id="rId1"/>
     <sheet name="Choices" sheetId="2" r:id="rId2"/>
+    <sheet name="Enumerations" sheetId="3" r:id="rId3"/>
   </sheets>
   <definedNames>
     <definedName name="bool">Choices!$C$2:$C$3</definedName>
     <definedName name="number">Choices!$B$2:$B$3</definedName>
     <definedName name="string">Choices!$A$2:$A$6</definedName>
   </definedNames>
-  <calcPr calcId="0"/>
+  <calcPr calcId="191029"/>
   <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
     <ext uri="GoogleSheetsCustomDataVersion1">
       <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" r:id="rId6" roundtripDataSignature="AMtx7miCP7IxDNy1uyQw5E1xel5C+7mLxQ=="/>
     </ext>
@@ -31,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="29">
   <si>
     <t>Label</t>
   </si>
@@ -98,12 +110,33 @@
   <si>
     <t>0-7</t>
   </si>
+  <si>
+    <t>enumeration</t>
+  </si>
+  <si>
+    <t>select</t>
+  </si>
+  <si>
+    <t>checkbox</t>
+  </si>
+  <si>
+    <t>radio</t>
+  </si>
+  <si>
+    <t>Property</t>
+  </si>
+  <si>
+    <t>Value</t>
+  </si>
+  <si>
+    <t>Description</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -126,8 +159,29 @@
       <name val="Arial"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -138,6 +192,12 @@
       <patternFill patternType="solid">
         <fgColor theme="0"/>
         <bgColor theme="0"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
@@ -160,12 +220,15 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -388,7 +451,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C2" sqref="C2:C1048576"/>
+      <selection pane="bottomLeft" activeCell="H4" sqref="H4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -417,10 +480,10 @@
       </c>
     </row>
     <row r="2" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="3"/>
+      <c r="A2" s="6"/>
       <c r="C2" s="3"/>
       <c r="D2" s="3"/>
-      <c r="E2" s="3"/>
+      <c r="E2" s="6"/>
       <c r="F2" s="3"/>
     </row>
     <row r="3" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -5418,7 +5481,7 @@
   </sheetData>
   <dataValidations count="1">
     <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="C2:C1048576" xr:uid="{254D56D3-C271-4FB6-942B-1FAAE583C3D6}">
-      <formula1>"bool,date,datetime,string,number"</formula1>
+      <formula1>"bool,date,datetime,string,number, enumeration"</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
@@ -5434,7 +5497,7 @@
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{3BD10885-0493-4328-B47A-8DB6A76989E8}">
           <x14:formula1>
-            <xm:f>Choices!$A$2:$A$7</xm:f>
+            <xm:f>Choices!$A$2:$A$10</xm:f>
           </x14:formula1>
           <xm:sqref>D2:D1048576</xm:sqref>
         </x14:dataValidation>
@@ -5452,7 +5515,7 @@
   <dimension ref="A1:I1000"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I7" sqref="I7"/>
+      <selection activeCell="D19" sqref="D19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -5476,7 +5539,9 @@
       <c r="E1" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="F1" s="1"/>
+      <c r="F1" s="1" t="s">
+        <v>22</v>
+      </c>
       <c r="I1" s="1" t="s">
         <v>10</v>
       </c>
@@ -5497,7 +5562,9 @@
       <c r="E2" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="F2" s="1"/>
+      <c r="F2" s="1" t="s">
+        <v>23</v>
+      </c>
       <c r="I2" s="1" t="s">
         <v>13</v>
       </c>
@@ -5512,7 +5579,9 @@
       <c r="C3" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="F3" s="1"/>
+      <c r="F3" s="1" t="s">
+        <v>24</v>
+      </c>
       <c r="I3" s="1" t="s">
         <v>16</v>
       </c>
@@ -5521,7 +5590,9 @@
       <c r="A4" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="F4" s="1"/>
+      <c r="F4" s="1" t="s">
+        <v>25</v>
+      </c>
       <c r="I4" s="1" t="s">
         <v>19</v>
       </c>
@@ -5551,10 +5622,20 @@
       <c r="I7" s="3"/>
     </row>
     <row r="8" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="3"/>
-    </row>
-    <row r="9" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="10" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+      <c r="A8" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A9" s="1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A10" s="1" t="s">
+        <v>25</v>
+      </c>
+    </row>
     <row r="11" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="12" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="13" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -6549,4 +6630,7312 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
   <pageSetup orientation="landscape"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D67BB6F5-1F94-4862-9D4C-049985B2542C}">
+  <dimension ref="A1:D1219"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C15" sqref="C15"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="18.140625" customWidth="1"/>
+    <col min="2" max="2" width="32.85546875" customWidth="1"/>
+    <col min="3" max="3" width="42" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="B1" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="D1" s="5" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B2" s="7"/>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A3" s="7"/>
+      <c r="B3" s="7"/>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="C11" t="str">
+        <f t="shared" ref="C3:C66" si="0">LOWER(SUBSTITUTE(B11," ", "_"))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="C12" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="C13" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="C14" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="C15" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="C16" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="17" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C17" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="18" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C18" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="19" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C19" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="20" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C20" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="21" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C21" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="22" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C22" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="23" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C23" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="24" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C24" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="25" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C25" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="26" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C26" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="27" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C27" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="28" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C28" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="29" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C29" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="30" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C30" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="31" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C31" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="32" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C32" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="33" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C33" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="34" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C34" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="35" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C35" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="36" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C36" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="37" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C37" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="38" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C38" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="39" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C39" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="40" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C40" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="41" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C41" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="42" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C42" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="43" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C43" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="44" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C44" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="45" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C45" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="46" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C46" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="47" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C47" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="48" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C48" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="49" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C49" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="50" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C50" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="51" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C51" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="52" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C52" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="53" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C53" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="54" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C54" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="55" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C55" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="56" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C56" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="57" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C57" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="58" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C58" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="59" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C59" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="60" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C60" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="61" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C61" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="62" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C62" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="63" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C63" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="64" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C64" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="65" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C65" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="66" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C66" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="67" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C67" t="str">
+        <f t="shared" ref="C67:C130" si="1">LOWER(SUBSTITUTE(B67," ", "_"))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="68" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C68" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="69" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C69" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="70" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C70" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="71" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C71" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="72" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C72" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="73" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C73" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="74" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C74" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="75" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C75" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="76" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C76" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="77" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C77" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="78" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C78" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="79" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C79" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="80" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C80" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="81" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C81" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="82" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C82" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="83" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C83" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="84" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C84" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="85" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C85" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="86" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C86" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="87" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C87" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="88" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C88" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="89" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C89" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="90" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C90" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="91" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C91" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="92" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C92" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="93" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C93" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="94" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C94" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="95" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C95" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="96" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C96" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="97" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C97" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="98" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C98" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="99" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C99" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="100" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C100" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="101" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C101" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="102" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C102" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="103" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C103" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="104" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C104" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="105" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C105" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="106" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C106" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="107" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C107" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="108" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C108" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="109" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C109" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="110" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C110" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="111" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C111" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="112" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C112" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="113" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C113" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="114" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C114" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="115" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C115" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="116" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C116" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="117" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C117" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="118" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C118" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="119" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C119" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="120" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C120" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="121" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C121" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="122" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C122" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="123" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C123" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="124" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C124" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="125" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C125" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="126" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C126" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="127" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C127" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="128" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C128" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="129" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C129" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="130" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C130" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="131" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C131" t="str">
+        <f t="shared" ref="C131:C194" si="2">LOWER(SUBSTITUTE(B131," ", "_"))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="132" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C132" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+    </row>
+    <row r="133" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C133" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+    </row>
+    <row r="134" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C134" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+    </row>
+    <row r="135" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C135" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+    </row>
+    <row r="136" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C136" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+    </row>
+    <row r="137" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C137" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+    </row>
+    <row r="138" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C138" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+    </row>
+    <row r="139" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C139" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+    </row>
+    <row r="140" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C140" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+    </row>
+    <row r="141" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C141" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+    </row>
+    <row r="142" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C142" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+    </row>
+    <row r="143" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C143" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+    </row>
+    <row r="144" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C144" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+    </row>
+    <row r="145" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C145" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+    </row>
+    <row r="146" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C146" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+    </row>
+    <row r="147" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C147" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+    </row>
+    <row r="148" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C148" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+    </row>
+    <row r="149" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C149" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+    </row>
+    <row r="150" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C150" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+    </row>
+    <row r="151" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C151" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+    </row>
+    <row r="152" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C152" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+    </row>
+    <row r="153" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C153" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+    </row>
+    <row r="154" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C154" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+    </row>
+    <row r="155" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C155" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+    </row>
+    <row r="156" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C156" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+    </row>
+    <row r="157" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C157" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+    </row>
+    <row r="158" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C158" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+    </row>
+    <row r="159" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C159" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+    </row>
+    <row r="160" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C160" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+    </row>
+    <row r="161" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C161" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+    </row>
+    <row r="162" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C162" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+    </row>
+    <row r="163" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C163" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+    </row>
+    <row r="164" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C164" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+    </row>
+    <row r="165" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C165" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+    </row>
+    <row r="166" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C166" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+    </row>
+    <row r="167" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C167" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+    </row>
+    <row r="168" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C168" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+    </row>
+    <row r="169" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C169" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+    </row>
+    <row r="170" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C170" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+    </row>
+    <row r="171" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C171" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+    </row>
+    <row r="172" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C172" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+    </row>
+    <row r="173" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C173" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+    </row>
+    <row r="174" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C174" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+    </row>
+    <row r="175" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C175" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+    </row>
+    <row r="176" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C176" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+    </row>
+    <row r="177" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C177" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+    </row>
+    <row r="178" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C178" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+    </row>
+    <row r="179" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C179" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+    </row>
+    <row r="180" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C180" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+    </row>
+    <row r="181" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C181" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+    </row>
+    <row r="182" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C182" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+    </row>
+    <row r="183" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C183" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+    </row>
+    <row r="184" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C184" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+    </row>
+    <row r="185" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C185" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+    </row>
+    <row r="186" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C186" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+    </row>
+    <row r="187" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C187" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+    </row>
+    <row r="188" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C188" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+    </row>
+    <row r="189" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C189" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+    </row>
+    <row r="190" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C190" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+    </row>
+    <row r="191" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C191" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+    </row>
+    <row r="192" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C192" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+    </row>
+    <row r="193" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C193" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+    </row>
+    <row r="194" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C194" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+    </row>
+    <row r="195" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C195" t="str">
+        <f t="shared" ref="C195:C258" si="3">LOWER(SUBSTITUTE(B195," ", "_"))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="196" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C196" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+    </row>
+    <row r="197" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C197" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+    </row>
+    <row r="198" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C198" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+    </row>
+    <row r="199" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C199" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+    </row>
+    <row r="200" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C200" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+    </row>
+    <row r="201" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C201" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+    </row>
+    <row r="202" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C202" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+    </row>
+    <row r="203" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C203" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+    </row>
+    <row r="204" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C204" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+    </row>
+    <row r="205" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C205" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+    </row>
+    <row r="206" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C206" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+    </row>
+    <row r="207" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C207" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+    </row>
+    <row r="208" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C208" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+    </row>
+    <row r="209" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C209" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+    </row>
+    <row r="210" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C210" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+    </row>
+    <row r="211" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C211" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+    </row>
+    <row r="212" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C212" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+    </row>
+    <row r="213" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C213" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+    </row>
+    <row r="214" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C214" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+    </row>
+    <row r="215" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C215" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+    </row>
+    <row r="216" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C216" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+    </row>
+    <row r="217" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C217" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+    </row>
+    <row r="218" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C218" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+    </row>
+    <row r="219" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C219" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+    </row>
+    <row r="220" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C220" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+    </row>
+    <row r="221" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C221" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+    </row>
+    <row r="222" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C222" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+    </row>
+    <row r="223" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C223" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+    </row>
+    <row r="224" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C224" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+    </row>
+    <row r="225" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C225" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+    </row>
+    <row r="226" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C226" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+    </row>
+    <row r="227" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C227" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+    </row>
+    <row r="228" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C228" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+    </row>
+    <row r="229" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C229" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+    </row>
+    <row r="230" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C230" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+    </row>
+    <row r="231" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C231" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+    </row>
+    <row r="232" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C232" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+    </row>
+    <row r="233" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C233" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+    </row>
+    <row r="234" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C234" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+    </row>
+    <row r="235" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C235" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+    </row>
+    <row r="236" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C236" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+    </row>
+    <row r="237" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C237" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+    </row>
+    <row r="238" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C238" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+    </row>
+    <row r="239" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C239" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+    </row>
+    <row r="240" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C240" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+    </row>
+    <row r="241" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C241" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+    </row>
+    <row r="242" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C242" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+    </row>
+    <row r="243" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C243" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+    </row>
+    <row r="244" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C244" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+    </row>
+    <row r="245" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C245" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+    </row>
+    <row r="246" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C246" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+    </row>
+    <row r="247" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C247" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+    </row>
+    <row r="248" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C248" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+    </row>
+    <row r="249" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C249" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+    </row>
+    <row r="250" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C250" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+    </row>
+    <row r="251" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C251" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+    </row>
+    <row r="252" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C252" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+    </row>
+    <row r="253" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C253" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+    </row>
+    <row r="254" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C254" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+    </row>
+    <row r="255" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C255" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+    </row>
+    <row r="256" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C256" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+    </row>
+    <row r="257" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C257" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+    </row>
+    <row r="258" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C258" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+    </row>
+    <row r="259" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C259" t="str">
+        <f t="shared" ref="C259:C322" si="4">LOWER(SUBSTITUTE(B259," ", "_"))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="260" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C260" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+    </row>
+    <row r="261" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C261" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+    </row>
+    <row r="262" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C262" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+    </row>
+    <row r="263" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C263" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+    </row>
+    <row r="264" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C264" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+    </row>
+    <row r="265" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C265" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+    </row>
+    <row r="266" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C266" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+    </row>
+    <row r="267" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C267" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+    </row>
+    <row r="268" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C268" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+    </row>
+    <row r="269" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C269" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+    </row>
+    <row r="270" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C270" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+    </row>
+    <row r="271" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C271" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+    </row>
+    <row r="272" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C272" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+    </row>
+    <row r="273" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C273" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+    </row>
+    <row r="274" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C274" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+    </row>
+    <row r="275" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C275" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+    </row>
+    <row r="276" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C276" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+    </row>
+    <row r="277" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C277" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+    </row>
+    <row r="278" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C278" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+    </row>
+    <row r="279" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C279" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+    </row>
+    <row r="280" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C280" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+    </row>
+    <row r="281" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C281" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+    </row>
+    <row r="282" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C282" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+    </row>
+    <row r="283" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C283" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+    </row>
+    <row r="284" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C284" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+    </row>
+    <row r="285" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C285" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+    </row>
+    <row r="286" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C286" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+    </row>
+    <row r="287" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C287" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+    </row>
+    <row r="288" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C288" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+    </row>
+    <row r="289" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C289" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+    </row>
+    <row r="290" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C290" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+    </row>
+    <row r="291" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C291" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+    </row>
+    <row r="292" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C292" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+    </row>
+    <row r="293" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C293" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+    </row>
+    <row r="294" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C294" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+    </row>
+    <row r="295" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C295" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+    </row>
+    <row r="296" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C296" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+    </row>
+    <row r="297" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C297" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+    </row>
+    <row r="298" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C298" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+    </row>
+    <row r="299" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C299" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+    </row>
+    <row r="300" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C300" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+    </row>
+    <row r="301" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C301" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+    </row>
+    <row r="302" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C302" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+    </row>
+    <row r="303" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C303" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+    </row>
+    <row r="304" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C304" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+    </row>
+    <row r="305" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C305" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+    </row>
+    <row r="306" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C306" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+    </row>
+    <row r="307" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C307" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+    </row>
+    <row r="308" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C308" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+    </row>
+    <row r="309" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C309" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+    </row>
+    <row r="310" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C310" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+    </row>
+    <row r="311" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C311" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+    </row>
+    <row r="312" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C312" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+    </row>
+    <row r="313" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C313" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+    </row>
+    <row r="314" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C314" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+    </row>
+    <row r="315" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C315" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+    </row>
+    <row r="316" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C316" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+    </row>
+    <row r="317" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C317" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+    </row>
+    <row r="318" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C318" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+    </row>
+    <row r="319" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C319" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+    </row>
+    <row r="320" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C320" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+    </row>
+    <row r="321" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C321" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+    </row>
+    <row r="322" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C322" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+    </row>
+    <row r="323" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C323" t="str">
+        <f t="shared" ref="C323:C386" si="5">LOWER(SUBSTITUTE(B323," ", "_"))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="324" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C324" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+    </row>
+    <row r="325" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C325" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+    </row>
+    <row r="326" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C326" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+    </row>
+    <row r="327" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C327" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+    </row>
+    <row r="328" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C328" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+    </row>
+    <row r="329" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C329" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+    </row>
+    <row r="330" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C330" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+    </row>
+    <row r="331" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C331" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+    </row>
+    <row r="332" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C332" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+    </row>
+    <row r="333" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C333" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+    </row>
+    <row r="334" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C334" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+    </row>
+    <row r="335" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C335" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+    </row>
+    <row r="336" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C336" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+    </row>
+    <row r="337" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C337" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+    </row>
+    <row r="338" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C338" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+    </row>
+    <row r="339" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C339" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+    </row>
+    <row r="340" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C340" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+    </row>
+    <row r="341" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C341" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+    </row>
+    <row r="342" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C342" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+    </row>
+    <row r="343" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C343" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+    </row>
+    <row r="344" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C344" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+    </row>
+    <row r="345" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C345" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+    </row>
+    <row r="346" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C346" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+    </row>
+    <row r="347" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C347" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+    </row>
+    <row r="348" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C348" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+    </row>
+    <row r="349" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C349" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+    </row>
+    <row r="350" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C350" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+    </row>
+    <row r="351" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C351" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+    </row>
+    <row r="352" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C352" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+    </row>
+    <row r="353" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C353" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+    </row>
+    <row r="354" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C354" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+    </row>
+    <row r="355" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C355" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+    </row>
+    <row r="356" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C356" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+    </row>
+    <row r="357" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C357" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+    </row>
+    <row r="358" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C358" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+    </row>
+    <row r="359" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C359" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+    </row>
+    <row r="360" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C360" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+    </row>
+    <row r="361" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C361" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+    </row>
+    <row r="362" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C362" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+    </row>
+    <row r="363" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C363" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+    </row>
+    <row r="364" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C364" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+    </row>
+    <row r="365" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C365" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+    </row>
+    <row r="366" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C366" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+    </row>
+    <row r="367" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C367" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+    </row>
+    <row r="368" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C368" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+    </row>
+    <row r="369" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C369" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+    </row>
+    <row r="370" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C370" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+    </row>
+    <row r="371" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C371" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+    </row>
+    <row r="372" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C372" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+    </row>
+    <row r="373" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C373" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+    </row>
+    <row r="374" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C374" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+    </row>
+    <row r="375" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C375" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+    </row>
+    <row r="376" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C376" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+    </row>
+    <row r="377" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C377" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+    </row>
+    <row r="378" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C378" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+    </row>
+    <row r="379" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C379" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+    </row>
+    <row r="380" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C380" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+    </row>
+    <row r="381" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C381" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+    </row>
+    <row r="382" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C382" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+    </row>
+    <row r="383" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C383" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+    </row>
+    <row r="384" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C384" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+    </row>
+    <row r="385" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C385" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+    </row>
+    <row r="386" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C386" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+    </row>
+    <row r="387" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C387" t="str">
+        <f t="shared" ref="C387:C450" si="6">LOWER(SUBSTITUTE(B387," ", "_"))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="388" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C388" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+    </row>
+    <row r="389" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C389" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+    </row>
+    <row r="390" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C390" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+    </row>
+    <row r="391" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C391" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+    </row>
+    <row r="392" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C392" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+    </row>
+    <row r="393" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C393" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+    </row>
+    <row r="394" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C394" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+    </row>
+    <row r="395" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C395" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+    </row>
+    <row r="396" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C396" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+    </row>
+    <row r="397" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C397" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+    </row>
+    <row r="398" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C398" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+    </row>
+    <row r="399" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C399" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+    </row>
+    <row r="400" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C400" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+    </row>
+    <row r="401" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C401" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+    </row>
+    <row r="402" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C402" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+    </row>
+    <row r="403" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C403" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+    </row>
+    <row r="404" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C404" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+    </row>
+    <row r="405" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C405" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+    </row>
+    <row r="406" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C406" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+    </row>
+    <row r="407" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C407" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+    </row>
+    <row r="408" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C408" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+    </row>
+    <row r="409" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C409" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+    </row>
+    <row r="410" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C410" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+    </row>
+    <row r="411" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C411" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+    </row>
+    <row r="412" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C412" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+    </row>
+    <row r="413" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C413" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+    </row>
+    <row r="414" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C414" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+    </row>
+    <row r="415" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C415" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+    </row>
+    <row r="416" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C416" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+    </row>
+    <row r="417" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C417" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+    </row>
+    <row r="418" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C418" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+    </row>
+    <row r="419" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C419" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+    </row>
+    <row r="420" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C420" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+    </row>
+    <row r="421" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C421" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+    </row>
+    <row r="422" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C422" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+    </row>
+    <row r="423" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C423" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+    </row>
+    <row r="424" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C424" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+    </row>
+    <row r="425" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C425" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+    </row>
+    <row r="426" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C426" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+    </row>
+    <row r="427" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C427" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+    </row>
+    <row r="428" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C428" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+    </row>
+    <row r="429" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C429" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+    </row>
+    <row r="430" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C430" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+    </row>
+    <row r="431" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C431" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+    </row>
+    <row r="432" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C432" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+    </row>
+    <row r="433" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C433" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+    </row>
+    <row r="434" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C434" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+    </row>
+    <row r="435" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C435" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+    </row>
+    <row r="436" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C436" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+    </row>
+    <row r="437" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C437" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+    </row>
+    <row r="438" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C438" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+    </row>
+    <row r="439" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C439" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+    </row>
+    <row r="440" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C440" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+    </row>
+    <row r="441" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C441" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+    </row>
+    <row r="442" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C442" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+    </row>
+    <row r="443" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C443" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+    </row>
+    <row r="444" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C444" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+    </row>
+    <row r="445" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C445" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+    </row>
+    <row r="446" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C446" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+    </row>
+    <row r="447" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C447" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+    </row>
+    <row r="448" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C448" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+    </row>
+    <row r="449" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C449" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+    </row>
+    <row r="450" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C450" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+    </row>
+    <row r="451" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C451" t="str">
+        <f t="shared" ref="C451:C514" si="7">LOWER(SUBSTITUTE(B451," ", "_"))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="452" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C452" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+    </row>
+    <row r="453" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C453" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+    </row>
+    <row r="454" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C454" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+    </row>
+    <row r="455" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C455" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+    </row>
+    <row r="456" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C456" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+    </row>
+    <row r="457" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C457" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+    </row>
+    <row r="458" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C458" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+    </row>
+    <row r="459" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C459" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+    </row>
+    <row r="460" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C460" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+    </row>
+    <row r="461" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C461" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+    </row>
+    <row r="462" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C462" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+    </row>
+    <row r="463" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C463" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+    </row>
+    <row r="464" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C464" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+    </row>
+    <row r="465" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C465" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+    </row>
+    <row r="466" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C466" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+    </row>
+    <row r="467" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C467" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+    </row>
+    <row r="468" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C468" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+    </row>
+    <row r="469" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C469" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+    </row>
+    <row r="470" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C470" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+    </row>
+    <row r="471" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C471" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+    </row>
+    <row r="472" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C472" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+    </row>
+    <row r="473" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C473" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+    </row>
+    <row r="474" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C474" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+    </row>
+    <row r="475" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C475" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+    </row>
+    <row r="476" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C476" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+    </row>
+    <row r="477" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C477" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+    </row>
+    <row r="478" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C478" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+    </row>
+    <row r="479" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C479" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+    </row>
+    <row r="480" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C480" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+    </row>
+    <row r="481" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C481" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+    </row>
+    <row r="482" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C482" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+    </row>
+    <row r="483" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C483" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+    </row>
+    <row r="484" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C484" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+    </row>
+    <row r="485" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C485" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+    </row>
+    <row r="486" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C486" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+    </row>
+    <row r="487" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C487" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+    </row>
+    <row r="488" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C488" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+    </row>
+    <row r="489" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C489" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+    </row>
+    <row r="490" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C490" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+    </row>
+    <row r="491" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C491" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+    </row>
+    <row r="492" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C492" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+    </row>
+    <row r="493" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C493" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+    </row>
+    <row r="494" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C494" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+    </row>
+    <row r="495" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C495" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+    </row>
+    <row r="496" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C496" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+    </row>
+    <row r="497" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C497" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+    </row>
+    <row r="498" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C498" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+    </row>
+    <row r="499" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C499" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+    </row>
+    <row r="500" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C500" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+    </row>
+    <row r="501" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C501" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+    </row>
+    <row r="502" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C502" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+    </row>
+    <row r="503" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C503" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+    </row>
+    <row r="504" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C504" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+    </row>
+    <row r="505" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C505" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+    </row>
+    <row r="506" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C506" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+    </row>
+    <row r="507" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C507" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+    </row>
+    <row r="508" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C508" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+    </row>
+    <row r="509" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C509" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+    </row>
+    <row r="510" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C510" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+    </row>
+    <row r="511" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C511" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+    </row>
+    <row r="512" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C512" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+    </row>
+    <row r="513" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C513" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+    </row>
+    <row r="514" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C514" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+    </row>
+    <row r="515" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C515" t="str">
+        <f t="shared" ref="C515:C578" si="8">LOWER(SUBSTITUTE(B515," ", "_"))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="516" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C516" t="str">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+    </row>
+    <row r="517" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C517" t="str">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+    </row>
+    <row r="518" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C518" t="str">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+    </row>
+    <row r="519" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C519" t="str">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+    </row>
+    <row r="520" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C520" t="str">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+    </row>
+    <row r="521" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C521" t="str">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+    </row>
+    <row r="522" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C522" t="str">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+    </row>
+    <row r="523" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C523" t="str">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+    </row>
+    <row r="524" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C524" t="str">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+    </row>
+    <row r="525" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C525" t="str">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+    </row>
+    <row r="526" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C526" t="str">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+    </row>
+    <row r="527" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C527" t="str">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+    </row>
+    <row r="528" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C528" t="str">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+    </row>
+    <row r="529" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C529" t="str">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+    </row>
+    <row r="530" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C530" t="str">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+    </row>
+    <row r="531" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C531" t="str">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+    </row>
+    <row r="532" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C532" t="str">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+    </row>
+    <row r="533" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C533" t="str">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+    </row>
+    <row r="534" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C534" t="str">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+    </row>
+    <row r="535" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C535" t="str">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+    </row>
+    <row r="536" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C536" t="str">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+    </row>
+    <row r="537" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C537" t="str">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+    </row>
+    <row r="538" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C538" t="str">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+    </row>
+    <row r="539" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C539" t="str">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+    </row>
+    <row r="540" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C540" t="str">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+    </row>
+    <row r="541" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C541" t="str">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+    </row>
+    <row r="542" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C542" t="str">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+    </row>
+    <row r="543" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C543" t="str">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+    </row>
+    <row r="544" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C544" t="str">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+    </row>
+    <row r="545" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C545" t="str">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+    </row>
+    <row r="546" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C546" t="str">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+    </row>
+    <row r="547" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C547" t="str">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+    </row>
+    <row r="548" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C548" t="str">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+    </row>
+    <row r="549" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C549" t="str">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+    </row>
+    <row r="550" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C550" t="str">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+    </row>
+    <row r="551" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C551" t="str">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+    </row>
+    <row r="552" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C552" t="str">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+    </row>
+    <row r="553" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C553" t="str">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+    </row>
+    <row r="554" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C554" t="str">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+    </row>
+    <row r="555" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C555" t="str">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+    </row>
+    <row r="556" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C556" t="str">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+    </row>
+    <row r="557" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C557" t="str">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+    </row>
+    <row r="558" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C558" t="str">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+    </row>
+    <row r="559" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C559" t="str">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+    </row>
+    <row r="560" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C560" t="str">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+    </row>
+    <row r="561" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C561" t="str">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+    </row>
+    <row r="562" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C562" t="str">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+    </row>
+    <row r="563" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C563" t="str">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+    </row>
+    <row r="564" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C564" t="str">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+    </row>
+    <row r="565" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C565" t="str">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+    </row>
+    <row r="566" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C566" t="str">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+    </row>
+    <row r="567" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C567" t="str">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+    </row>
+    <row r="568" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C568" t="str">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+    </row>
+    <row r="569" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C569" t="str">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+    </row>
+    <row r="570" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C570" t="str">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+    </row>
+    <row r="571" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C571" t="str">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+    </row>
+    <row r="572" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C572" t="str">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+    </row>
+    <row r="573" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C573" t="str">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+    </row>
+    <row r="574" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C574" t="str">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+    </row>
+    <row r="575" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C575" t="str">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+    </row>
+    <row r="576" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C576" t="str">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+    </row>
+    <row r="577" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C577" t="str">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+    </row>
+    <row r="578" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C578" t="str">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+    </row>
+    <row r="579" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C579" t="str">
+        <f t="shared" ref="C579:C642" si="9">LOWER(SUBSTITUTE(B579," ", "_"))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="580" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C580" t="str">
+        <f t="shared" si="9"/>
+        <v/>
+      </c>
+    </row>
+    <row r="581" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C581" t="str">
+        <f t="shared" si="9"/>
+        <v/>
+      </c>
+    </row>
+    <row r="582" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C582" t="str">
+        <f t="shared" si="9"/>
+        <v/>
+      </c>
+    </row>
+    <row r="583" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C583" t="str">
+        <f t="shared" si="9"/>
+        <v/>
+      </c>
+    </row>
+    <row r="584" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C584" t="str">
+        <f t="shared" si="9"/>
+        <v/>
+      </c>
+    </row>
+    <row r="585" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C585" t="str">
+        <f t="shared" si="9"/>
+        <v/>
+      </c>
+    </row>
+    <row r="586" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C586" t="str">
+        <f t="shared" si="9"/>
+        <v/>
+      </c>
+    </row>
+    <row r="587" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C587" t="str">
+        <f t="shared" si="9"/>
+        <v/>
+      </c>
+    </row>
+    <row r="588" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C588" t="str">
+        <f t="shared" si="9"/>
+        <v/>
+      </c>
+    </row>
+    <row r="589" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C589" t="str">
+        <f t="shared" si="9"/>
+        <v/>
+      </c>
+    </row>
+    <row r="590" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C590" t="str">
+        <f t="shared" si="9"/>
+        <v/>
+      </c>
+    </row>
+    <row r="591" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C591" t="str">
+        <f t="shared" si="9"/>
+        <v/>
+      </c>
+    </row>
+    <row r="592" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C592" t="str">
+        <f t="shared" si="9"/>
+        <v/>
+      </c>
+    </row>
+    <row r="593" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C593" t="str">
+        <f t="shared" si="9"/>
+        <v/>
+      </c>
+    </row>
+    <row r="594" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C594" t="str">
+        <f t="shared" si="9"/>
+        <v/>
+      </c>
+    </row>
+    <row r="595" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C595" t="str">
+        <f t="shared" si="9"/>
+        <v/>
+      </c>
+    </row>
+    <row r="596" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C596" t="str">
+        <f t="shared" si="9"/>
+        <v/>
+      </c>
+    </row>
+    <row r="597" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C597" t="str">
+        <f t="shared" si="9"/>
+        <v/>
+      </c>
+    </row>
+    <row r="598" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C598" t="str">
+        <f t="shared" si="9"/>
+        <v/>
+      </c>
+    </row>
+    <row r="599" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C599" t="str">
+        <f t="shared" si="9"/>
+        <v/>
+      </c>
+    </row>
+    <row r="600" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C600" t="str">
+        <f t="shared" si="9"/>
+        <v/>
+      </c>
+    </row>
+    <row r="601" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C601" t="str">
+        <f t="shared" si="9"/>
+        <v/>
+      </c>
+    </row>
+    <row r="602" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C602" t="str">
+        <f t="shared" si="9"/>
+        <v/>
+      </c>
+    </row>
+    <row r="603" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C603" t="str">
+        <f t="shared" si="9"/>
+        <v/>
+      </c>
+    </row>
+    <row r="604" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C604" t="str">
+        <f t="shared" si="9"/>
+        <v/>
+      </c>
+    </row>
+    <row r="605" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C605" t="str">
+        <f t="shared" si="9"/>
+        <v/>
+      </c>
+    </row>
+    <row r="606" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C606" t="str">
+        <f t="shared" si="9"/>
+        <v/>
+      </c>
+    </row>
+    <row r="607" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C607" t="str">
+        <f t="shared" si="9"/>
+        <v/>
+      </c>
+    </row>
+    <row r="608" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C608" t="str">
+        <f t="shared" si="9"/>
+        <v/>
+      </c>
+    </row>
+    <row r="609" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C609" t="str">
+        <f t="shared" si="9"/>
+        <v/>
+      </c>
+    </row>
+    <row r="610" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C610" t="str">
+        <f t="shared" si="9"/>
+        <v/>
+      </c>
+    </row>
+    <row r="611" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C611" t="str">
+        <f t="shared" si="9"/>
+        <v/>
+      </c>
+    </row>
+    <row r="612" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C612" t="str">
+        <f t="shared" si="9"/>
+        <v/>
+      </c>
+    </row>
+    <row r="613" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C613" t="str">
+        <f t="shared" si="9"/>
+        <v/>
+      </c>
+    </row>
+    <row r="614" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C614" t="str">
+        <f t="shared" si="9"/>
+        <v/>
+      </c>
+    </row>
+    <row r="615" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C615" t="str">
+        <f t="shared" si="9"/>
+        <v/>
+      </c>
+    </row>
+    <row r="616" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C616" t="str">
+        <f t="shared" si="9"/>
+        <v/>
+      </c>
+    </row>
+    <row r="617" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C617" t="str">
+        <f t="shared" si="9"/>
+        <v/>
+      </c>
+    </row>
+    <row r="618" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C618" t="str">
+        <f t="shared" si="9"/>
+        <v/>
+      </c>
+    </row>
+    <row r="619" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C619" t="str">
+        <f t="shared" si="9"/>
+        <v/>
+      </c>
+    </row>
+    <row r="620" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C620" t="str">
+        <f t="shared" si="9"/>
+        <v/>
+      </c>
+    </row>
+    <row r="621" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C621" t="str">
+        <f t="shared" si="9"/>
+        <v/>
+      </c>
+    </row>
+    <row r="622" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C622" t="str">
+        <f t="shared" si="9"/>
+        <v/>
+      </c>
+    </row>
+    <row r="623" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C623" t="str">
+        <f t="shared" si="9"/>
+        <v/>
+      </c>
+    </row>
+    <row r="624" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C624" t="str">
+        <f t="shared" si="9"/>
+        <v/>
+      </c>
+    </row>
+    <row r="625" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C625" t="str">
+        <f t="shared" si="9"/>
+        <v/>
+      </c>
+    </row>
+    <row r="626" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C626" t="str">
+        <f t="shared" si="9"/>
+        <v/>
+      </c>
+    </row>
+    <row r="627" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C627" t="str">
+        <f t="shared" si="9"/>
+        <v/>
+      </c>
+    </row>
+    <row r="628" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C628" t="str">
+        <f t="shared" si="9"/>
+        <v/>
+      </c>
+    </row>
+    <row r="629" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C629" t="str">
+        <f t="shared" si="9"/>
+        <v/>
+      </c>
+    </row>
+    <row r="630" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C630" t="str">
+        <f t="shared" si="9"/>
+        <v/>
+      </c>
+    </row>
+    <row r="631" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C631" t="str">
+        <f t="shared" si="9"/>
+        <v/>
+      </c>
+    </row>
+    <row r="632" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C632" t="str">
+        <f t="shared" si="9"/>
+        <v/>
+      </c>
+    </row>
+    <row r="633" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C633" t="str">
+        <f t="shared" si="9"/>
+        <v/>
+      </c>
+    </row>
+    <row r="634" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C634" t="str">
+        <f t="shared" si="9"/>
+        <v/>
+      </c>
+    </row>
+    <row r="635" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C635" t="str">
+        <f t="shared" si="9"/>
+        <v/>
+      </c>
+    </row>
+    <row r="636" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C636" t="str">
+        <f t="shared" si="9"/>
+        <v/>
+      </c>
+    </row>
+    <row r="637" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C637" t="str">
+        <f t="shared" si="9"/>
+        <v/>
+      </c>
+    </row>
+    <row r="638" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C638" t="str">
+        <f t="shared" si="9"/>
+        <v/>
+      </c>
+    </row>
+    <row r="639" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C639" t="str">
+        <f t="shared" si="9"/>
+        <v/>
+      </c>
+    </row>
+    <row r="640" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C640" t="str">
+        <f t="shared" si="9"/>
+        <v/>
+      </c>
+    </row>
+    <row r="641" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C641" t="str">
+        <f t="shared" si="9"/>
+        <v/>
+      </c>
+    </row>
+    <row r="642" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C642" t="str">
+        <f t="shared" si="9"/>
+        <v/>
+      </c>
+    </row>
+    <row r="643" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C643" t="str">
+        <f t="shared" ref="C643:C706" si="10">LOWER(SUBSTITUTE(B643," ", "_"))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="644" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C644" t="str">
+        <f t="shared" si="10"/>
+        <v/>
+      </c>
+    </row>
+    <row r="645" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C645" t="str">
+        <f t="shared" si="10"/>
+        <v/>
+      </c>
+    </row>
+    <row r="646" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C646" t="str">
+        <f t="shared" si="10"/>
+        <v/>
+      </c>
+    </row>
+    <row r="647" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C647" t="str">
+        <f t="shared" si="10"/>
+        <v/>
+      </c>
+    </row>
+    <row r="648" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C648" t="str">
+        <f t="shared" si="10"/>
+        <v/>
+      </c>
+    </row>
+    <row r="649" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C649" t="str">
+        <f t="shared" si="10"/>
+        <v/>
+      </c>
+    </row>
+    <row r="650" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C650" t="str">
+        <f t="shared" si="10"/>
+        <v/>
+      </c>
+    </row>
+    <row r="651" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C651" t="str">
+        <f t="shared" si="10"/>
+        <v/>
+      </c>
+    </row>
+    <row r="652" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C652" t="str">
+        <f t="shared" si="10"/>
+        <v/>
+      </c>
+    </row>
+    <row r="653" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C653" t="str">
+        <f t="shared" si="10"/>
+        <v/>
+      </c>
+    </row>
+    <row r="654" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C654" t="str">
+        <f t="shared" si="10"/>
+        <v/>
+      </c>
+    </row>
+    <row r="655" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C655" t="str">
+        <f t="shared" si="10"/>
+        <v/>
+      </c>
+    </row>
+    <row r="656" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C656" t="str">
+        <f t="shared" si="10"/>
+        <v/>
+      </c>
+    </row>
+    <row r="657" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C657" t="str">
+        <f t="shared" si="10"/>
+        <v/>
+      </c>
+    </row>
+    <row r="658" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C658" t="str">
+        <f t="shared" si="10"/>
+        <v/>
+      </c>
+    </row>
+    <row r="659" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C659" t="str">
+        <f t="shared" si="10"/>
+        <v/>
+      </c>
+    </row>
+    <row r="660" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C660" t="str">
+        <f t="shared" si="10"/>
+        <v/>
+      </c>
+    </row>
+    <row r="661" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C661" t="str">
+        <f t="shared" si="10"/>
+        <v/>
+      </c>
+    </row>
+    <row r="662" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C662" t="str">
+        <f t="shared" si="10"/>
+        <v/>
+      </c>
+    </row>
+    <row r="663" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C663" t="str">
+        <f t="shared" si="10"/>
+        <v/>
+      </c>
+    </row>
+    <row r="664" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C664" t="str">
+        <f t="shared" si="10"/>
+        <v/>
+      </c>
+    </row>
+    <row r="665" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C665" t="str">
+        <f t="shared" si="10"/>
+        <v/>
+      </c>
+    </row>
+    <row r="666" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C666" t="str">
+        <f t="shared" si="10"/>
+        <v/>
+      </c>
+    </row>
+    <row r="667" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C667" t="str">
+        <f t="shared" si="10"/>
+        <v/>
+      </c>
+    </row>
+    <row r="668" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C668" t="str">
+        <f t="shared" si="10"/>
+        <v/>
+      </c>
+    </row>
+    <row r="669" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C669" t="str">
+        <f t="shared" si="10"/>
+        <v/>
+      </c>
+    </row>
+    <row r="670" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C670" t="str">
+        <f t="shared" si="10"/>
+        <v/>
+      </c>
+    </row>
+    <row r="671" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C671" t="str">
+        <f t="shared" si="10"/>
+        <v/>
+      </c>
+    </row>
+    <row r="672" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C672" t="str">
+        <f t="shared" si="10"/>
+        <v/>
+      </c>
+    </row>
+    <row r="673" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C673" t="str">
+        <f t="shared" si="10"/>
+        <v/>
+      </c>
+    </row>
+    <row r="674" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C674" t="str">
+        <f t="shared" si="10"/>
+        <v/>
+      </c>
+    </row>
+    <row r="675" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C675" t="str">
+        <f t="shared" si="10"/>
+        <v/>
+      </c>
+    </row>
+    <row r="676" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C676" t="str">
+        <f t="shared" si="10"/>
+        <v/>
+      </c>
+    </row>
+    <row r="677" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C677" t="str">
+        <f t="shared" si="10"/>
+        <v/>
+      </c>
+    </row>
+    <row r="678" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C678" t="str">
+        <f t="shared" si="10"/>
+        <v/>
+      </c>
+    </row>
+    <row r="679" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C679" t="str">
+        <f t="shared" si="10"/>
+        <v/>
+      </c>
+    </row>
+    <row r="680" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C680" t="str">
+        <f t="shared" si="10"/>
+        <v/>
+      </c>
+    </row>
+    <row r="681" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C681" t="str">
+        <f t="shared" si="10"/>
+        <v/>
+      </c>
+    </row>
+    <row r="682" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C682" t="str">
+        <f t="shared" si="10"/>
+        <v/>
+      </c>
+    </row>
+    <row r="683" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C683" t="str">
+        <f t="shared" si="10"/>
+        <v/>
+      </c>
+    </row>
+    <row r="684" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C684" t="str">
+        <f t="shared" si="10"/>
+        <v/>
+      </c>
+    </row>
+    <row r="685" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C685" t="str">
+        <f t="shared" si="10"/>
+        <v/>
+      </c>
+    </row>
+    <row r="686" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C686" t="str">
+        <f t="shared" si="10"/>
+        <v/>
+      </c>
+    </row>
+    <row r="687" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C687" t="str">
+        <f t="shared" si="10"/>
+        <v/>
+      </c>
+    </row>
+    <row r="688" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C688" t="str">
+        <f t="shared" si="10"/>
+        <v/>
+      </c>
+    </row>
+    <row r="689" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C689" t="str">
+        <f t="shared" si="10"/>
+        <v/>
+      </c>
+    </row>
+    <row r="690" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C690" t="str">
+        <f t="shared" si="10"/>
+        <v/>
+      </c>
+    </row>
+    <row r="691" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C691" t="str">
+        <f t="shared" si="10"/>
+        <v/>
+      </c>
+    </row>
+    <row r="692" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C692" t="str">
+        <f t="shared" si="10"/>
+        <v/>
+      </c>
+    </row>
+    <row r="693" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C693" t="str">
+        <f t="shared" si="10"/>
+        <v/>
+      </c>
+    </row>
+    <row r="694" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C694" t="str">
+        <f t="shared" si="10"/>
+        <v/>
+      </c>
+    </row>
+    <row r="695" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C695" t="str">
+        <f t="shared" si="10"/>
+        <v/>
+      </c>
+    </row>
+    <row r="696" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C696" t="str">
+        <f t="shared" si="10"/>
+        <v/>
+      </c>
+    </row>
+    <row r="697" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C697" t="str">
+        <f t="shared" si="10"/>
+        <v/>
+      </c>
+    </row>
+    <row r="698" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C698" t="str">
+        <f t="shared" si="10"/>
+        <v/>
+      </c>
+    </row>
+    <row r="699" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C699" t="str">
+        <f t="shared" si="10"/>
+        <v/>
+      </c>
+    </row>
+    <row r="700" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C700" t="str">
+        <f t="shared" si="10"/>
+        <v/>
+      </c>
+    </row>
+    <row r="701" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C701" t="str">
+        <f t="shared" si="10"/>
+        <v/>
+      </c>
+    </row>
+    <row r="702" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C702" t="str">
+        <f t="shared" si="10"/>
+        <v/>
+      </c>
+    </row>
+    <row r="703" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C703" t="str">
+        <f t="shared" si="10"/>
+        <v/>
+      </c>
+    </row>
+    <row r="704" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C704" t="str">
+        <f t="shared" si="10"/>
+        <v/>
+      </c>
+    </row>
+    <row r="705" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C705" t="str">
+        <f t="shared" si="10"/>
+        <v/>
+      </c>
+    </row>
+    <row r="706" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C706" t="str">
+        <f t="shared" si="10"/>
+        <v/>
+      </c>
+    </row>
+    <row r="707" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C707" t="str">
+        <f t="shared" ref="C707:C770" si="11">LOWER(SUBSTITUTE(B707," ", "_"))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="708" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C708" t="str">
+        <f t="shared" si="11"/>
+        <v/>
+      </c>
+    </row>
+    <row r="709" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C709" t="str">
+        <f t="shared" si="11"/>
+        <v/>
+      </c>
+    </row>
+    <row r="710" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C710" t="str">
+        <f t="shared" si="11"/>
+        <v/>
+      </c>
+    </row>
+    <row r="711" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C711" t="str">
+        <f t="shared" si="11"/>
+        <v/>
+      </c>
+    </row>
+    <row r="712" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C712" t="str">
+        <f t="shared" si="11"/>
+        <v/>
+      </c>
+    </row>
+    <row r="713" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C713" t="str">
+        <f t="shared" si="11"/>
+        <v/>
+      </c>
+    </row>
+    <row r="714" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C714" t="str">
+        <f t="shared" si="11"/>
+        <v/>
+      </c>
+    </row>
+    <row r="715" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C715" t="str">
+        <f t="shared" si="11"/>
+        <v/>
+      </c>
+    </row>
+    <row r="716" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C716" t="str">
+        <f t="shared" si="11"/>
+        <v/>
+      </c>
+    </row>
+    <row r="717" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C717" t="str">
+        <f t="shared" si="11"/>
+        <v/>
+      </c>
+    </row>
+    <row r="718" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C718" t="str">
+        <f t="shared" si="11"/>
+        <v/>
+      </c>
+    </row>
+    <row r="719" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C719" t="str">
+        <f t="shared" si="11"/>
+        <v/>
+      </c>
+    </row>
+    <row r="720" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C720" t="str">
+        <f t="shared" si="11"/>
+        <v/>
+      </c>
+    </row>
+    <row r="721" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C721" t="str">
+        <f t="shared" si="11"/>
+        <v/>
+      </c>
+    </row>
+    <row r="722" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C722" t="str">
+        <f t="shared" si="11"/>
+        <v/>
+      </c>
+    </row>
+    <row r="723" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C723" t="str">
+        <f t="shared" si="11"/>
+        <v/>
+      </c>
+    </row>
+    <row r="724" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C724" t="str">
+        <f t="shared" si="11"/>
+        <v/>
+      </c>
+    </row>
+    <row r="725" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C725" t="str">
+        <f t="shared" si="11"/>
+        <v/>
+      </c>
+    </row>
+    <row r="726" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C726" t="str">
+        <f t="shared" si="11"/>
+        <v/>
+      </c>
+    </row>
+    <row r="727" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C727" t="str">
+        <f t="shared" si="11"/>
+        <v/>
+      </c>
+    </row>
+    <row r="728" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C728" t="str">
+        <f t="shared" si="11"/>
+        <v/>
+      </c>
+    </row>
+    <row r="729" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C729" t="str">
+        <f t="shared" si="11"/>
+        <v/>
+      </c>
+    </row>
+    <row r="730" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C730" t="str">
+        <f t="shared" si="11"/>
+        <v/>
+      </c>
+    </row>
+    <row r="731" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C731" t="str">
+        <f t="shared" si="11"/>
+        <v/>
+      </c>
+    </row>
+    <row r="732" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C732" t="str">
+        <f t="shared" si="11"/>
+        <v/>
+      </c>
+    </row>
+    <row r="733" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C733" t="str">
+        <f t="shared" si="11"/>
+        <v/>
+      </c>
+    </row>
+    <row r="734" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C734" t="str">
+        <f t="shared" si="11"/>
+        <v/>
+      </c>
+    </row>
+    <row r="735" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C735" t="str">
+        <f t="shared" si="11"/>
+        <v/>
+      </c>
+    </row>
+    <row r="736" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C736" t="str">
+        <f t="shared" si="11"/>
+        <v/>
+      </c>
+    </row>
+    <row r="737" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C737" t="str">
+        <f t="shared" si="11"/>
+        <v/>
+      </c>
+    </row>
+    <row r="738" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C738" t="str">
+        <f t="shared" si="11"/>
+        <v/>
+      </c>
+    </row>
+    <row r="739" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C739" t="str">
+        <f t="shared" si="11"/>
+        <v/>
+      </c>
+    </row>
+    <row r="740" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C740" t="str">
+        <f t="shared" si="11"/>
+        <v/>
+      </c>
+    </row>
+    <row r="741" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C741" t="str">
+        <f t="shared" si="11"/>
+        <v/>
+      </c>
+    </row>
+    <row r="742" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C742" t="str">
+        <f t="shared" si="11"/>
+        <v/>
+      </c>
+    </row>
+    <row r="743" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C743" t="str">
+        <f t="shared" si="11"/>
+        <v/>
+      </c>
+    </row>
+    <row r="744" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C744" t="str">
+        <f t="shared" si="11"/>
+        <v/>
+      </c>
+    </row>
+    <row r="745" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C745" t="str">
+        <f t="shared" si="11"/>
+        <v/>
+      </c>
+    </row>
+    <row r="746" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C746" t="str">
+        <f t="shared" si="11"/>
+        <v/>
+      </c>
+    </row>
+    <row r="747" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C747" t="str">
+        <f t="shared" si="11"/>
+        <v/>
+      </c>
+    </row>
+    <row r="748" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C748" t="str">
+        <f t="shared" si="11"/>
+        <v/>
+      </c>
+    </row>
+    <row r="749" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C749" t="str">
+        <f t="shared" si="11"/>
+        <v/>
+      </c>
+    </row>
+    <row r="750" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C750" t="str">
+        <f t="shared" si="11"/>
+        <v/>
+      </c>
+    </row>
+    <row r="751" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C751" t="str">
+        <f t="shared" si="11"/>
+        <v/>
+      </c>
+    </row>
+    <row r="752" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C752" t="str">
+        <f t="shared" si="11"/>
+        <v/>
+      </c>
+    </row>
+    <row r="753" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C753" t="str">
+        <f t="shared" si="11"/>
+        <v/>
+      </c>
+    </row>
+    <row r="754" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C754" t="str">
+        <f t="shared" si="11"/>
+        <v/>
+      </c>
+    </row>
+    <row r="755" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C755" t="str">
+        <f t="shared" si="11"/>
+        <v/>
+      </c>
+    </row>
+    <row r="756" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C756" t="str">
+        <f t="shared" si="11"/>
+        <v/>
+      </c>
+    </row>
+    <row r="757" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C757" t="str">
+        <f t="shared" si="11"/>
+        <v/>
+      </c>
+    </row>
+    <row r="758" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C758" t="str">
+        <f t="shared" si="11"/>
+        <v/>
+      </c>
+    </row>
+    <row r="759" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C759" t="str">
+        <f t="shared" si="11"/>
+        <v/>
+      </c>
+    </row>
+    <row r="760" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C760" t="str">
+        <f t="shared" si="11"/>
+        <v/>
+      </c>
+    </row>
+    <row r="761" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C761" t="str">
+        <f t="shared" si="11"/>
+        <v/>
+      </c>
+    </row>
+    <row r="762" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C762" t="str">
+        <f t="shared" si="11"/>
+        <v/>
+      </c>
+    </row>
+    <row r="763" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C763" t="str">
+        <f t="shared" si="11"/>
+        <v/>
+      </c>
+    </row>
+    <row r="764" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C764" t="str">
+        <f t="shared" si="11"/>
+        <v/>
+      </c>
+    </row>
+    <row r="765" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C765" t="str">
+        <f t="shared" si="11"/>
+        <v/>
+      </c>
+    </row>
+    <row r="766" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C766" t="str">
+        <f t="shared" si="11"/>
+        <v/>
+      </c>
+    </row>
+    <row r="767" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C767" t="str">
+        <f t="shared" si="11"/>
+        <v/>
+      </c>
+    </row>
+    <row r="768" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C768" t="str">
+        <f t="shared" si="11"/>
+        <v/>
+      </c>
+    </row>
+    <row r="769" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C769" t="str">
+        <f t="shared" si="11"/>
+        <v/>
+      </c>
+    </row>
+    <row r="770" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C770" t="str">
+        <f t="shared" si="11"/>
+        <v/>
+      </c>
+    </row>
+    <row r="771" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C771" t="str">
+        <f t="shared" ref="C771:C834" si="12">LOWER(SUBSTITUTE(B771," ", "_"))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="772" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C772" t="str">
+        <f t="shared" si="12"/>
+        <v/>
+      </c>
+    </row>
+    <row r="773" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C773" t="str">
+        <f t="shared" si="12"/>
+        <v/>
+      </c>
+    </row>
+    <row r="774" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C774" t="str">
+        <f t="shared" si="12"/>
+        <v/>
+      </c>
+    </row>
+    <row r="775" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C775" t="str">
+        <f t="shared" si="12"/>
+        <v/>
+      </c>
+    </row>
+    <row r="776" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C776" t="str">
+        <f t="shared" si="12"/>
+        <v/>
+      </c>
+    </row>
+    <row r="777" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C777" t="str">
+        <f t="shared" si="12"/>
+        <v/>
+      </c>
+    </row>
+    <row r="778" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C778" t="str">
+        <f t="shared" si="12"/>
+        <v/>
+      </c>
+    </row>
+    <row r="779" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C779" t="str">
+        <f t="shared" si="12"/>
+        <v/>
+      </c>
+    </row>
+    <row r="780" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C780" t="str">
+        <f t="shared" si="12"/>
+        <v/>
+      </c>
+    </row>
+    <row r="781" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C781" t="str">
+        <f t="shared" si="12"/>
+        <v/>
+      </c>
+    </row>
+    <row r="782" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C782" t="str">
+        <f t="shared" si="12"/>
+        <v/>
+      </c>
+    </row>
+    <row r="783" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C783" t="str">
+        <f t="shared" si="12"/>
+        <v/>
+      </c>
+    </row>
+    <row r="784" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C784" t="str">
+        <f t="shared" si="12"/>
+        <v/>
+      </c>
+    </row>
+    <row r="785" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C785" t="str">
+        <f t="shared" si="12"/>
+        <v/>
+      </c>
+    </row>
+    <row r="786" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C786" t="str">
+        <f t="shared" si="12"/>
+        <v/>
+      </c>
+    </row>
+    <row r="787" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C787" t="str">
+        <f t="shared" si="12"/>
+        <v/>
+      </c>
+    </row>
+    <row r="788" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C788" t="str">
+        <f t="shared" si="12"/>
+        <v/>
+      </c>
+    </row>
+    <row r="789" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C789" t="str">
+        <f t="shared" si="12"/>
+        <v/>
+      </c>
+    </row>
+    <row r="790" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C790" t="str">
+        <f t="shared" si="12"/>
+        <v/>
+      </c>
+    </row>
+    <row r="791" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C791" t="str">
+        <f t="shared" si="12"/>
+        <v/>
+      </c>
+    </row>
+    <row r="792" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C792" t="str">
+        <f t="shared" si="12"/>
+        <v/>
+      </c>
+    </row>
+    <row r="793" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C793" t="str">
+        <f t="shared" si="12"/>
+        <v/>
+      </c>
+    </row>
+    <row r="794" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C794" t="str">
+        <f t="shared" si="12"/>
+        <v/>
+      </c>
+    </row>
+    <row r="795" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C795" t="str">
+        <f t="shared" si="12"/>
+        <v/>
+      </c>
+    </row>
+    <row r="796" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C796" t="str">
+        <f t="shared" si="12"/>
+        <v/>
+      </c>
+    </row>
+    <row r="797" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C797" t="str">
+        <f t="shared" si="12"/>
+        <v/>
+      </c>
+    </row>
+    <row r="798" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C798" t="str">
+        <f t="shared" si="12"/>
+        <v/>
+      </c>
+    </row>
+    <row r="799" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C799" t="str">
+        <f t="shared" si="12"/>
+        <v/>
+      </c>
+    </row>
+    <row r="800" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C800" t="str">
+        <f t="shared" si="12"/>
+        <v/>
+      </c>
+    </row>
+    <row r="801" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C801" t="str">
+        <f t="shared" si="12"/>
+        <v/>
+      </c>
+    </row>
+    <row r="802" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C802" t="str">
+        <f t="shared" si="12"/>
+        <v/>
+      </c>
+    </row>
+    <row r="803" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C803" t="str">
+        <f t="shared" si="12"/>
+        <v/>
+      </c>
+    </row>
+    <row r="804" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C804" t="str">
+        <f t="shared" si="12"/>
+        <v/>
+      </c>
+    </row>
+    <row r="805" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C805" t="str">
+        <f t="shared" si="12"/>
+        <v/>
+      </c>
+    </row>
+    <row r="806" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C806" t="str">
+        <f t="shared" si="12"/>
+        <v/>
+      </c>
+    </row>
+    <row r="807" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C807" t="str">
+        <f t="shared" si="12"/>
+        <v/>
+      </c>
+    </row>
+    <row r="808" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C808" t="str">
+        <f t="shared" si="12"/>
+        <v/>
+      </c>
+    </row>
+    <row r="809" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C809" t="str">
+        <f t="shared" si="12"/>
+        <v/>
+      </c>
+    </row>
+    <row r="810" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C810" t="str">
+        <f t="shared" si="12"/>
+        <v/>
+      </c>
+    </row>
+    <row r="811" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C811" t="str">
+        <f t="shared" si="12"/>
+        <v/>
+      </c>
+    </row>
+    <row r="812" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C812" t="str">
+        <f t="shared" si="12"/>
+        <v/>
+      </c>
+    </row>
+    <row r="813" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C813" t="str">
+        <f t="shared" si="12"/>
+        <v/>
+      </c>
+    </row>
+    <row r="814" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C814" t="str">
+        <f t="shared" si="12"/>
+        <v/>
+      </c>
+    </row>
+    <row r="815" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C815" t="str">
+        <f t="shared" si="12"/>
+        <v/>
+      </c>
+    </row>
+    <row r="816" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C816" t="str">
+        <f t="shared" si="12"/>
+        <v/>
+      </c>
+    </row>
+    <row r="817" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C817" t="str">
+        <f t="shared" si="12"/>
+        <v/>
+      </c>
+    </row>
+    <row r="818" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C818" t="str">
+        <f t="shared" si="12"/>
+        <v/>
+      </c>
+    </row>
+    <row r="819" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C819" t="str">
+        <f t="shared" si="12"/>
+        <v/>
+      </c>
+    </row>
+    <row r="820" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C820" t="str">
+        <f t="shared" si="12"/>
+        <v/>
+      </c>
+    </row>
+    <row r="821" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C821" t="str">
+        <f t="shared" si="12"/>
+        <v/>
+      </c>
+    </row>
+    <row r="822" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C822" t="str">
+        <f t="shared" si="12"/>
+        <v/>
+      </c>
+    </row>
+    <row r="823" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C823" t="str">
+        <f t="shared" si="12"/>
+        <v/>
+      </c>
+    </row>
+    <row r="824" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C824" t="str">
+        <f t="shared" si="12"/>
+        <v/>
+      </c>
+    </row>
+    <row r="825" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C825" t="str">
+        <f t="shared" si="12"/>
+        <v/>
+      </c>
+    </row>
+    <row r="826" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C826" t="str">
+        <f t="shared" si="12"/>
+        <v/>
+      </c>
+    </row>
+    <row r="827" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C827" t="str">
+        <f t="shared" si="12"/>
+        <v/>
+      </c>
+    </row>
+    <row r="828" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C828" t="str">
+        <f t="shared" si="12"/>
+        <v/>
+      </c>
+    </row>
+    <row r="829" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C829" t="str">
+        <f t="shared" si="12"/>
+        <v/>
+      </c>
+    </row>
+    <row r="830" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C830" t="str">
+        <f t="shared" si="12"/>
+        <v/>
+      </c>
+    </row>
+    <row r="831" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C831" t="str">
+        <f t="shared" si="12"/>
+        <v/>
+      </c>
+    </row>
+    <row r="832" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C832" t="str">
+        <f t="shared" si="12"/>
+        <v/>
+      </c>
+    </row>
+    <row r="833" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C833" t="str">
+        <f t="shared" si="12"/>
+        <v/>
+      </c>
+    </row>
+    <row r="834" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C834" t="str">
+        <f t="shared" si="12"/>
+        <v/>
+      </c>
+    </row>
+    <row r="835" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C835" t="str">
+        <f t="shared" ref="C835:C898" si="13">LOWER(SUBSTITUTE(B835," ", "_"))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="836" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C836" t="str">
+        <f t="shared" si="13"/>
+        <v/>
+      </c>
+    </row>
+    <row r="837" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C837" t="str">
+        <f t="shared" si="13"/>
+        <v/>
+      </c>
+    </row>
+    <row r="838" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C838" t="str">
+        <f t="shared" si="13"/>
+        <v/>
+      </c>
+    </row>
+    <row r="839" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C839" t="str">
+        <f t="shared" si="13"/>
+        <v/>
+      </c>
+    </row>
+    <row r="840" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C840" t="str">
+        <f t="shared" si="13"/>
+        <v/>
+      </c>
+    </row>
+    <row r="841" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C841" t="str">
+        <f t="shared" si="13"/>
+        <v/>
+      </c>
+    </row>
+    <row r="842" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C842" t="str">
+        <f t="shared" si="13"/>
+        <v/>
+      </c>
+    </row>
+    <row r="843" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C843" t="str">
+        <f t="shared" si="13"/>
+        <v/>
+      </c>
+    </row>
+    <row r="844" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C844" t="str">
+        <f t="shared" si="13"/>
+        <v/>
+      </c>
+    </row>
+    <row r="845" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C845" t="str">
+        <f t="shared" si="13"/>
+        <v/>
+      </c>
+    </row>
+    <row r="846" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C846" t="str">
+        <f t="shared" si="13"/>
+        <v/>
+      </c>
+    </row>
+    <row r="847" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C847" t="str">
+        <f t="shared" si="13"/>
+        <v/>
+      </c>
+    </row>
+    <row r="848" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C848" t="str">
+        <f t="shared" si="13"/>
+        <v/>
+      </c>
+    </row>
+    <row r="849" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C849" t="str">
+        <f t="shared" si="13"/>
+        <v/>
+      </c>
+    </row>
+    <row r="850" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C850" t="str">
+        <f t="shared" si="13"/>
+        <v/>
+      </c>
+    </row>
+    <row r="851" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C851" t="str">
+        <f t="shared" si="13"/>
+        <v/>
+      </c>
+    </row>
+    <row r="852" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C852" t="str">
+        <f t="shared" si="13"/>
+        <v/>
+      </c>
+    </row>
+    <row r="853" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C853" t="str">
+        <f t="shared" si="13"/>
+        <v/>
+      </c>
+    </row>
+    <row r="854" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C854" t="str">
+        <f t="shared" si="13"/>
+        <v/>
+      </c>
+    </row>
+    <row r="855" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C855" t="str">
+        <f t="shared" si="13"/>
+        <v/>
+      </c>
+    </row>
+    <row r="856" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C856" t="str">
+        <f t="shared" si="13"/>
+        <v/>
+      </c>
+    </row>
+    <row r="857" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C857" t="str">
+        <f t="shared" si="13"/>
+        <v/>
+      </c>
+    </row>
+    <row r="858" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C858" t="str">
+        <f t="shared" si="13"/>
+        <v/>
+      </c>
+    </row>
+    <row r="859" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C859" t="str">
+        <f t="shared" si="13"/>
+        <v/>
+      </c>
+    </row>
+    <row r="860" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C860" t="str">
+        <f t="shared" si="13"/>
+        <v/>
+      </c>
+    </row>
+    <row r="861" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C861" t="str">
+        <f t="shared" si="13"/>
+        <v/>
+      </c>
+    </row>
+    <row r="862" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C862" t="str">
+        <f t="shared" si="13"/>
+        <v/>
+      </c>
+    </row>
+    <row r="863" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C863" t="str">
+        <f t="shared" si="13"/>
+        <v/>
+      </c>
+    </row>
+    <row r="864" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C864" t="str">
+        <f t="shared" si="13"/>
+        <v/>
+      </c>
+    </row>
+    <row r="865" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C865" t="str">
+        <f t="shared" si="13"/>
+        <v/>
+      </c>
+    </row>
+    <row r="866" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C866" t="str">
+        <f t="shared" si="13"/>
+        <v/>
+      </c>
+    </row>
+    <row r="867" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C867" t="str">
+        <f t="shared" si="13"/>
+        <v/>
+      </c>
+    </row>
+    <row r="868" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C868" t="str">
+        <f t="shared" si="13"/>
+        <v/>
+      </c>
+    </row>
+    <row r="869" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C869" t="str">
+        <f t="shared" si="13"/>
+        <v/>
+      </c>
+    </row>
+    <row r="870" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C870" t="str">
+        <f t="shared" si="13"/>
+        <v/>
+      </c>
+    </row>
+    <row r="871" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C871" t="str">
+        <f t="shared" si="13"/>
+        <v/>
+      </c>
+    </row>
+    <row r="872" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C872" t="str">
+        <f t="shared" si="13"/>
+        <v/>
+      </c>
+    </row>
+    <row r="873" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C873" t="str">
+        <f t="shared" si="13"/>
+        <v/>
+      </c>
+    </row>
+    <row r="874" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C874" t="str">
+        <f t="shared" si="13"/>
+        <v/>
+      </c>
+    </row>
+    <row r="875" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C875" t="str">
+        <f t="shared" si="13"/>
+        <v/>
+      </c>
+    </row>
+    <row r="876" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C876" t="str">
+        <f t="shared" si="13"/>
+        <v/>
+      </c>
+    </row>
+    <row r="877" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C877" t="str">
+        <f t="shared" si="13"/>
+        <v/>
+      </c>
+    </row>
+    <row r="878" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C878" t="str">
+        <f t="shared" si="13"/>
+        <v/>
+      </c>
+    </row>
+    <row r="879" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C879" t="str">
+        <f t="shared" si="13"/>
+        <v/>
+      </c>
+    </row>
+    <row r="880" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C880" t="str">
+        <f t="shared" si="13"/>
+        <v/>
+      </c>
+    </row>
+    <row r="881" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C881" t="str">
+        <f t="shared" si="13"/>
+        <v/>
+      </c>
+    </row>
+    <row r="882" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C882" t="str">
+        <f t="shared" si="13"/>
+        <v/>
+      </c>
+    </row>
+    <row r="883" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C883" t="str">
+        <f t="shared" si="13"/>
+        <v/>
+      </c>
+    </row>
+    <row r="884" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C884" t="str">
+        <f t="shared" si="13"/>
+        <v/>
+      </c>
+    </row>
+    <row r="885" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C885" t="str">
+        <f t="shared" si="13"/>
+        <v/>
+      </c>
+    </row>
+    <row r="886" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C886" t="str">
+        <f t="shared" si="13"/>
+        <v/>
+      </c>
+    </row>
+    <row r="887" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C887" t="str">
+        <f t="shared" si="13"/>
+        <v/>
+      </c>
+    </row>
+    <row r="888" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C888" t="str">
+        <f t="shared" si="13"/>
+        <v/>
+      </c>
+    </row>
+    <row r="889" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C889" t="str">
+        <f t="shared" si="13"/>
+        <v/>
+      </c>
+    </row>
+    <row r="890" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C890" t="str">
+        <f t="shared" si="13"/>
+        <v/>
+      </c>
+    </row>
+    <row r="891" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C891" t="str">
+        <f t="shared" si="13"/>
+        <v/>
+      </c>
+    </row>
+    <row r="892" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C892" t="str">
+        <f t="shared" si="13"/>
+        <v/>
+      </c>
+    </row>
+    <row r="893" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C893" t="str">
+        <f t="shared" si="13"/>
+        <v/>
+      </c>
+    </row>
+    <row r="894" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C894" t="str">
+        <f t="shared" si="13"/>
+        <v/>
+      </c>
+    </row>
+    <row r="895" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C895" t="str">
+        <f t="shared" si="13"/>
+        <v/>
+      </c>
+    </row>
+    <row r="896" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C896" t="str">
+        <f t="shared" si="13"/>
+        <v/>
+      </c>
+    </row>
+    <row r="897" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C897" t="str">
+        <f t="shared" si="13"/>
+        <v/>
+      </c>
+    </row>
+    <row r="898" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C898" t="str">
+        <f t="shared" si="13"/>
+        <v/>
+      </c>
+    </row>
+    <row r="899" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C899" t="str">
+        <f t="shared" ref="C899:C962" si="14">LOWER(SUBSTITUTE(B899," ", "_"))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="900" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C900" t="str">
+        <f t="shared" si="14"/>
+        <v/>
+      </c>
+    </row>
+    <row r="901" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C901" t="str">
+        <f t="shared" si="14"/>
+        <v/>
+      </c>
+    </row>
+    <row r="902" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C902" t="str">
+        <f t="shared" si="14"/>
+        <v/>
+      </c>
+    </row>
+    <row r="903" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C903" t="str">
+        <f t="shared" si="14"/>
+        <v/>
+      </c>
+    </row>
+    <row r="904" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C904" t="str">
+        <f t="shared" si="14"/>
+        <v/>
+      </c>
+    </row>
+    <row r="905" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C905" t="str">
+        <f t="shared" si="14"/>
+        <v/>
+      </c>
+    </row>
+    <row r="906" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C906" t="str">
+        <f t="shared" si="14"/>
+        <v/>
+      </c>
+    </row>
+    <row r="907" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C907" t="str">
+        <f t="shared" si="14"/>
+        <v/>
+      </c>
+    </row>
+    <row r="908" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C908" t="str">
+        <f t="shared" si="14"/>
+        <v/>
+      </c>
+    </row>
+    <row r="909" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C909" t="str">
+        <f t="shared" si="14"/>
+        <v/>
+      </c>
+    </row>
+    <row r="910" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C910" t="str">
+        <f t="shared" si="14"/>
+        <v/>
+      </c>
+    </row>
+    <row r="911" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C911" t="str">
+        <f t="shared" si="14"/>
+        <v/>
+      </c>
+    </row>
+    <row r="912" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C912" t="str">
+        <f t="shared" si="14"/>
+        <v/>
+      </c>
+    </row>
+    <row r="913" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C913" t="str">
+        <f t="shared" si="14"/>
+        <v/>
+      </c>
+    </row>
+    <row r="914" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C914" t="str">
+        <f t="shared" si="14"/>
+        <v/>
+      </c>
+    </row>
+    <row r="915" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C915" t="str">
+        <f t="shared" si="14"/>
+        <v/>
+      </c>
+    </row>
+    <row r="916" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C916" t="str">
+        <f t="shared" si="14"/>
+        <v/>
+      </c>
+    </row>
+    <row r="917" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C917" t="str">
+        <f t="shared" si="14"/>
+        <v/>
+      </c>
+    </row>
+    <row r="918" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C918" t="str">
+        <f t="shared" si="14"/>
+        <v/>
+      </c>
+    </row>
+    <row r="919" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C919" t="str">
+        <f t="shared" si="14"/>
+        <v/>
+      </c>
+    </row>
+    <row r="920" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C920" t="str">
+        <f t="shared" si="14"/>
+        <v/>
+      </c>
+    </row>
+    <row r="921" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C921" t="str">
+        <f t="shared" si="14"/>
+        <v/>
+      </c>
+    </row>
+    <row r="922" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C922" t="str">
+        <f t="shared" si="14"/>
+        <v/>
+      </c>
+    </row>
+    <row r="923" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C923" t="str">
+        <f t="shared" si="14"/>
+        <v/>
+      </c>
+    </row>
+    <row r="924" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C924" t="str">
+        <f t="shared" si="14"/>
+        <v/>
+      </c>
+    </row>
+    <row r="925" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C925" t="str">
+        <f t="shared" si="14"/>
+        <v/>
+      </c>
+    </row>
+    <row r="926" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C926" t="str">
+        <f t="shared" si="14"/>
+        <v/>
+      </c>
+    </row>
+    <row r="927" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C927" t="str">
+        <f t="shared" si="14"/>
+        <v/>
+      </c>
+    </row>
+    <row r="928" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C928" t="str">
+        <f t="shared" si="14"/>
+        <v/>
+      </c>
+    </row>
+    <row r="929" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C929" t="str">
+        <f t="shared" si="14"/>
+        <v/>
+      </c>
+    </row>
+    <row r="930" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C930" t="str">
+        <f t="shared" si="14"/>
+        <v/>
+      </c>
+    </row>
+    <row r="931" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C931" t="str">
+        <f t="shared" si="14"/>
+        <v/>
+      </c>
+    </row>
+    <row r="932" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C932" t="str">
+        <f t="shared" si="14"/>
+        <v/>
+      </c>
+    </row>
+    <row r="933" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C933" t="str">
+        <f t="shared" si="14"/>
+        <v/>
+      </c>
+    </row>
+    <row r="934" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C934" t="str">
+        <f t="shared" si="14"/>
+        <v/>
+      </c>
+    </row>
+    <row r="935" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C935" t="str">
+        <f t="shared" si="14"/>
+        <v/>
+      </c>
+    </row>
+    <row r="936" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C936" t="str">
+        <f t="shared" si="14"/>
+        <v/>
+      </c>
+    </row>
+    <row r="937" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C937" t="str">
+        <f t="shared" si="14"/>
+        <v/>
+      </c>
+    </row>
+    <row r="938" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C938" t="str">
+        <f t="shared" si="14"/>
+        <v/>
+      </c>
+    </row>
+    <row r="939" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C939" t="str">
+        <f t="shared" si="14"/>
+        <v/>
+      </c>
+    </row>
+    <row r="940" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C940" t="str">
+        <f t="shared" si="14"/>
+        <v/>
+      </c>
+    </row>
+    <row r="941" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C941" t="str">
+        <f t="shared" si="14"/>
+        <v/>
+      </c>
+    </row>
+    <row r="942" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C942" t="str">
+        <f t="shared" si="14"/>
+        <v/>
+      </c>
+    </row>
+    <row r="943" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C943" t="str">
+        <f t="shared" si="14"/>
+        <v/>
+      </c>
+    </row>
+    <row r="944" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C944" t="str">
+        <f t="shared" si="14"/>
+        <v/>
+      </c>
+    </row>
+    <row r="945" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C945" t="str">
+        <f t="shared" si="14"/>
+        <v/>
+      </c>
+    </row>
+    <row r="946" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C946" t="str">
+        <f t="shared" si="14"/>
+        <v/>
+      </c>
+    </row>
+    <row r="947" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C947" t="str">
+        <f t="shared" si="14"/>
+        <v/>
+      </c>
+    </row>
+    <row r="948" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C948" t="str">
+        <f t="shared" si="14"/>
+        <v/>
+      </c>
+    </row>
+    <row r="949" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C949" t="str">
+        <f t="shared" si="14"/>
+        <v/>
+      </c>
+    </row>
+    <row r="950" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C950" t="str">
+        <f t="shared" si="14"/>
+        <v/>
+      </c>
+    </row>
+    <row r="951" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C951" t="str">
+        <f t="shared" si="14"/>
+        <v/>
+      </c>
+    </row>
+    <row r="952" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C952" t="str">
+        <f t="shared" si="14"/>
+        <v/>
+      </c>
+    </row>
+    <row r="953" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C953" t="str">
+        <f t="shared" si="14"/>
+        <v/>
+      </c>
+    </row>
+    <row r="954" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C954" t="str">
+        <f t="shared" si="14"/>
+        <v/>
+      </c>
+    </row>
+    <row r="955" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C955" t="str">
+        <f t="shared" si="14"/>
+        <v/>
+      </c>
+    </row>
+    <row r="956" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C956" t="str">
+        <f t="shared" si="14"/>
+        <v/>
+      </c>
+    </row>
+    <row r="957" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C957" t="str">
+        <f t="shared" si="14"/>
+        <v/>
+      </c>
+    </row>
+    <row r="958" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C958" t="str">
+        <f t="shared" si="14"/>
+        <v/>
+      </c>
+    </row>
+    <row r="959" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C959" t="str">
+        <f t="shared" si="14"/>
+        <v/>
+      </c>
+    </row>
+    <row r="960" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C960" t="str">
+        <f t="shared" si="14"/>
+        <v/>
+      </c>
+    </row>
+    <row r="961" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C961" t="str">
+        <f t="shared" si="14"/>
+        <v/>
+      </c>
+    </row>
+    <row r="962" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C962" t="str">
+        <f t="shared" si="14"/>
+        <v/>
+      </c>
+    </row>
+    <row r="963" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C963" t="str">
+        <f t="shared" ref="C963:C1026" si="15">LOWER(SUBSTITUTE(B963," ", "_"))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="964" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C964" t="str">
+        <f t="shared" si="15"/>
+        <v/>
+      </c>
+    </row>
+    <row r="965" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C965" t="str">
+        <f t="shared" si="15"/>
+        <v/>
+      </c>
+    </row>
+    <row r="966" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C966" t="str">
+        <f t="shared" si="15"/>
+        <v/>
+      </c>
+    </row>
+    <row r="967" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C967" t="str">
+        <f t="shared" si="15"/>
+        <v/>
+      </c>
+    </row>
+    <row r="968" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C968" t="str">
+        <f t="shared" si="15"/>
+        <v/>
+      </c>
+    </row>
+    <row r="969" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C969" t="str">
+        <f t="shared" si="15"/>
+        <v/>
+      </c>
+    </row>
+    <row r="970" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C970" t="str">
+        <f t="shared" si="15"/>
+        <v/>
+      </c>
+    </row>
+    <row r="971" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C971" t="str">
+        <f t="shared" si="15"/>
+        <v/>
+      </c>
+    </row>
+    <row r="972" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C972" t="str">
+        <f t="shared" si="15"/>
+        <v/>
+      </c>
+    </row>
+    <row r="973" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C973" t="str">
+        <f t="shared" si="15"/>
+        <v/>
+      </c>
+    </row>
+    <row r="974" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C974" t="str">
+        <f t="shared" si="15"/>
+        <v/>
+      </c>
+    </row>
+    <row r="975" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C975" t="str">
+        <f t="shared" si="15"/>
+        <v/>
+      </c>
+    </row>
+    <row r="976" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C976" t="str">
+        <f t="shared" si="15"/>
+        <v/>
+      </c>
+    </row>
+    <row r="977" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C977" t="str">
+        <f t="shared" si="15"/>
+        <v/>
+      </c>
+    </row>
+    <row r="978" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C978" t="str">
+        <f t="shared" si="15"/>
+        <v/>
+      </c>
+    </row>
+    <row r="979" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C979" t="str">
+        <f t="shared" si="15"/>
+        <v/>
+      </c>
+    </row>
+    <row r="980" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C980" t="str">
+        <f t="shared" si="15"/>
+        <v/>
+      </c>
+    </row>
+    <row r="981" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C981" t="str">
+        <f t="shared" si="15"/>
+        <v/>
+      </c>
+    </row>
+    <row r="982" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C982" t="str">
+        <f t="shared" si="15"/>
+        <v/>
+      </c>
+    </row>
+    <row r="983" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C983" t="str">
+        <f t="shared" si="15"/>
+        <v/>
+      </c>
+    </row>
+    <row r="984" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C984" t="str">
+        <f t="shared" si="15"/>
+        <v/>
+      </c>
+    </row>
+    <row r="985" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C985" t="str">
+        <f t="shared" si="15"/>
+        <v/>
+      </c>
+    </row>
+    <row r="986" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C986" t="str">
+        <f t="shared" si="15"/>
+        <v/>
+      </c>
+    </row>
+    <row r="987" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C987" t="str">
+        <f t="shared" si="15"/>
+        <v/>
+      </c>
+    </row>
+    <row r="988" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C988" t="str">
+        <f t="shared" si="15"/>
+        <v/>
+      </c>
+    </row>
+    <row r="989" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C989" t="str">
+        <f t="shared" si="15"/>
+        <v/>
+      </c>
+    </row>
+    <row r="990" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C990" t="str">
+        <f t="shared" si="15"/>
+        <v/>
+      </c>
+    </row>
+    <row r="991" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C991" t="str">
+        <f t="shared" si="15"/>
+        <v/>
+      </c>
+    </row>
+    <row r="992" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C992" t="str">
+        <f t="shared" si="15"/>
+        <v/>
+      </c>
+    </row>
+    <row r="993" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C993" t="str">
+        <f t="shared" si="15"/>
+        <v/>
+      </c>
+    </row>
+    <row r="994" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C994" t="str">
+        <f t="shared" si="15"/>
+        <v/>
+      </c>
+    </row>
+    <row r="995" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C995" t="str">
+        <f t="shared" si="15"/>
+        <v/>
+      </c>
+    </row>
+    <row r="996" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C996" t="str">
+        <f t="shared" si="15"/>
+        <v/>
+      </c>
+    </row>
+    <row r="997" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C997" t="str">
+        <f t="shared" si="15"/>
+        <v/>
+      </c>
+    </row>
+    <row r="998" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C998" t="str">
+        <f t="shared" si="15"/>
+        <v/>
+      </c>
+    </row>
+    <row r="999" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C999" t="str">
+        <f t="shared" si="15"/>
+        <v/>
+      </c>
+    </row>
+    <row r="1000" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C1000" t="str">
+        <f t="shared" si="15"/>
+        <v/>
+      </c>
+    </row>
+    <row r="1001" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C1001" t="str">
+        <f t="shared" si="15"/>
+        <v/>
+      </c>
+    </row>
+    <row r="1002" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C1002" t="str">
+        <f t="shared" si="15"/>
+        <v/>
+      </c>
+    </row>
+    <row r="1003" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C1003" t="str">
+        <f t="shared" si="15"/>
+        <v/>
+      </c>
+    </row>
+    <row r="1004" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C1004" t="str">
+        <f t="shared" si="15"/>
+        <v/>
+      </c>
+    </row>
+    <row r="1005" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C1005" t="str">
+        <f t="shared" si="15"/>
+        <v/>
+      </c>
+    </row>
+    <row r="1006" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C1006" t="str">
+        <f t="shared" si="15"/>
+        <v/>
+      </c>
+    </row>
+    <row r="1007" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C1007" t="str">
+        <f t="shared" si="15"/>
+        <v/>
+      </c>
+    </row>
+    <row r="1008" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C1008" t="str">
+        <f t="shared" si="15"/>
+        <v/>
+      </c>
+    </row>
+    <row r="1009" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C1009" t="str">
+        <f t="shared" si="15"/>
+        <v/>
+      </c>
+    </row>
+    <row r="1010" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C1010" t="str">
+        <f t="shared" si="15"/>
+        <v/>
+      </c>
+    </row>
+    <row r="1011" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C1011" t="str">
+        <f t="shared" si="15"/>
+        <v/>
+      </c>
+    </row>
+    <row r="1012" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C1012" t="str">
+        <f t="shared" si="15"/>
+        <v/>
+      </c>
+    </row>
+    <row r="1013" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C1013" t="str">
+        <f t="shared" si="15"/>
+        <v/>
+      </c>
+    </row>
+    <row r="1014" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C1014" t="str">
+        <f t="shared" si="15"/>
+        <v/>
+      </c>
+    </row>
+    <row r="1015" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C1015" t="str">
+        <f t="shared" si="15"/>
+        <v/>
+      </c>
+    </row>
+    <row r="1016" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C1016" t="str">
+        <f t="shared" si="15"/>
+        <v/>
+      </c>
+    </row>
+    <row r="1017" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C1017" t="str">
+        <f t="shared" si="15"/>
+        <v/>
+      </c>
+    </row>
+    <row r="1018" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C1018" t="str">
+        <f t="shared" si="15"/>
+        <v/>
+      </c>
+    </row>
+    <row r="1019" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C1019" t="str">
+        <f t="shared" si="15"/>
+        <v/>
+      </c>
+    </row>
+    <row r="1020" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C1020" t="str">
+        <f t="shared" si="15"/>
+        <v/>
+      </c>
+    </row>
+    <row r="1021" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C1021" t="str">
+        <f t="shared" si="15"/>
+        <v/>
+      </c>
+    </row>
+    <row r="1022" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C1022" t="str">
+        <f t="shared" si="15"/>
+        <v/>
+      </c>
+    </row>
+    <row r="1023" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C1023" t="str">
+        <f t="shared" si="15"/>
+        <v/>
+      </c>
+    </row>
+    <row r="1024" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C1024" t="str">
+        <f t="shared" si="15"/>
+        <v/>
+      </c>
+    </row>
+    <row r="1025" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C1025" t="str">
+        <f t="shared" si="15"/>
+        <v/>
+      </c>
+    </row>
+    <row r="1026" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C1026" t="str">
+        <f t="shared" si="15"/>
+        <v/>
+      </c>
+    </row>
+    <row r="1027" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C1027" t="str">
+        <f t="shared" ref="C1027:C1090" si="16">LOWER(SUBSTITUTE(B1027," ", "_"))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="1028" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C1028" t="str">
+        <f t="shared" si="16"/>
+        <v/>
+      </c>
+    </row>
+    <row r="1029" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C1029" t="str">
+        <f t="shared" si="16"/>
+        <v/>
+      </c>
+    </row>
+    <row r="1030" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C1030" t="str">
+        <f t="shared" si="16"/>
+        <v/>
+      </c>
+    </row>
+    <row r="1031" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C1031" t="str">
+        <f t="shared" si="16"/>
+        <v/>
+      </c>
+    </row>
+    <row r="1032" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C1032" t="str">
+        <f t="shared" si="16"/>
+        <v/>
+      </c>
+    </row>
+    <row r="1033" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C1033" t="str">
+        <f t="shared" si="16"/>
+        <v/>
+      </c>
+    </row>
+    <row r="1034" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C1034" t="str">
+        <f t="shared" si="16"/>
+        <v/>
+      </c>
+    </row>
+    <row r="1035" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C1035" t="str">
+        <f t="shared" si="16"/>
+        <v/>
+      </c>
+    </row>
+    <row r="1036" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C1036" t="str">
+        <f t="shared" si="16"/>
+        <v/>
+      </c>
+    </row>
+    <row r="1037" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C1037" t="str">
+        <f t="shared" si="16"/>
+        <v/>
+      </c>
+    </row>
+    <row r="1038" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C1038" t="str">
+        <f t="shared" si="16"/>
+        <v/>
+      </c>
+    </row>
+    <row r="1039" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C1039" t="str">
+        <f t="shared" si="16"/>
+        <v/>
+      </c>
+    </row>
+    <row r="1040" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C1040" t="str">
+        <f t="shared" si="16"/>
+        <v/>
+      </c>
+    </row>
+    <row r="1041" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C1041" t="str">
+        <f t="shared" si="16"/>
+        <v/>
+      </c>
+    </row>
+    <row r="1042" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C1042" t="str">
+        <f t="shared" si="16"/>
+        <v/>
+      </c>
+    </row>
+    <row r="1043" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C1043" t="str">
+        <f t="shared" si="16"/>
+        <v/>
+      </c>
+    </row>
+    <row r="1044" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C1044" t="str">
+        <f t="shared" si="16"/>
+        <v/>
+      </c>
+    </row>
+    <row r="1045" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C1045" t="str">
+        <f t="shared" si="16"/>
+        <v/>
+      </c>
+    </row>
+    <row r="1046" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C1046" t="str">
+        <f t="shared" si="16"/>
+        <v/>
+      </c>
+    </row>
+    <row r="1047" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C1047" t="str">
+        <f t="shared" si="16"/>
+        <v/>
+      </c>
+    </row>
+    <row r="1048" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C1048" t="str">
+        <f t="shared" si="16"/>
+        <v/>
+      </c>
+    </row>
+    <row r="1049" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C1049" t="str">
+        <f t="shared" si="16"/>
+        <v/>
+      </c>
+    </row>
+    <row r="1050" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C1050" t="str">
+        <f t="shared" si="16"/>
+        <v/>
+      </c>
+    </row>
+    <row r="1051" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C1051" t="str">
+        <f t="shared" si="16"/>
+        <v/>
+      </c>
+    </row>
+    <row r="1052" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C1052" t="str">
+        <f t="shared" si="16"/>
+        <v/>
+      </c>
+    </row>
+    <row r="1053" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C1053" t="str">
+        <f t="shared" si="16"/>
+        <v/>
+      </c>
+    </row>
+    <row r="1054" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C1054" t="str">
+        <f t="shared" si="16"/>
+        <v/>
+      </c>
+    </row>
+    <row r="1055" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C1055" t="str">
+        <f t="shared" si="16"/>
+        <v/>
+      </c>
+    </row>
+    <row r="1056" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C1056" t="str">
+        <f t="shared" si="16"/>
+        <v/>
+      </c>
+    </row>
+    <row r="1057" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C1057" t="str">
+        <f t="shared" si="16"/>
+        <v/>
+      </c>
+    </row>
+    <row r="1058" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C1058" t="str">
+        <f t="shared" si="16"/>
+        <v/>
+      </c>
+    </row>
+    <row r="1059" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C1059" t="str">
+        <f t="shared" si="16"/>
+        <v/>
+      </c>
+    </row>
+    <row r="1060" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C1060" t="str">
+        <f t="shared" si="16"/>
+        <v/>
+      </c>
+    </row>
+    <row r="1061" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C1061" t="str">
+        <f t="shared" si="16"/>
+        <v/>
+      </c>
+    </row>
+    <row r="1062" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C1062" t="str">
+        <f t="shared" si="16"/>
+        <v/>
+      </c>
+    </row>
+    <row r="1063" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C1063" t="str">
+        <f t="shared" si="16"/>
+        <v/>
+      </c>
+    </row>
+    <row r="1064" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C1064" t="str">
+        <f t="shared" si="16"/>
+        <v/>
+      </c>
+    </row>
+    <row r="1065" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C1065" t="str">
+        <f t="shared" si="16"/>
+        <v/>
+      </c>
+    </row>
+    <row r="1066" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C1066" t="str">
+        <f t="shared" si="16"/>
+        <v/>
+      </c>
+    </row>
+    <row r="1067" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C1067" t="str">
+        <f t="shared" si="16"/>
+        <v/>
+      </c>
+    </row>
+    <row r="1068" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C1068" t="str">
+        <f t="shared" si="16"/>
+        <v/>
+      </c>
+    </row>
+    <row r="1069" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C1069" t="str">
+        <f t="shared" si="16"/>
+        <v/>
+      </c>
+    </row>
+    <row r="1070" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C1070" t="str">
+        <f t="shared" si="16"/>
+        <v/>
+      </c>
+    </row>
+    <row r="1071" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C1071" t="str">
+        <f t="shared" si="16"/>
+        <v/>
+      </c>
+    </row>
+    <row r="1072" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C1072" t="str">
+        <f t="shared" si="16"/>
+        <v/>
+      </c>
+    </row>
+    <row r="1073" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C1073" t="str">
+        <f t="shared" si="16"/>
+        <v/>
+      </c>
+    </row>
+    <row r="1074" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C1074" t="str">
+        <f t="shared" si="16"/>
+        <v/>
+      </c>
+    </row>
+    <row r="1075" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C1075" t="str">
+        <f t="shared" si="16"/>
+        <v/>
+      </c>
+    </row>
+    <row r="1076" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C1076" t="str">
+        <f t="shared" si="16"/>
+        <v/>
+      </c>
+    </row>
+    <row r="1077" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C1077" t="str">
+        <f t="shared" si="16"/>
+        <v/>
+      </c>
+    </row>
+    <row r="1078" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C1078" t="str">
+        <f t="shared" si="16"/>
+        <v/>
+      </c>
+    </row>
+    <row r="1079" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C1079" t="str">
+        <f t="shared" si="16"/>
+        <v/>
+      </c>
+    </row>
+    <row r="1080" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C1080" t="str">
+        <f t="shared" si="16"/>
+        <v/>
+      </c>
+    </row>
+    <row r="1081" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C1081" t="str">
+        <f t="shared" si="16"/>
+        <v/>
+      </c>
+    </row>
+    <row r="1082" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C1082" t="str">
+        <f t="shared" si="16"/>
+        <v/>
+      </c>
+    </row>
+    <row r="1083" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C1083" t="str">
+        <f t="shared" si="16"/>
+        <v/>
+      </c>
+    </row>
+    <row r="1084" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C1084" t="str">
+        <f t="shared" si="16"/>
+        <v/>
+      </c>
+    </row>
+    <row r="1085" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C1085" t="str">
+        <f t="shared" si="16"/>
+        <v/>
+      </c>
+    </row>
+    <row r="1086" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C1086" t="str">
+        <f t="shared" si="16"/>
+        <v/>
+      </c>
+    </row>
+    <row r="1087" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C1087" t="str">
+        <f t="shared" si="16"/>
+        <v/>
+      </c>
+    </row>
+    <row r="1088" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C1088" t="str">
+        <f t="shared" si="16"/>
+        <v/>
+      </c>
+    </row>
+    <row r="1089" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C1089" t="str">
+        <f t="shared" si="16"/>
+        <v/>
+      </c>
+    </row>
+    <row r="1090" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C1090" t="str">
+        <f t="shared" si="16"/>
+        <v/>
+      </c>
+    </row>
+    <row r="1091" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C1091" t="str">
+        <f t="shared" ref="C1091:C1154" si="17">LOWER(SUBSTITUTE(B1091," ", "_"))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="1092" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C1092" t="str">
+        <f t="shared" si="17"/>
+        <v/>
+      </c>
+    </row>
+    <row r="1093" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C1093" t="str">
+        <f t="shared" si="17"/>
+        <v/>
+      </c>
+    </row>
+    <row r="1094" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C1094" t="str">
+        <f t="shared" si="17"/>
+        <v/>
+      </c>
+    </row>
+    <row r="1095" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C1095" t="str">
+        <f t="shared" si="17"/>
+        <v/>
+      </c>
+    </row>
+    <row r="1096" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C1096" t="str">
+        <f t="shared" si="17"/>
+        <v/>
+      </c>
+    </row>
+    <row r="1097" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C1097" t="str">
+        <f t="shared" si="17"/>
+        <v/>
+      </c>
+    </row>
+    <row r="1098" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C1098" t="str">
+        <f t="shared" si="17"/>
+        <v/>
+      </c>
+    </row>
+    <row r="1099" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C1099" t="str">
+        <f t="shared" si="17"/>
+        <v/>
+      </c>
+    </row>
+    <row r="1100" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C1100" t="str">
+        <f t="shared" si="17"/>
+        <v/>
+      </c>
+    </row>
+    <row r="1101" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C1101" t="str">
+        <f t="shared" si="17"/>
+        <v/>
+      </c>
+    </row>
+    <row r="1102" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C1102" t="str">
+        <f t="shared" si="17"/>
+        <v/>
+      </c>
+    </row>
+    <row r="1103" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C1103" t="str">
+        <f t="shared" si="17"/>
+        <v/>
+      </c>
+    </row>
+    <row r="1104" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C1104" t="str">
+        <f t="shared" si="17"/>
+        <v/>
+      </c>
+    </row>
+    <row r="1105" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C1105" t="str">
+        <f t="shared" si="17"/>
+        <v/>
+      </c>
+    </row>
+    <row r="1106" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C1106" t="str">
+        <f t="shared" si="17"/>
+        <v/>
+      </c>
+    </row>
+    <row r="1107" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C1107" t="str">
+        <f t="shared" si="17"/>
+        <v/>
+      </c>
+    </row>
+    <row r="1108" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C1108" t="str">
+        <f t="shared" si="17"/>
+        <v/>
+      </c>
+    </row>
+    <row r="1109" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C1109" t="str">
+        <f t="shared" si="17"/>
+        <v/>
+      </c>
+    </row>
+    <row r="1110" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C1110" t="str">
+        <f t="shared" si="17"/>
+        <v/>
+      </c>
+    </row>
+    <row r="1111" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C1111" t="str">
+        <f t="shared" si="17"/>
+        <v/>
+      </c>
+    </row>
+    <row r="1112" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C1112" t="str">
+        <f t="shared" si="17"/>
+        <v/>
+      </c>
+    </row>
+    <row r="1113" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C1113" t="str">
+        <f t="shared" si="17"/>
+        <v/>
+      </c>
+    </row>
+    <row r="1114" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C1114" t="str">
+        <f t="shared" si="17"/>
+        <v/>
+      </c>
+    </row>
+    <row r="1115" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C1115" t="str">
+        <f t="shared" si="17"/>
+        <v/>
+      </c>
+    </row>
+    <row r="1116" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C1116" t="str">
+        <f t="shared" si="17"/>
+        <v/>
+      </c>
+    </row>
+    <row r="1117" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C1117" t="str">
+        <f t="shared" si="17"/>
+        <v/>
+      </c>
+    </row>
+    <row r="1118" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C1118" t="str">
+        <f t="shared" si="17"/>
+        <v/>
+      </c>
+    </row>
+    <row r="1119" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C1119" t="str">
+        <f t="shared" si="17"/>
+        <v/>
+      </c>
+    </row>
+    <row r="1120" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C1120" t="str">
+        <f t="shared" si="17"/>
+        <v/>
+      </c>
+    </row>
+    <row r="1121" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C1121" t="str">
+        <f t="shared" si="17"/>
+        <v/>
+      </c>
+    </row>
+    <row r="1122" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C1122" t="str">
+        <f t="shared" si="17"/>
+        <v/>
+      </c>
+    </row>
+    <row r="1123" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C1123" t="str">
+        <f t="shared" si="17"/>
+        <v/>
+      </c>
+    </row>
+    <row r="1124" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C1124" t="str">
+        <f t="shared" si="17"/>
+        <v/>
+      </c>
+    </row>
+    <row r="1125" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C1125" t="str">
+        <f t="shared" si="17"/>
+        <v/>
+      </c>
+    </row>
+    <row r="1126" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C1126" t="str">
+        <f t="shared" si="17"/>
+        <v/>
+      </c>
+    </row>
+    <row r="1127" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C1127" t="str">
+        <f t="shared" si="17"/>
+        <v/>
+      </c>
+    </row>
+    <row r="1128" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C1128" t="str">
+        <f t="shared" si="17"/>
+        <v/>
+      </c>
+    </row>
+    <row r="1129" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C1129" t="str">
+        <f t="shared" si="17"/>
+        <v/>
+      </c>
+    </row>
+    <row r="1130" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C1130" t="str">
+        <f t="shared" si="17"/>
+        <v/>
+      </c>
+    </row>
+    <row r="1131" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C1131" t="str">
+        <f t="shared" si="17"/>
+        <v/>
+      </c>
+    </row>
+    <row r="1132" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C1132" t="str">
+        <f t="shared" si="17"/>
+        <v/>
+      </c>
+    </row>
+    <row r="1133" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C1133" t="str">
+        <f t="shared" si="17"/>
+        <v/>
+      </c>
+    </row>
+    <row r="1134" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C1134" t="str">
+        <f t="shared" si="17"/>
+        <v/>
+      </c>
+    </row>
+    <row r="1135" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C1135" t="str">
+        <f t="shared" si="17"/>
+        <v/>
+      </c>
+    </row>
+    <row r="1136" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C1136" t="str">
+        <f t="shared" si="17"/>
+        <v/>
+      </c>
+    </row>
+    <row r="1137" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C1137" t="str">
+        <f t="shared" si="17"/>
+        <v/>
+      </c>
+    </row>
+    <row r="1138" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C1138" t="str">
+        <f t="shared" si="17"/>
+        <v/>
+      </c>
+    </row>
+    <row r="1139" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C1139" t="str">
+        <f t="shared" si="17"/>
+        <v/>
+      </c>
+    </row>
+    <row r="1140" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C1140" t="str">
+        <f t="shared" si="17"/>
+        <v/>
+      </c>
+    </row>
+    <row r="1141" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C1141" t="str">
+        <f t="shared" si="17"/>
+        <v/>
+      </c>
+    </row>
+    <row r="1142" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C1142" t="str">
+        <f t="shared" si="17"/>
+        <v/>
+      </c>
+    </row>
+    <row r="1143" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C1143" t="str">
+        <f t="shared" si="17"/>
+        <v/>
+      </c>
+    </row>
+    <row r="1144" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C1144" t="str">
+        <f t="shared" si="17"/>
+        <v/>
+      </c>
+    </row>
+    <row r="1145" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C1145" t="str">
+        <f t="shared" si="17"/>
+        <v/>
+      </c>
+    </row>
+    <row r="1146" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C1146" t="str">
+        <f t="shared" si="17"/>
+        <v/>
+      </c>
+    </row>
+    <row r="1147" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C1147" t="str">
+        <f t="shared" si="17"/>
+        <v/>
+      </c>
+    </row>
+    <row r="1148" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C1148" t="str">
+        <f t="shared" si="17"/>
+        <v/>
+      </c>
+    </row>
+    <row r="1149" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C1149" t="str">
+        <f t="shared" si="17"/>
+        <v/>
+      </c>
+    </row>
+    <row r="1150" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C1150" t="str">
+        <f t="shared" si="17"/>
+        <v/>
+      </c>
+    </row>
+    <row r="1151" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C1151" t="str">
+        <f t="shared" si="17"/>
+        <v/>
+      </c>
+    </row>
+    <row r="1152" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C1152" t="str">
+        <f t="shared" si="17"/>
+        <v/>
+      </c>
+    </row>
+    <row r="1153" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C1153" t="str">
+        <f t="shared" si="17"/>
+        <v/>
+      </c>
+    </row>
+    <row r="1154" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C1154" t="str">
+        <f t="shared" si="17"/>
+        <v/>
+      </c>
+    </row>
+    <row r="1155" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C1155" t="str">
+        <f t="shared" ref="C1155:C1218" si="18">LOWER(SUBSTITUTE(B1155," ", "_"))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="1156" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C1156" t="str">
+        <f t="shared" si="18"/>
+        <v/>
+      </c>
+    </row>
+    <row r="1157" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C1157" t="str">
+        <f t="shared" si="18"/>
+        <v/>
+      </c>
+    </row>
+    <row r="1158" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C1158" t="str">
+        <f t="shared" si="18"/>
+        <v/>
+      </c>
+    </row>
+    <row r="1159" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C1159" t="str">
+        <f t="shared" si="18"/>
+        <v/>
+      </c>
+    </row>
+    <row r="1160" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C1160" t="str">
+        <f t="shared" si="18"/>
+        <v/>
+      </c>
+    </row>
+    <row r="1161" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C1161" t="str">
+        <f t="shared" si="18"/>
+        <v/>
+      </c>
+    </row>
+    <row r="1162" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C1162" t="str">
+        <f t="shared" si="18"/>
+        <v/>
+      </c>
+    </row>
+    <row r="1163" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C1163" t="str">
+        <f t="shared" si="18"/>
+        <v/>
+      </c>
+    </row>
+    <row r="1164" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C1164" t="str">
+        <f t="shared" si="18"/>
+        <v/>
+      </c>
+    </row>
+    <row r="1165" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C1165" t="str">
+        <f t="shared" si="18"/>
+        <v/>
+      </c>
+    </row>
+    <row r="1166" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C1166" t="str">
+        <f t="shared" si="18"/>
+        <v/>
+      </c>
+    </row>
+    <row r="1167" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C1167" t="str">
+        <f t="shared" si="18"/>
+        <v/>
+      </c>
+    </row>
+    <row r="1168" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C1168" t="str">
+        <f t="shared" si="18"/>
+        <v/>
+      </c>
+    </row>
+    <row r="1169" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C1169" t="str">
+        <f t="shared" si="18"/>
+        <v/>
+      </c>
+    </row>
+    <row r="1170" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C1170" t="str">
+        <f t="shared" si="18"/>
+        <v/>
+      </c>
+    </row>
+    <row r="1171" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C1171" t="str">
+        <f t="shared" si="18"/>
+        <v/>
+      </c>
+    </row>
+    <row r="1172" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C1172" t="str">
+        <f t="shared" si="18"/>
+        <v/>
+      </c>
+    </row>
+    <row r="1173" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C1173" t="str">
+        <f t="shared" si="18"/>
+        <v/>
+      </c>
+    </row>
+    <row r="1174" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C1174" t="str">
+        <f t="shared" si="18"/>
+        <v/>
+      </c>
+    </row>
+    <row r="1175" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C1175" t="str">
+        <f t="shared" si="18"/>
+        <v/>
+      </c>
+    </row>
+    <row r="1176" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C1176" t="str">
+        <f t="shared" si="18"/>
+        <v/>
+      </c>
+    </row>
+    <row r="1177" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C1177" t="str">
+        <f t="shared" si="18"/>
+        <v/>
+      </c>
+    </row>
+    <row r="1178" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C1178" t="str">
+        <f t="shared" si="18"/>
+        <v/>
+      </c>
+    </row>
+    <row r="1179" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C1179" t="str">
+        <f t="shared" si="18"/>
+        <v/>
+      </c>
+    </row>
+    <row r="1180" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C1180" t="str">
+        <f t="shared" si="18"/>
+        <v/>
+      </c>
+    </row>
+    <row r="1181" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C1181" t="str">
+        <f t="shared" si="18"/>
+        <v/>
+      </c>
+    </row>
+    <row r="1182" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C1182" t="str">
+        <f t="shared" si="18"/>
+        <v/>
+      </c>
+    </row>
+    <row r="1183" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C1183" t="str">
+        <f t="shared" si="18"/>
+        <v/>
+      </c>
+    </row>
+    <row r="1184" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C1184" t="str">
+        <f t="shared" si="18"/>
+        <v/>
+      </c>
+    </row>
+    <row r="1185" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C1185" t="str">
+        <f t="shared" si="18"/>
+        <v/>
+      </c>
+    </row>
+    <row r="1186" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C1186" t="str">
+        <f t="shared" si="18"/>
+        <v/>
+      </c>
+    </row>
+    <row r="1187" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C1187" t="str">
+        <f t="shared" si="18"/>
+        <v/>
+      </c>
+    </row>
+    <row r="1188" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C1188" t="str">
+        <f t="shared" si="18"/>
+        <v/>
+      </c>
+    </row>
+    <row r="1189" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C1189" t="str">
+        <f t="shared" si="18"/>
+        <v/>
+      </c>
+    </row>
+    <row r="1190" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C1190" t="str">
+        <f t="shared" si="18"/>
+        <v/>
+      </c>
+    </row>
+    <row r="1191" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C1191" t="str">
+        <f t="shared" si="18"/>
+        <v/>
+      </c>
+    </row>
+    <row r="1192" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C1192" t="str">
+        <f t="shared" si="18"/>
+        <v/>
+      </c>
+    </row>
+    <row r="1193" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C1193" t="str">
+        <f t="shared" si="18"/>
+        <v/>
+      </c>
+    </row>
+    <row r="1194" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C1194" t="str">
+        <f t="shared" si="18"/>
+        <v/>
+      </c>
+    </row>
+    <row r="1195" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C1195" t="str">
+        <f t="shared" si="18"/>
+        <v/>
+      </c>
+    </row>
+    <row r="1196" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C1196" t="str">
+        <f t="shared" si="18"/>
+        <v/>
+      </c>
+    </row>
+    <row r="1197" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C1197" t="str">
+        <f t="shared" si="18"/>
+        <v/>
+      </c>
+    </row>
+    <row r="1198" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C1198" t="str">
+        <f t="shared" si="18"/>
+        <v/>
+      </c>
+    </row>
+    <row r="1199" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C1199" t="str">
+        <f t="shared" si="18"/>
+        <v/>
+      </c>
+    </row>
+    <row r="1200" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C1200" t="str">
+        <f t="shared" si="18"/>
+        <v/>
+      </c>
+    </row>
+    <row r="1201" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C1201" t="str">
+        <f t="shared" si="18"/>
+        <v/>
+      </c>
+    </row>
+    <row r="1202" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C1202" t="str">
+        <f t="shared" si="18"/>
+        <v/>
+      </c>
+    </row>
+    <row r="1203" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C1203" t="str">
+        <f t="shared" si="18"/>
+        <v/>
+      </c>
+    </row>
+    <row r="1204" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C1204" t="str">
+        <f t="shared" si="18"/>
+        <v/>
+      </c>
+    </row>
+    <row r="1205" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C1205" t="str">
+        <f t="shared" si="18"/>
+        <v/>
+      </c>
+    </row>
+    <row r="1206" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C1206" t="str">
+        <f t="shared" si="18"/>
+        <v/>
+      </c>
+    </row>
+    <row r="1207" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C1207" t="str">
+        <f t="shared" si="18"/>
+        <v/>
+      </c>
+    </row>
+    <row r="1208" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C1208" t="str">
+        <f t="shared" si="18"/>
+        <v/>
+      </c>
+    </row>
+    <row r="1209" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C1209" t="str">
+        <f t="shared" si="18"/>
+        <v/>
+      </c>
+    </row>
+    <row r="1210" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C1210" t="str">
+        <f t="shared" si="18"/>
+        <v/>
+      </c>
+    </row>
+    <row r="1211" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C1211" t="str">
+        <f t="shared" si="18"/>
+        <v/>
+      </c>
+    </row>
+    <row r="1212" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C1212" t="str">
+        <f t="shared" si="18"/>
+        <v/>
+      </c>
+    </row>
+    <row r="1213" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C1213" t="str">
+        <f t="shared" si="18"/>
+        <v/>
+      </c>
+    </row>
+    <row r="1214" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C1214" t="str">
+        <f t="shared" si="18"/>
+        <v/>
+      </c>
+    </row>
+    <row r="1215" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C1215" t="str">
+        <f t="shared" si="18"/>
+        <v/>
+      </c>
+    </row>
+    <row r="1216" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C1216" t="str">
+        <f t="shared" si="18"/>
+        <v/>
+      </c>
+    </row>
+    <row r="1217" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C1217" t="str">
+        <f t="shared" si="18"/>
+        <v/>
+      </c>
+    </row>
+    <row r="1218" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C1218" t="str">
+        <f t="shared" si="18"/>
+        <v/>
+      </c>
+    </row>
+    <row r="1219" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C1219" t="str">
+        <f t="shared" ref="C1219" si="19">LOWER(SUBSTITUTE(B1219," ", "_"))</f>
+        <v/>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
+      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="1">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{8BA80624-6379-4C74-BA4D-03256445D74B}">
+          <x14:formula1>
+            <xm:f>Properties!$A$2:$A$22487</xm:f>
+          </x14:formula1>
+          <xm:sqref>A2:A1048576</xm:sqref>
+        </x14:dataValidation>
+      </x14:dataValidations>
+    </ext>
+  </extLst>
+</worksheet>
 </file>
--- a/public/Importer Blank.xlsx
+++ b/public/Importer Blank.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25629"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25726"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\disne\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\disne\Desktop\Dev\apt8\rowprop\public\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1AB5A207-C080-4357-83D1-2ACE65C59E29}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3DB882B0-5B15-4F59-AB81-83E912653CFD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="30735" yWindow="945" windowWidth="27630" windowHeight="15660" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="690" yWindow="1350" windowWidth="27630" windowHeight="15660" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Properties" sheetId="1" r:id="rId1"/>
@@ -43,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="29">
   <si>
     <t>Label</t>
   </si>
@@ -451,7 +451,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H4" sqref="H4"/>
+      <selection pane="bottomLeft" activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -462,6 +462,9 @@
     <row r="1" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>27</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>1</v>
@@ -6670,7 +6673,7 @@
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.2">
       <c r="C11" t="str">
-        <f t="shared" ref="C3:C66" si="0">LOWER(SUBSTITUTE(B11," ", "_"))</f>
+        <f t="shared" ref="C11:C66" si="0">LOWER(SUBSTITUTE(B11," ", "_"))</f>
         <v/>
       </c>
     </row>
